--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga10_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga10_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>1019</v>
+        <v>25481</v>
       </c>
       <c r="B2">
-        <v>254.75</v>
+        <v>254.81</v>
       </c>
       <c r="C2">
         <v>255</v>
@@ -465,22 +465,22 @@
         <v>255</v>
       </c>
       <c r="E2">
-        <v>0.25</v>
+        <v>0.9433333333333364</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.9712534856222326</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="I2">
         <v>255</v>
       </c>
       <c r="J2">
-        <v>254.75</v>
+        <v>255</v>
       </c>
       <c r="K2">
         <v>255</v>
@@ -491,37 +491,37 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>880</v>
+        <v>25481</v>
       </c>
       <c r="B3">
-        <v>220</v>
+        <v>254.81</v>
       </c>
       <c r="C3">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>255</v>
       </c>
       <c r="E3">
-        <v>2156</v>
+        <v>0.9433333333333364</v>
       </c>
       <c r="F3">
-        <v>46.4327470649756</v>
+        <v>0.9712534856222326</v>
       </c>
       <c r="G3">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="I3">
         <v>255</v>
       </c>
       <c r="J3">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="K3">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="L3">
         <v>255</v>
@@ -529,37 +529,37 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>795</v>
+        <v>25480</v>
       </c>
       <c r="B4">
-        <v>198.75</v>
+        <v>254.8</v>
       </c>
       <c r="C4">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="D4">
         <v>255</v>
       </c>
       <c r="E4">
-        <v>4246.916666666667</v>
+        <v>0.9494949494949475</v>
       </c>
       <c r="F4">
-        <v>65.16837167419996</v>
+        <v>0.9744203145947582</v>
       </c>
       <c r="G4">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="I4">
         <v>255</v>
       </c>
       <c r="J4">
-        <v>145.75</v>
+        <v>255</v>
       </c>
       <c r="K4">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="L4">
         <v>255</v>
@@ -567,39 +567,3687 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>710</v>
+        <v>25481</v>
       </c>
       <c r="B5">
-        <v>177.5</v>
+        <v>254.81</v>
       </c>
       <c r="C5">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="D5">
         <v>255</v>
       </c>
       <c r="E5">
-        <v>8361</v>
+        <v>0.6807070707070737</v>
       </c>
       <c r="F5">
-        <v>91.43850392476902</v>
+        <v>0.8250497383231351</v>
       </c>
       <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>250</v>
+      </c>
+      <c r="I5">
+        <v>255</v>
+      </c>
+      <c r="J5">
+        <v>255</v>
+      </c>
+      <c r="K5">
+        <v>255</v>
+      </c>
+      <c r="L5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>25482</v>
+      </c>
+      <c r="B6">
+        <v>254.82</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="E6">
+        <v>0.633939393939394</v>
+      </c>
+      <c r="F6">
+        <v>0.7962031109832428</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>251</v>
+      </c>
+      <c r="I6">
+        <v>255</v>
+      </c>
+      <c r="J6">
+        <v>255</v>
+      </c>
+      <c r="K6">
+        <v>255</v>
+      </c>
+      <c r="L6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>25382</v>
+      </c>
+      <c r="B7">
+        <v>253.82</v>
+      </c>
+      <c r="C7">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+      <c r="E7">
+        <v>39.9672727272728</v>
+      </c>
+      <c r="F7">
+        <v>6.321967472810407</v>
+      </c>
+      <c r="G7">
+        <v>61</v>
+      </c>
+      <c r="H7">
+        <v>194</v>
+      </c>
+      <c r="I7">
+        <v>255</v>
+      </c>
+      <c r="J7">
+        <v>255</v>
+      </c>
+      <c r="K7">
+        <v>255</v>
+      </c>
+      <c r="L7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>25192</v>
+      </c>
+      <c r="B8">
+        <v>251.92</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+      <c r="E8">
+        <v>292.1147474747482</v>
+      </c>
+      <c r="F8">
+        <v>17.09136470486626</v>
+      </c>
+      <c r="G8">
+        <v>138</v>
+      </c>
+      <c r="H8">
+        <v>117</v>
+      </c>
+      <c r="I8">
+        <v>255</v>
+      </c>
+      <c r="J8">
+        <v>255</v>
+      </c>
+      <c r="K8">
+        <v>255</v>
+      </c>
+      <c r="L8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>25084</v>
+      </c>
+      <c r="B9">
+        <v>250.84</v>
+      </c>
+      <c r="C9">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>255</v>
+      </c>
+      <c r="E9">
+        <v>552.5397979797979</v>
+      </c>
+      <c r="F9">
+        <v>23.50616510577168</v>
+      </c>
+      <c r="G9">
+        <v>187</v>
+      </c>
+      <c r="H9">
+        <v>68</v>
+      </c>
+      <c r="I9">
+        <v>255</v>
+      </c>
+      <c r="J9">
+        <v>255</v>
+      </c>
+      <c r="K9">
+        <v>255</v>
+      </c>
+      <c r="L9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>24910</v>
+      </c>
+      <c r="B10">
+        <v>249.1</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>255</v>
+      </c>
+      <c r="E10">
+        <v>717.0202020202006</v>
+      </c>
+      <c r="F10">
+        <v>26.77723290446944</v>
+      </c>
+      <c r="G10">
+        <v>175</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <v>255</v>
+      </c>
+      <c r="J10">
+        <v>255</v>
+      </c>
+      <c r="K10">
+        <v>255</v>
+      </c>
+      <c r="L10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>25094</v>
+      </c>
+      <c r="B11">
+        <v>250.94</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>255</v>
+      </c>
+      <c r="E11">
+        <v>333.3903030303029</v>
+      </c>
+      <c r="F11">
+        <v>18.25897869625524</v>
+      </c>
+      <c r="G11">
+        <v>112</v>
+      </c>
+      <c r="H11">
+        <v>143</v>
+      </c>
+      <c r="I11">
+        <v>255</v>
+      </c>
+      <c r="J11">
+        <v>255</v>
+      </c>
+      <c r="K11">
+        <v>255</v>
+      </c>
+      <c r="L11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>25128</v>
+      </c>
+      <c r="B12">
+        <v>251.28</v>
+      </c>
+      <c r="C12">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>361.6985858585862</v>
+      </c>
+      <c r="F12">
+        <v>19.01837495314955</v>
+      </c>
+      <c r="G12">
+        <v>125</v>
+      </c>
+      <c r="H12">
+        <v>130</v>
+      </c>
+      <c r="I12">
+        <v>255</v>
+      </c>
+      <c r="J12">
+        <v>255</v>
+      </c>
+      <c r="K12">
+        <v>255</v>
+      </c>
+      <c r="L12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>25181</v>
+      </c>
+      <c r="B13">
+        <v>251.81</v>
+      </c>
+      <c r="C13">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>255</v>
+      </c>
+      <c r="E13">
+        <v>244.9029292929295</v>
+      </c>
+      <c r="F13">
+        <v>15.64937472530227</v>
+      </c>
+      <c r="G13">
+        <v>104</v>
+      </c>
+      <c r="H13">
+        <v>151</v>
+      </c>
+      <c r="I13">
+        <v>255</v>
+      </c>
+      <c r="J13">
+        <v>255</v>
+      </c>
+      <c r="K13">
+        <v>255</v>
+      </c>
+      <c r="L13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>25222</v>
+      </c>
+      <c r="B14">
+        <v>252.22</v>
+      </c>
+      <c r="C14">
+        <v>255</v>
+      </c>
+      <c r="D14">
+        <v>255</v>
+      </c>
+      <c r="E14">
+        <v>181.6278787878787</v>
+      </c>
+      <c r="F14">
+        <v>13.47693877658716</v>
+      </c>
+      <c r="G14">
+        <v>91</v>
+      </c>
+      <c r="H14">
+        <v>164</v>
+      </c>
+      <c r="I14">
+        <v>255</v>
+      </c>
+      <c r="J14">
+        <v>255</v>
+      </c>
+      <c r="K14">
+        <v>255</v>
+      </c>
+      <c r="L14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>25215</v>
+      </c>
+      <c r="B15">
+        <v>252.15</v>
+      </c>
+      <c r="C15">
+        <v>255</v>
+      </c>
+      <c r="D15">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <v>217.704545454546</v>
+      </c>
+      <c r="F15">
+        <v>14.75481431447194</v>
+      </c>
+      <c r="G15">
+        <v>106</v>
+      </c>
+      <c r="H15">
+        <v>149</v>
+      </c>
+      <c r="I15">
+        <v>255</v>
+      </c>
+      <c r="J15">
+        <v>255</v>
+      </c>
+      <c r="K15">
+        <v>255</v>
+      </c>
+      <c r="L15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>25209</v>
+      </c>
+      <c r="B16">
+        <v>252.09</v>
+      </c>
+      <c r="C16">
+        <v>255</v>
+      </c>
+      <c r="D16">
+        <v>255</v>
+      </c>
+      <c r="E16">
+        <v>185.8201010101002</v>
+      </c>
+      <c r="F16">
+        <v>13.63158468447818</v>
+      </c>
+      <c r="G16">
+        <v>99</v>
+      </c>
+      <c r="H16">
+        <v>156</v>
+      </c>
+      <c r="I16">
+        <v>255</v>
+      </c>
+      <c r="J16">
+        <v>254</v>
+      </c>
+      <c r="K16">
+        <v>255</v>
+      </c>
+      <c r="L16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>25175</v>
+      </c>
+      <c r="B17">
+        <v>251.75</v>
+      </c>
+      <c r="C17">
+        <v>255</v>
+      </c>
+      <c r="D17">
+        <v>255</v>
+      </c>
+      <c r="E17">
+        <v>210.1085858585859</v>
+      </c>
+      <c r="F17">
+        <v>14.49512283006204</v>
+      </c>
+      <c r="G17">
+        <v>103</v>
+      </c>
+      <c r="H17">
+        <v>152</v>
+      </c>
+      <c r="I17">
+        <v>255</v>
+      </c>
+      <c r="J17">
+        <v>252</v>
+      </c>
+      <c r="K17">
+        <v>255</v>
+      </c>
+      <c r="L17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>25135</v>
+      </c>
+      <c r="B18">
+        <v>251.35</v>
+      </c>
+      <c r="C18">
+        <v>255</v>
+      </c>
+      <c r="D18">
+        <v>255</v>
+      </c>
+      <c r="E18">
+        <v>157.3005050505051</v>
+      </c>
+      <c r="F18">
+        <v>12.54194981055598</v>
+      </c>
+      <c r="G18">
+        <v>101</v>
+      </c>
+      <c r="H18">
+        <v>154</v>
+      </c>
+      <c r="I18">
+        <v>255</v>
+      </c>
+      <c r="J18">
+        <v>251.75</v>
+      </c>
+      <c r="K18">
+        <v>255</v>
+      </c>
+      <c r="L18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>24534</v>
+      </c>
+      <c r="B19">
+        <v>245.34</v>
+      </c>
+      <c r="C19">
+        <v>255</v>
+      </c>
+      <c r="D19">
+        <v>255</v>
+      </c>
+      <c r="E19">
+        <v>325.7418181818186</v>
+      </c>
+      <c r="F19">
+        <v>18.04831898493094</v>
+      </c>
+      <c r="G19">
+        <v>107</v>
+      </c>
+      <c r="H19">
+        <v>148</v>
+      </c>
+      <c r="I19">
+        <v>255</v>
+      </c>
+      <c r="J19">
+        <v>241.5</v>
+      </c>
+      <c r="K19">
+        <v>255</v>
+      </c>
+      <c r="L19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>23893</v>
+      </c>
+      <c r="B20">
+        <v>238.93</v>
+      </c>
+      <c r="C20">
+        <v>255</v>
+      </c>
+      <c r="D20">
+        <v>255</v>
+      </c>
+      <c r="E20">
+        <v>672.2273737373736</v>
+      </c>
+      <c r="F20">
+        <v>25.92734798889724</v>
+      </c>
+      <c r="G20">
+        <v>103</v>
+      </c>
+      <c r="H20">
+        <v>152</v>
+      </c>
+      <c r="I20">
+        <v>255</v>
+      </c>
+      <c r="J20">
+        <v>222.5</v>
+      </c>
+      <c r="K20">
+        <v>255</v>
+      </c>
+      <c r="L20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>23519</v>
+      </c>
+      <c r="B21">
+        <v>235.19</v>
+      </c>
+      <c r="C21">
+        <v>255</v>
+      </c>
+      <c r="D21">
+        <v>255</v>
+      </c>
+      <c r="E21">
+        <v>866.3170707070727</v>
+      </c>
+      <c r="F21">
+        <v>29.43326469671811</v>
+      </c>
+      <c r="G21">
+        <v>96</v>
+      </c>
+      <c r="H21">
+        <v>159</v>
+      </c>
+      <c r="I21">
+        <v>255</v>
+      </c>
+      <c r="J21">
+        <v>211.75</v>
+      </c>
+      <c r="K21">
+        <v>255</v>
+      </c>
+      <c r="L21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>23318</v>
+      </c>
+      <c r="B22">
+        <v>233.18</v>
+      </c>
+      <c r="C22">
+        <v>255</v>
+      </c>
+      <c r="D22">
+        <v>255</v>
+      </c>
+      <c r="E22">
+        <v>942.8763636363636</v>
+      </c>
+      <c r="F22">
+        <v>30.70629192260706</v>
+      </c>
+      <c r="G22">
+        <v>103</v>
+      </c>
+      <c r="H22">
+        <v>152</v>
+      </c>
+      <c r="I22">
+        <v>255</v>
+      </c>
+      <c r="J22">
+        <v>206</v>
+      </c>
+      <c r="K22">
+        <v>255</v>
+      </c>
+      <c r="L22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>23079</v>
+      </c>
+      <c r="B23">
+        <v>230.79</v>
+      </c>
+      <c r="C23">
+        <v>254.5</v>
+      </c>
+      <c r="D23">
+        <v>255</v>
+      </c>
+      <c r="E23">
+        <v>1032.551414141414</v>
+      </c>
+      <c r="F23">
+        <v>32.1333380485348</v>
+      </c>
+      <c r="G23">
+        <v>102</v>
+      </c>
+      <c r="H23">
+        <v>153</v>
+      </c>
+      <c r="I23">
+        <v>255</v>
+      </c>
+      <c r="J23">
+        <v>201.5</v>
+      </c>
+      <c r="K23">
+        <v>254.5</v>
+      </c>
+      <c r="L23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>22859</v>
+      </c>
+      <c r="B24">
+        <v>228.59</v>
+      </c>
+      <c r="C24">
+        <v>254</v>
+      </c>
+      <c r="D24">
+        <v>255</v>
+      </c>
+      <c r="E24">
+        <v>1070.668585858587</v>
+      </c>
+      <c r="F24">
+        <v>32.72107250471149</v>
+      </c>
+      <c r="G24">
+        <v>83</v>
+      </c>
+      <c r="H24">
+        <v>172</v>
+      </c>
+      <c r="I24">
+        <v>255</v>
+      </c>
+      <c r="J24">
+        <v>193.75</v>
+      </c>
+      <c r="K24">
+        <v>254</v>
+      </c>
+      <c r="L24">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>22457</v>
+      </c>
+      <c r="B25">
+        <v>224.57</v>
+      </c>
+      <c r="C25">
+        <v>254.5</v>
+      </c>
+      <c r="D25">
+        <v>255</v>
+      </c>
+      <c r="E25">
+        <v>1332.631414141413</v>
+      </c>
+      <c r="F25">
+        <v>36.50522447734588</v>
+      </c>
+      <c r="G25">
+        <v>92</v>
+      </c>
+      <c r="H25">
+        <v>163</v>
+      </c>
+      <c r="I25">
+        <v>255</v>
+      </c>
+      <c r="J25">
+        <v>181.75</v>
+      </c>
+      <c r="K25">
+        <v>254.5</v>
+      </c>
+      <c r="L25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>22289</v>
+      </c>
+      <c r="B26">
+        <v>222.89</v>
+      </c>
+      <c r="C26">
+        <v>254</v>
+      </c>
+      <c r="D26">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>1397.533232323232</v>
+      </c>
+      <c r="F26">
+        <v>37.38359576503084</v>
+      </c>
+      <c r="G26">
+        <v>98</v>
+      </c>
+      <c r="H26">
+        <v>157</v>
+      </c>
+      <c r="I26">
+        <v>255</v>
+      </c>
+      <c r="J26">
+        <v>183.5</v>
+      </c>
+      <c r="K26">
+        <v>254</v>
+      </c>
+      <c r="L26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>22283</v>
+      </c>
+      <c r="B27">
+        <v>222.83</v>
+      </c>
+      <c r="C27">
+        <v>254</v>
+      </c>
+      <c r="D27">
+        <v>255</v>
+      </c>
+      <c r="E27">
+        <v>1339.051616161615</v>
+      </c>
+      <c r="F27">
+        <v>36.59305420652415</v>
+      </c>
+      <c r="G27">
+        <v>102</v>
+      </c>
+      <c r="H27">
+        <v>153</v>
+      </c>
+      <c r="I27">
+        <v>255</v>
+      </c>
+      <c r="J27">
+        <v>188.75</v>
+      </c>
+      <c r="K27">
+        <v>254</v>
+      </c>
+      <c r="L27">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>22575</v>
+      </c>
+      <c r="B28">
+        <v>225.75</v>
+      </c>
+      <c r="C28">
+        <v>253</v>
+      </c>
+      <c r="D28">
+        <v>255</v>
+      </c>
+      <c r="E28">
+        <v>1134.694444444444</v>
+      </c>
+      <c r="F28">
+        <v>33.68522590757622</v>
+      </c>
+      <c r="G28">
+        <v>111</v>
+      </c>
+      <c r="H28">
+        <v>144</v>
+      </c>
+      <c r="I28">
+        <v>255</v>
+      </c>
+      <c r="J28">
+        <v>199.5</v>
+      </c>
+      <c r="K28">
+        <v>253</v>
+      </c>
+      <c r="L28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>22690</v>
+      </c>
+      <c r="B29">
+        <v>226.9</v>
+      </c>
+      <c r="C29">
+        <v>251.5</v>
+      </c>
+      <c r="D29">
+        <v>255</v>
+      </c>
+      <c r="E29">
+        <v>1107.202020202021</v>
+      </c>
+      <c r="F29">
+        <v>33.27464530542768</v>
+      </c>
+      <c r="G29">
+        <v>110</v>
+      </c>
+      <c r="H29">
+        <v>145</v>
+      </c>
+      <c r="I29">
+        <v>255</v>
+      </c>
+      <c r="J29">
+        <v>202.25</v>
+      </c>
+      <c r="K29">
+        <v>251.5</v>
+      </c>
+      <c r="L29">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>22675</v>
+      </c>
+      <c r="B30">
+        <v>226.75</v>
+      </c>
+      <c r="C30">
+        <v>249</v>
+      </c>
+      <c r="D30">
+        <v>255</v>
+      </c>
+      <c r="E30">
+        <v>1152.977272727273</v>
+      </c>
+      <c r="F30">
+        <v>33.95551903192282</v>
+      </c>
+      <c r="G30">
+        <v>113</v>
+      </c>
+      <c r="H30">
+        <v>142</v>
+      </c>
+      <c r="I30">
+        <v>255</v>
+      </c>
+      <c r="J30">
+        <v>202.75</v>
+      </c>
+      <c r="K30">
+        <v>249</v>
+      </c>
+      <c r="L30">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>22573</v>
+      </c>
+      <c r="B31">
+        <v>225.73</v>
+      </c>
+      <c r="C31">
+        <v>240.5</v>
+      </c>
+      <c r="D31">
+        <v>255</v>
+      </c>
+      <c r="E31">
+        <v>1228.724343434344</v>
+      </c>
+      <c r="F31">
+        <v>35.05316452810422</v>
+      </c>
+      <c r="G31">
+        <v>120</v>
+      </c>
+      <c r="H31">
+        <v>135</v>
+      </c>
+      <c r="I31">
+        <v>255</v>
+      </c>
+      <c r="J31">
+        <v>202.75</v>
+      </c>
+      <c r="K31">
+        <v>240.5</v>
+      </c>
+      <c r="L31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>22479</v>
+      </c>
+      <c r="B32">
+        <v>224.79</v>
+      </c>
+      <c r="C32">
+        <v>228.5</v>
+      </c>
+      <c r="D32">
+        <v>255</v>
+      </c>
+      <c r="E32">
+        <v>1271.844343434344</v>
+      </c>
+      <c r="F32">
+        <v>35.66292673679972</v>
+      </c>
+      <c r="G32">
+        <v>122</v>
+      </c>
+      <c r="H32">
+        <v>133</v>
+      </c>
+      <c r="I32">
+        <v>255</v>
+      </c>
+      <c r="J32">
+        <v>201.25</v>
+      </c>
+      <c r="K32">
+        <v>228.5</v>
+      </c>
+      <c r="L32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>22293</v>
+      </c>
+      <c r="B33">
+        <v>222.93</v>
+      </c>
+      <c r="C33">
+        <v>227.5</v>
+      </c>
+      <c r="D33">
+        <v>255</v>
+      </c>
+      <c r="E33">
+        <v>1407.318282828283</v>
+      </c>
+      <c r="F33">
+        <v>37.51424106693727</v>
+      </c>
+      <c r="G33">
+        <v>129</v>
+      </c>
+      <c r="H33">
+        <v>126</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+      <c r="J33">
+        <v>197</v>
+      </c>
+      <c r="K33">
+        <v>227.5</v>
+      </c>
+      <c r="L33">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>22120</v>
+      </c>
+      <c r="B34">
+        <v>221.2</v>
+      </c>
+      <c r="C34">
+        <v>225</v>
+      </c>
+      <c r="D34">
+        <v>255</v>
+      </c>
+      <c r="E34">
+        <v>1553.090909090909</v>
+      </c>
+      <c r="F34">
+        <v>39.40927440452195</v>
+      </c>
+      <c r="G34">
+        <v>134</v>
+      </c>
+      <c r="H34">
+        <v>121</v>
+      </c>
+      <c r="I34">
+        <v>255</v>
+      </c>
+      <c r="J34">
+        <v>193</v>
+      </c>
+      <c r="K34">
+        <v>225</v>
+      </c>
+      <c r="L34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>21998</v>
+      </c>
+      <c r="B35">
+        <v>219.98</v>
+      </c>
+      <c r="C35">
+        <v>224.5</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
+      </c>
+      <c r="E35">
+        <v>1607.938989898992</v>
+      </c>
+      <c r="F35">
+        <v>40.09911457749401</v>
+      </c>
+      <c r="G35">
+        <v>136</v>
+      </c>
+      <c r="H35">
+        <v>119</v>
+      </c>
+      <c r="I35">
+        <v>255</v>
+      </c>
+      <c r="J35">
+        <v>192.5</v>
+      </c>
+      <c r="K35">
+        <v>224.5</v>
+      </c>
+      <c r="L35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>21811</v>
+      </c>
+      <c r="B36">
+        <v>218.11</v>
+      </c>
+      <c r="C36">
+        <v>220</v>
+      </c>
+      <c r="D36">
+        <v>255</v>
+      </c>
+      <c r="E36">
+        <v>1691.048383838386</v>
+      </c>
+      <c r="F36">
+        <v>41.12235868525036</v>
+      </c>
+      <c r="G36">
+        <v>140</v>
+      </c>
+      <c r="H36">
+        <v>115</v>
+      </c>
+      <c r="I36">
+        <v>255</v>
+      </c>
+      <c r="J36">
+        <v>186.75</v>
+      </c>
+      <c r="K36">
+        <v>220</v>
+      </c>
+      <c r="L36">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>21633</v>
+      </c>
+      <c r="B37">
+        <v>216.33</v>
+      </c>
+      <c r="C37">
+        <v>218</v>
+      </c>
+      <c r="D37">
+        <v>255</v>
+      </c>
+      <c r="E37">
+        <v>1785.496060606062</v>
+      </c>
+      <c r="F37">
+        <v>42.25513058323287</v>
+      </c>
+      <c r="G37">
+        <v>142</v>
+      </c>
+      <c r="H37">
+        <v>113</v>
+      </c>
+      <c r="I37">
+        <v>255</v>
+      </c>
+      <c r="J37">
+        <v>182</v>
+      </c>
+      <c r="K37">
+        <v>218</v>
+      </c>
+      <c r="L37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>21450</v>
+      </c>
+      <c r="B38">
+        <v>214.5</v>
+      </c>
+      <c r="C38">
+        <v>215.5</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+      <c r="E38">
+        <v>1886.757575757576</v>
+      </c>
+      <c r="F38">
+        <v>43.43682280919699</v>
+      </c>
+      <c r="G38">
+        <v>146</v>
+      </c>
+      <c r="H38">
+        <v>109</v>
+      </c>
+      <c r="I38">
+        <v>255</v>
+      </c>
+      <c r="J38">
+        <v>180</v>
+      </c>
+      <c r="K38">
+        <v>215.5</v>
+      </c>
+      <c r="L38">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>21252</v>
+      </c>
+      <c r="B39">
+        <v>212.52</v>
+      </c>
+      <c r="C39">
+        <v>213</v>
+      </c>
+      <c r="D39">
+        <v>255</v>
+      </c>
+      <c r="E39">
+        <v>2030.494545454547</v>
+      </c>
+      <c r="F39">
+        <v>45.06100914820425</v>
+      </c>
+      <c r="G39">
+        <v>149</v>
+      </c>
+      <c r="H39">
+        <v>106</v>
+      </c>
+      <c r="I39">
+        <v>255</v>
+      </c>
+      <c r="J39">
         <v>178</v>
       </c>
-      <c r="H5">
+      <c r="K39">
+        <v>213</v>
+      </c>
+      <c r="L39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>21019</v>
+      </c>
+      <c r="B40">
+        <v>210.19</v>
+      </c>
+      <c r="C40">
+        <v>208</v>
+      </c>
+      <c r="D40">
+        <v>255</v>
+      </c>
+      <c r="E40">
+        <v>2125.064545454544</v>
+      </c>
+      <c r="F40">
+        <v>46.09842237489851</v>
+      </c>
+      <c r="G40">
+        <v>153</v>
+      </c>
+      <c r="H40">
+        <v>102</v>
+      </c>
+      <c r="I40">
+        <v>255</v>
+      </c>
+      <c r="J40">
+        <v>175.25</v>
+      </c>
+      <c r="K40">
+        <v>208</v>
+      </c>
+      <c r="L40">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>20805</v>
+      </c>
+      <c r="B41">
+        <v>208.05</v>
+      </c>
+      <c r="C41">
+        <v>204</v>
+      </c>
+      <c r="D41">
+        <v>255</v>
+      </c>
+      <c r="E41">
+        <v>2239.058080808079</v>
+      </c>
+      <c r="F41">
+        <v>47.31868638083773</v>
+      </c>
+      <c r="G41">
+        <v>158</v>
+      </c>
+      <c r="H41">
+        <v>97</v>
+      </c>
+      <c r="I41">
+        <v>255</v>
+      </c>
+      <c r="J41">
+        <v>173</v>
+      </c>
+      <c r="K41">
+        <v>204</v>
+      </c>
+      <c r="L41">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>20550</v>
+      </c>
+      <c r="B42">
+        <v>205.5</v>
+      </c>
+      <c r="C42">
+        <v>198</v>
+      </c>
+      <c r="D42">
+        <v>255</v>
+      </c>
+      <c r="E42">
+        <v>2354.656565656566</v>
+      </c>
+      <c r="F42">
+        <v>48.52480361275629</v>
+      </c>
+      <c r="G42">
+        <v>159</v>
+      </c>
+      <c r="H42">
+        <v>96</v>
+      </c>
+      <c r="I42">
+        <v>255</v>
+      </c>
+      <c r="J42">
+        <v>167.75</v>
+      </c>
+      <c r="K42">
+        <v>198</v>
+      </c>
+      <c r="L42">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>20247</v>
+      </c>
+      <c r="B43">
+        <v>202.47</v>
+      </c>
+      <c r="C43">
+        <v>189.5</v>
+      </c>
+      <c r="D43">
+        <v>255</v>
+      </c>
+      <c r="E43">
+        <v>2493.059696969699</v>
+      </c>
+      <c r="F43">
+        <v>49.93054873491477</v>
+      </c>
+      <c r="G43">
+        <v>159</v>
+      </c>
+      <c r="H43">
+        <v>96</v>
+      </c>
+      <c r="I43">
+        <v>255</v>
+      </c>
+      <c r="J43">
+        <v>164</v>
+      </c>
+      <c r="K43">
+        <v>189.5</v>
+      </c>
+      <c r="L43">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>19997</v>
+      </c>
+      <c r="B44">
+        <v>199.97</v>
+      </c>
+      <c r="C44">
+        <v>182</v>
+      </c>
+      <c r="D44">
+        <v>255</v>
+      </c>
+      <c r="E44">
+        <v>2596.57484848485</v>
+      </c>
+      <c r="F44">
+        <v>50.95659769337872</v>
+      </c>
+      <c r="G44">
+        <v>160</v>
+      </c>
+      <c r="H44">
+        <v>95</v>
+      </c>
+      <c r="I44">
+        <v>255</v>
+      </c>
+      <c r="J44">
+        <v>162.75</v>
+      </c>
+      <c r="K44">
+        <v>182</v>
+      </c>
+      <c r="L44">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>19825</v>
+      </c>
+      <c r="B45">
+        <v>198.25</v>
+      </c>
+      <c r="C45">
+        <v>179</v>
+      </c>
+      <c r="D45">
+        <v>255</v>
+      </c>
+      <c r="E45">
+        <v>2695.502525252525</v>
+      </c>
+      <c r="F45">
+        <v>51.91822921915313</v>
+      </c>
+      <c r="G45">
+        <v>161</v>
+      </c>
+      <c r="H45">
+        <v>94</v>
+      </c>
+      <c r="I45">
+        <v>255</v>
+      </c>
+      <c r="J45">
+        <v>160.75</v>
+      </c>
+      <c r="K45">
+        <v>179</v>
+      </c>
+      <c r="L45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>19678</v>
+      </c>
+      <c r="B46">
+        <v>196.78</v>
+      </c>
+      <c r="C46">
+        <v>175</v>
+      </c>
+      <c r="D46">
+        <v>255</v>
+      </c>
+      <c r="E46">
+        <v>2785.425858585857</v>
+      </c>
+      <c r="F46">
+        <v>52.77713386103736</v>
+      </c>
+      <c r="G46">
+        <v>158</v>
+      </c>
+      <c r="H46">
+        <v>97</v>
+      </c>
+      <c r="I46">
+        <v>255</v>
+      </c>
+      <c r="J46">
+        <v>155</v>
+      </c>
+      <c r="K46">
+        <v>175</v>
+      </c>
+      <c r="L46">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>19488</v>
+      </c>
+      <c r="B47">
+        <v>194.88</v>
+      </c>
+      <c r="C47">
+        <v>171</v>
+      </c>
+      <c r="D47">
+        <v>255</v>
+      </c>
+      <c r="E47">
+        <v>2902.833939393941</v>
+      </c>
+      <c r="F47">
+        <v>53.87795411292026</v>
+      </c>
+      <c r="G47">
+        <v>158</v>
+      </c>
+      <c r="H47">
+        <v>97</v>
+      </c>
+      <c r="I47">
+        <v>255</v>
+      </c>
+      <c r="J47">
+        <v>154.75</v>
+      </c>
+      <c r="K47">
+        <v>171</v>
+      </c>
+      <c r="L47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>19356</v>
+      </c>
+      <c r="B48">
+        <v>193.56</v>
+      </c>
+      <c r="C48">
+        <v>168</v>
+      </c>
+      <c r="D48">
+        <v>255</v>
+      </c>
+      <c r="E48">
+        <v>2996.67313131313</v>
+      </c>
+      <c r="F48">
+        <v>54.74187730899563</v>
+      </c>
+      <c r="G48">
+        <v>158</v>
+      </c>
+      <c r="H48">
+        <v>97</v>
+      </c>
+      <c r="I48">
+        <v>255</v>
+      </c>
+      <c r="J48">
+        <v>150.75</v>
+      </c>
+      <c r="K48">
+        <v>168</v>
+      </c>
+      <c r="L48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>19256</v>
+      </c>
+      <c r="B49">
+        <v>192.56</v>
+      </c>
+      <c r="C49">
+        <v>166.5</v>
+      </c>
+      <c r="D49">
+        <v>255</v>
+      </c>
+      <c r="E49">
+        <v>3080.875151515151</v>
+      </c>
+      <c r="F49">
+        <v>55.50563170990085</v>
+      </c>
+      <c r="G49">
+        <v>161</v>
+      </c>
+      <c r="H49">
+        <v>94</v>
+      </c>
+      <c r="I49">
+        <v>255</v>
+      </c>
+      <c r="J49">
+        <v>150</v>
+      </c>
+      <c r="K49">
+        <v>166.5</v>
+      </c>
+      <c r="L49">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>19154</v>
+      </c>
+      <c r="B50">
+        <v>191.54</v>
+      </c>
+      <c r="C50">
+        <v>163</v>
+      </c>
+      <c r="D50">
+        <v>255</v>
+      </c>
+      <c r="E50">
+        <v>3144.432727272727</v>
+      </c>
+      <c r="F50">
+        <v>56.07524166040417</v>
+      </c>
+      <c r="G50">
+        <v>160</v>
+      </c>
+      <c r="H50">
+        <v>95</v>
+      </c>
+      <c r="I50">
+        <v>255</v>
+      </c>
+      <c r="J50">
+        <v>150</v>
+      </c>
+      <c r="K50">
+        <v>163</v>
+      </c>
+      <c r="L50">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>19084</v>
+      </c>
+      <c r="B51">
+        <v>190.84</v>
+      </c>
+      <c r="C51">
+        <v>161.5</v>
+      </c>
+      <c r="D51">
+        <v>255</v>
+      </c>
+      <c r="E51">
+        <v>3154.479191919188</v>
+      </c>
+      <c r="F51">
+        <v>56.16475043939204</v>
+      </c>
+      <c r="G51">
+        <v>155</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+      <c r="I51">
+        <v>255</v>
+      </c>
+      <c r="J51">
+        <v>149</v>
+      </c>
+      <c r="K51">
+        <v>161.5</v>
+      </c>
+      <c r="L51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>19045</v>
+      </c>
+      <c r="B52">
+        <v>190.45</v>
+      </c>
+      <c r="C52">
+        <v>159</v>
+      </c>
+      <c r="D52">
+        <v>255</v>
+      </c>
+      <c r="E52">
+        <v>3159.906565656567</v>
+      </c>
+      <c r="F52">
+        <v>56.21304622288821</v>
+      </c>
+      <c r="G52">
+        <v>152</v>
+      </c>
+      <c r="H52">
+        <v>103</v>
+      </c>
+      <c r="I52">
+        <v>255</v>
+      </c>
+      <c r="J52">
+        <v>148</v>
+      </c>
+      <c r="K52">
+        <v>159</v>
+      </c>
+      <c r="L52">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>19000</v>
+      </c>
+      <c r="B53">
+        <v>190</v>
+      </c>
+      <c r="C53">
+        <v>157</v>
+      </c>
+      <c r="D53">
+        <v>255</v>
+      </c>
+      <c r="E53">
+        <v>3171.191919191919</v>
+      </c>
+      <c r="F53">
+        <v>56.3133369566386</v>
+      </c>
+      <c r="G53">
+        <v>149</v>
+      </c>
+      <c r="H53">
+        <v>106</v>
+      </c>
+      <c r="I53">
+        <v>255</v>
+      </c>
+      <c r="J53">
+        <v>147.75</v>
+      </c>
+      <c r="K53">
+        <v>157</v>
+      </c>
+      <c r="L53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>18961</v>
+      </c>
+      <c r="B54">
+        <v>189.61</v>
+      </c>
+      <c r="C54">
+        <v>156</v>
+      </c>
+      <c r="D54">
+        <v>255</v>
+      </c>
+      <c r="E54">
+        <v>3205.371616161619</v>
+      </c>
+      <c r="F54">
+        <v>56.61600141445543</v>
+      </c>
+      <c r="G54">
+        <v>147</v>
+      </c>
+      <c r="H54">
+        <v>108</v>
+      </c>
+      <c r="I54">
+        <v>255</v>
+      </c>
+      <c r="J54">
+        <v>146</v>
+      </c>
+      <c r="K54">
+        <v>156</v>
+      </c>
+      <c r="L54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>18930</v>
+      </c>
+      <c r="B55">
+        <v>189.3</v>
+      </c>
+      <c r="C55">
+        <v>153</v>
+      </c>
+      <c r="D55">
+        <v>255</v>
+      </c>
+      <c r="E55">
+        <v>3227.323232323231</v>
+      </c>
+      <c r="F55">
+        <v>56.80953469553532</v>
+      </c>
+      <c r="G55">
+        <v>146</v>
+      </c>
+      <c r="H55">
+        <v>109</v>
+      </c>
+      <c r="I55">
+        <v>255</v>
+      </c>
+      <c r="J55">
+        <v>145.75</v>
+      </c>
+      <c r="K55">
+        <v>153</v>
+      </c>
+      <c r="L55">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>18948</v>
+      </c>
+      <c r="B56">
+        <v>189.48</v>
+      </c>
+      <c r="C56">
+        <v>152</v>
+      </c>
+      <c r="D56">
+        <v>255</v>
+      </c>
+      <c r="E56">
+        <v>3224.858181818185</v>
+      </c>
+      <c r="F56">
+        <v>56.7878348048082</v>
+      </c>
+      <c r="G56">
+        <v>144</v>
+      </c>
+      <c r="H56">
+        <v>111</v>
+      </c>
+      <c r="I56">
+        <v>255</v>
+      </c>
+      <c r="J56">
+        <v>144</v>
+      </c>
+      <c r="K56">
+        <v>152</v>
+      </c>
+      <c r="L56">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>18987</v>
+      </c>
+      <c r="B57">
+        <v>189.87</v>
+      </c>
+      <c r="C57">
+        <v>152.5</v>
+      </c>
+      <c r="D57">
+        <v>255</v>
+      </c>
+      <c r="E57">
+        <v>3201.487979797982</v>
+      </c>
+      <c r="F57">
+        <v>56.58169297394681</v>
+      </c>
+      <c r="G57">
+        <v>140</v>
+      </c>
+      <c r="H57">
+        <v>115</v>
+      </c>
+      <c r="I57">
+        <v>255</v>
+      </c>
+      <c r="J57">
+        <v>143.75</v>
+      </c>
+      <c r="K57">
+        <v>152.5</v>
+      </c>
+      <c r="L57">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>19023</v>
+      </c>
+      <c r="B58">
+        <v>190.23</v>
+      </c>
+      <c r="C58">
+        <v>152.5</v>
+      </c>
+      <c r="D58">
+        <v>255</v>
+      </c>
+      <c r="E58">
+        <v>3187.835454545452</v>
+      </c>
+      <c r="F58">
+        <v>56.46091971041078</v>
+      </c>
+      <c r="G58">
+        <v>137</v>
+      </c>
+      <c r="H58">
+        <v>118</v>
+      </c>
+      <c r="I58">
+        <v>255</v>
+      </c>
+      <c r="J58">
+        <v>144</v>
+      </c>
+      <c r="K58">
+        <v>152.5</v>
+      </c>
+      <c r="L58">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>19068</v>
+      </c>
+      <c r="B59">
+        <v>190.68</v>
+      </c>
+      <c r="C59">
+        <v>152</v>
+      </c>
+      <c r="D59">
+        <v>255</v>
+      </c>
+      <c r="E59">
+        <v>3167.290505050503</v>
+      </c>
+      <c r="F59">
+        <v>56.27868606364672</v>
+      </c>
+      <c r="G59">
+        <v>138</v>
+      </c>
+      <c r="H59">
+        <v>117</v>
+      </c>
+      <c r="I59">
+        <v>255</v>
+      </c>
+      <c r="J59">
+        <v>144</v>
+      </c>
+      <c r="K59">
+        <v>152</v>
+      </c>
+      <c r="L59">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>19157</v>
+      </c>
+      <c r="B60">
+        <v>191.57</v>
+      </c>
+      <c r="C60">
+        <v>152</v>
+      </c>
+      <c r="D60">
+        <v>255</v>
+      </c>
+      <c r="E60">
+        <v>3113.843535353535</v>
+      </c>
+      <c r="F60">
+        <v>55.80182376368656</v>
+      </c>
+      <c r="G60">
+        <v>138</v>
+      </c>
+      <c r="H60">
+        <v>117</v>
+      </c>
+      <c r="I60">
+        <v>255</v>
+      </c>
+      <c r="J60">
+        <v>145</v>
+      </c>
+      <c r="K60">
+        <v>152</v>
+      </c>
+      <c r="L60">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>19217</v>
+      </c>
+      <c r="B61">
+        <v>192.17</v>
+      </c>
+      <c r="C61">
+        <v>154</v>
+      </c>
+      <c r="D61">
+        <v>255</v>
+      </c>
+      <c r="E61">
+        <v>3089.556666666664</v>
+      </c>
+      <c r="F61">
+        <v>55.58378060789554</v>
+      </c>
+      <c r="G61">
+        <v>135</v>
+      </c>
+      <c r="H61">
+        <v>120</v>
+      </c>
+      <c r="I61">
+        <v>255</v>
+      </c>
+      <c r="J61">
+        <v>146</v>
+      </c>
+      <c r="K61">
+        <v>154</v>
+      </c>
+      <c r="L61">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>19268</v>
+      </c>
+      <c r="B62">
+        <v>192.68</v>
+      </c>
+      <c r="C62">
+        <v>154</v>
+      </c>
+      <c r="D62">
+        <v>255</v>
+      </c>
+      <c r="E62">
+        <v>3078.543030303032</v>
+      </c>
+      <c r="F62">
+        <v>55.48461976352574</v>
+      </c>
+      <c r="G62">
+        <v>134</v>
+      </c>
+      <c r="H62">
+        <v>121</v>
+      </c>
+      <c r="I62">
+        <v>255</v>
+      </c>
+      <c r="J62">
+        <v>146.75</v>
+      </c>
+      <c r="K62">
+        <v>154</v>
+      </c>
+      <c r="L62">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>19335</v>
+      </c>
+      <c r="B63">
+        <v>193.35</v>
+      </c>
+      <c r="C63">
+        <v>153</v>
+      </c>
+      <c r="D63">
+        <v>255</v>
+      </c>
+      <c r="E63">
+        <v>3057.482323232322</v>
+      </c>
+      <c r="F63">
+        <v>55.29450536203684</v>
+      </c>
+      <c r="G63">
+        <v>134</v>
+      </c>
+      <c r="H63">
+        <v>121</v>
+      </c>
+      <c r="I63">
+        <v>255</v>
+      </c>
+      <c r="J63">
+        <v>148</v>
+      </c>
+      <c r="K63">
+        <v>153</v>
+      </c>
+      <c r="L63">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>19386</v>
+      </c>
+      <c r="B64">
+        <v>193.86</v>
+      </c>
+      <c r="C64">
+        <v>154</v>
+      </c>
+      <c r="D64">
+        <v>255</v>
+      </c>
+      <c r="E64">
+        <v>3046.929696969698</v>
+      </c>
+      <c r="F64">
+        <v>55.19900086930648</v>
+      </c>
+      <c r="G64">
+        <v>132</v>
+      </c>
+      <c r="H64">
+        <v>123</v>
+      </c>
+      <c r="I64">
+        <v>255</v>
+      </c>
+      <c r="J64">
+        <v>148</v>
+      </c>
+      <c r="K64">
+        <v>154</v>
+      </c>
+      <c r="L64">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>19423</v>
+      </c>
+      <c r="B65">
+        <v>194.23</v>
+      </c>
+      <c r="C65">
+        <v>153.5</v>
+      </c>
+      <c r="D65">
+        <v>255</v>
+      </c>
+      <c r="E65">
+        <v>3043.87585858586</v>
+      </c>
+      <c r="F65">
+        <v>55.1713318543776</v>
+      </c>
+      <c r="G65">
+        <v>132</v>
+      </c>
+      <c r="H65">
+        <v>123</v>
+      </c>
+      <c r="I65">
+        <v>255</v>
+      </c>
+      <c r="J65">
+        <v>147</v>
+      </c>
+      <c r="K65">
+        <v>153.5</v>
+      </c>
+      <c r="L65">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>19471</v>
+      </c>
+      <c r="B66">
+        <v>194.71</v>
+      </c>
+      <c r="C66">
+        <v>154.5</v>
+      </c>
+      <c r="D66">
+        <v>255</v>
+      </c>
+      <c r="E66">
+        <v>3034.147373737376</v>
+      </c>
+      <c r="F66">
+        <v>55.08309517208865</v>
+      </c>
+      <c r="G66">
+        <v>132</v>
+      </c>
+      <c r="H66">
+        <v>123</v>
+      </c>
+      <c r="I66">
+        <v>255</v>
+      </c>
+      <c r="J66">
+        <v>147</v>
+      </c>
+      <c r="K66">
+        <v>154.5</v>
+      </c>
+      <c r="L66">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>19496</v>
+      </c>
+      <c r="B67">
+        <v>194.96</v>
+      </c>
+      <c r="C67">
+        <v>154.5</v>
+      </c>
+      <c r="D67">
+        <v>255</v>
+      </c>
+      <c r="E67">
+        <v>3085.291313131313</v>
+      </c>
+      <c r="F67">
+        <v>55.54539866749823</v>
+      </c>
+      <c r="G67">
+        <v>131</v>
+      </c>
+      <c r="H67">
+        <v>124</v>
+      </c>
+      <c r="I67">
+        <v>255</v>
+      </c>
+      <c r="J67">
+        <v>147</v>
+      </c>
+      <c r="K67">
+        <v>154.5</v>
+      </c>
+      <c r="L67">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>19527</v>
+      </c>
+      <c r="B68">
+        <v>195.27</v>
+      </c>
+      <c r="C68">
+        <v>152.5</v>
+      </c>
+      <c r="D68">
+        <v>255</v>
+      </c>
+      <c r="E68">
+        <v>3115.29</v>
+      </c>
+      <c r="F68">
+        <v>55.8147829880221</v>
+      </c>
+      <c r="G68">
+        <v>131</v>
+      </c>
+      <c r="H68">
+        <v>124</v>
+      </c>
+      <c r="I68">
+        <v>255</v>
+      </c>
+      <c r="J68">
+        <v>146</v>
+      </c>
+      <c r="K68">
+        <v>152.5</v>
+      </c>
+      <c r="L68">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>19590</v>
+      </c>
+      <c r="B69">
+        <v>195.9</v>
+      </c>
+      <c r="C69">
+        <v>158</v>
+      </c>
+      <c r="D69">
+        <v>255</v>
+      </c>
+      <c r="E69">
+        <v>3121.666666666667</v>
+      </c>
+      <c r="F69">
+        <v>55.87187724308775</v>
+      </c>
+      <c r="G69">
+        <v>130</v>
+      </c>
+      <c r="H69">
+        <v>125</v>
+      </c>
+      <c r="I69">
+        <v>255</v>
+      </c>
+      <c r="J69">
+        <v>146</v>
+      </c>
+      <c r="K69">
+        <v>158</v>
+      </c>
+      <c r="L69">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>19666</v>
+      </c>
+      <c r="B70">
+        <v>196.66</v>
+      </c>
+      <c r="C70">
+        <v>164.5</v>
+      </c>
+      <c r="D70">
+        <v>255</v>
+      </c>
+      <c r="E70">
+        <v>3120.408484848487</v>
+      </c>
+      <c r="F70">
+        <v>55.86061658134904</v>
+      </c>
+      <c r="G70">
+        <v>130</v>
+      </c>
+      <c r="H70">
+        <v>125</v>
+      </c>
+      <c r="I70">
+        <v>255</v>
+      </c>
+      <c r="J70">
+        <v>146</v>
+      </c>
+      <c r="K70">
+        <v>164.5</v>
+      </c>
+      <c r="L70">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>19726</v>
+      </c>
+      <c r="B71">
+        <v>197.26</v>
+      </c>
+      <c r="C71">
+        <v>177</v>
+      </c>
+      <c r="D71">
+        <v>255</v>
+      </c>
+      <c r="E71">
+        <v>3122.780202020199</v>
+      </c>
+      <c r="F71">
+        <v>55.88184143369113</v>
+      </c>
+      <c r="G71">
+        <v>130</v>
+      </c>
+      <c r="H71">
+        <v>125</v>
+      </c>
+      <c r="I71">
+        <v>255</v>
+      </c>
+      <c r="J71">
+        <v>145.75</v>
+      </c>
+      <c r="K71">
+        <v>177</v>
+      </c>
+      <c r="L71">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>19798</v>
+      </c>
+      <c r="B72">
+        <v>197.98</v>
+      </c>
+      <c r="C72">
+        <v>183.5</v>
+      </c>
+      <c r="D72">
+        <v>255</v>
+      </c>
+      <c r="E72">
+        <v>3137.47434343434</v>
+      </c>
+      <c r="F72">
+        <v>56.01316223383876</v>
+      </c>
+      <c r="G72">
+        <v>130</v>
+      </c>
+      <c r="H72">
+        <v>125</v>
+      </c>
+      <c r="I72">
+        <v>255</v>
+      </c>
+      <c r="J72">
+        <v>146.75</v>
+      </c>
+      <c r="K72">
+        <v>183.5</v>
+      </c>
+      <c r="L72">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>19876</v>
+      </c>
+      <c r="B73">
+        <v>198.76</v>
+      </c>
+      <c r="C73">
+        <v>196</v>
+      </c>
+      <c r="D73">
+        <v>255</v>
+      </c>
+      <c r="E73">
+        <v>3133.739797979798</v>
+      </c>
+      <c r="F73">
+        <v>55.97981598736993</v>
+      </c>
+      <c r="G73">
+        <v>130</v>
+      </c>
+      <c r="H73">
+        <v>125</v>
+      </c>
+      <c r="I73">
+        <v>255</v>
+      </c>
+      <c r="J73">
+        <v>147</v>
+      </c>
+      <c r="K73">
+        <v>196</v>
+      </c>
+      <c r="L73">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>19968</v>
+      </c>
+      <c r="B74">
+        <v>199.68</v>
+      </c>
+      <c r="C74">
+        <v>219.5</v>
+      </c>
+      <c r="D74">
+        <v>255</v>
+      </c>
+      <c r="E74">
+        <v>3132.462222222219</v>
+      </c>
+      <c r="F74">
+        <v>55.96840378483399</v>
+      </c>
+      <c r="G74">
+        <v>131</v>
+      </c>
+      <c r="H74">
+        <v>124</v>
+      </c>
+      <c r="I74">
+        <v>255</v>
+      </c>
+      <c r="J74">
+        <v>147</v>
+      </c>
+      <c r="K74">
+        <v>219.5</v>
+      </c>
+      <c r="L74">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>20032</v>
+      </c>
+      <c r="B75">
+        <v>200.32</v>
+      </c>
+      <c r="C75">
+        <v>235.5</v>
+      </c>
+      <c r="D75">
+        <v>255</v>
+      </c>
+      <c r="E75">
+        <v>3136.623838383841</v>
+      </c>
+      <c r="F75">
+        <v>56.00556970859095</v>
+      </c>
+      <c r="G75">
+        <v>131</v>
+      </c>
+      <c r="H75">
+        <v>124</v>
+      </c>
+      <c r="I75">
+        <v>255</v>
+      </c>
+      <c r="J75">
+        <v>146</v>
+      </c>
+      <c r="K75">
+        <v>235.5</v>
+      </c>
+      <c r="L75">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>20095</v>
+      </c>
+      <c r="B76">
+        <v>200.95</v>
+      </c>
+      <c r="C76">
+        <v>247</v>
+      </c>
+      <c r="D76">
+        <v>255</v>
+      </c>
+      <c r="E76">
+        <v>3161.058080808084</v>
+      </c>
+      <c r="F76">
+        <v>56.22328770899194</v>
+      </c>
+      <c r="G76">
+        <v>132</v>
+      </c>
+      <c r="H76">
+        <v>123</v>
+      </c>
+      <c r="I76">
+        <v>255</v>
+      </c>
+      <c r="J76">
+        <v>144.75</v>
+      </c>
+      <c r="K76">
+        <v>247</v>
+      </c>
+      <c r="L76">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>20168</v>
+      </c>
+      <c r="B77">
+        <v>201.68</v>
+      </c>
+      <c r="C77">
+        <v>250.5</v>
+      </c>
+      <c r="D77">
+        <v>255</v>
+      </c>
+      <c r="E77">
+        <v>3171.108686868689</v>
+      </c>
+      <c r="F77">
+        <v>56.31259794103526</v>
+      </c>
+      <c r="G77">
+        <v>132</v>
+      </c>
+      <c r="H77">
+        <v>123</v>
+      </c>
+      <c r="I77">
+        <v>255</v>
+      </c>
+      <c r="J77">
+        <v>145</v>
+      </c>
+      <c r="K77">
+        <v>250.5</v>
+      </c>
+      <c r="L77">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>20271</v>
+      </c>
+      <c r="B78">
+        <v>202.71</v>
+      </c>
+      <c r="C78">
+        <v>254.5</v>
+      </c>
+      <c r="D78">
+        <v>255</v>
+      </c>
+      <c r="E78">
+        <v>3207.3796969697</v>
+      </c>
+      <c r="F78">
+        <v>56.63373285392461</v>
+      </c>
+      <c r="G78">
+        <v>132</v>
+      </c>
+      <c r="H78">
+        <v>123</v>
+      </c>
+      <c r="I78">
+        <v>255</v>
+      </c>
+      <c r="J78">
+        <v>143.75</v>
+      </c>
+      <c r="K78">
+        <v>254.5</v>
+      </c>
+      <c r="L78">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>20334</v>
+      </c>
+      <c r="B79">
+        <v>203.34</v>
+      </c>
+      <c r="C79">
+        <v>253</v>
+      </c>
+      <c r="D79">
+        <v>255</v>
+      </c>
+      <c r="E79">
+        <v>3239.196363636358</v>
+      </c>
+      <c r="F79">
+        <v>56.91393821935325</v>
+      </c>
+      <c r="G79">
+        <v>133</v>
+      </c>
+      <c r="H79">
+        <v>122</v>
+      </c>
+      <c r="I79">
+        <v>255</v>
+      </c>
+      <c r="J79">
+        <v>143</v>
+      </c>
+      <c r="K79">
+        <v>253</v>
+      </c>
+      <c r="L79">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>20357</v>
+      </c>
+      <c r="B80">
+        <v>203.57</v>
+      </c>
+      <c r="C80">
+        <v>254</v>
+      </c>
+      <c r="D80">
+        <v>255</v>
+      </c>
+      <c r="E80">
+        <v>3317.601111111107</v>
+      </c>
+      <c r="F80">
+        <v>57.59862073965927</v>
+      </c>
+      <c r="G80">
+        <v>133</v>
+      </c>
+      <c r="H80">
+        <v>122</v>
+      </c>
+      <c r="I80">
+        <v>255</v>
+      </c>
+      <c r="J80">
+        <v>141.75</v>
+      </c>
+      <c r="K80">
+        <v>254</v>
+      </c>
+      <c r="L80">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>20421</v>
+      </c>
+      <c r="B81">
+        <v>204.21</v>
+      </c>
+      <c r="C81">
+        <v>254</v>
+      </c>
+      <c r="D81">
+        <v>255</v>
+      </c>
+      <c r="E81">
+        <v>3379.601919191923</v>
+      </c>
+      <c r="F81">
+        <v>58.13434371515622</v>
+      </c>
+      <c r="G81">
+        <v>135</v>
+      </c>
+      <c r="H81">
+        <v>120</v>
+      </c>
+      <c r="I81">
+        <v>255</v>
+      </c>
+      <c r="J81">
+        <v>140</v>
+      </c>
+      <c r="K81">
+        <v>254</v>
+      </c>
+      <c r="L81">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>20464</v>
+      </c>
+      <c r="B82">
+        <v>204.64</v>
+      </c>
+      <c r="C82">
+        <v>254</v>
+      </c>
+      <c r="D82">
+        <v>255</v>
+      </c>
+      <c r="E82">
+        <v>3455.727676767674</v>
+      </c>
+      <c r="F82">
+        <v>58.78543762504174</v>
+      </c>
+      <c r="G82">
+        <v>137</v>
+      </c>
+      <c r="H82">
+        <v>118</v>
+      </c>
+      <c r="I82">
+        <v>255</v>
+      </c>
+      <c r="J82">
+        <v>138.75</v>
+      </c>
+      <c r="K82">
+        <v>254</v>
+      </c>
+      <c r="L82">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>20496</v>
+      </c>
+      <c r="B83">
+        <v>204.96</v>
+      </c>
+      <c r="C83">
+        <v>254.5</v>
+      </c>
+      <c r="D83">
+        <v>255</v>
+      </c>
+      <c r="E83">
+        <v>3607.51353535354</v>
+      </c>
+      <c r="F83">
+        <v>60.06258015897702</v>
+      </c>
+      <c r="G83">
+        <v>143</v>
+      </c>
+      <c r="H83">
+        <v>112</v>
+      </c>
+      <c r="I83">
+        <v>255</v>
+      </c>
+      <c r="J83">
+        <v>136</v>
+      </c>
+      <c r="K83">
+        <v>254.5</v>
+      </c>
+      <c r="L83">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>20547</v>
+      </c>
+      <c r="B84">
+        <v>205.47</v>
+      </c>
+      <c r="C84">
+        <v>255</v>
+      </c>
+      <c r="D84">
+        <v>255</v>
+      </c>
+      <c r="E84">
+        <v>3694.413232323237</v>
+      </c>
+      <c r="F84">
+        <v>60.78168500727203</v>
+      </c>
+      <c r="G84">
+        <v>144</v>
+      </c>
+      <c r="H84">
+        <v>111</v>
+      </c>
+      <c r="I84">
+        <v>255</v>
+      </c>
+      <c r="J84">
+        <v>135</v>
+      </c>
+      <c r="K84">
+        <v>255</v>
+      </c>
+      <c r="L84">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>20580</v>
+      </c>
+      <c r="B85">
+        <v>205.8</v>
+      </c>
+      <c r="C85">
+        <v>254</v>
+      </c>
+      <c r="D85">
+        <v>255</v>
+      </c>
+      <c r="E85">
+        <v>3807.07070707071</v>
+      </c>
+      <c r="F85">
+        <v>61.70146438351937</v>
+      </c>
+      <c r="G85">
+        <v>150</v>
+      </c>
+      <c r="H85">
+        <v>105</v>
+      </c>
+      <c r="I85">
+        <v>255</v>
+      </c>
+      <c r="J85">
+        <v>133.75</v>
+      </c>
+      <c r="K85">
+        <v>254</v>
+      </c>
+      <c r="L85">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>20584</v>
+      </c>
+      <c r="B86">
+        <v>205.84</v>
+      </c>
+      <c r="C86">
+        <v>253.5</v>
+      </c>
+      <c r="D86">
+        <v>255</v>
+      </c>
+      <c r="E86">
+        <v>3979.347878787874</v>
+      </c>
+      <c r="F86">
+        <v>63.08207256255832</v>
+      </c>
+      <c r="G86">
+        <v>157</v>
+      </c>
+      <c r="H86">
+        <v>98</v>
+      </c>
+      <c r="I86">
+        <v>255</v>
+      </c>
+      <c r="J86">
+        <v>129</v>
+      </c>
+      <c r="K86">
+        <v>253.5</v>
+      </c>
+      <c r="L86">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>20592</v>
+      </c>
+      <c r="B87">
+        <v>205.92</v>
+      </c>
+      <c r="C87">
+        <v>253</v>
+      </c>
+      <c r="D87">
+        <v>255</v>
+      </c>
+      <c r="E87">
+        <v>4193.306666666662</v>
+      </c>
+      <c r="F87">
+        <v>64.75574620577437</v>
+      </c>
+      <c r="G87">
+        <v>157</v>
+      </c>
+      <c r="H87">
+        <v>98</v>
+      </c>
+      <c r="I87">
+        <v>255</v>
+      </c>
+      <c r="J87">
+        <v>125.75</v>
+      </c>
+      <c r="K87">
+        <v>253</v>
+      </c>
+      <c r="L87">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>20557</v>
+      </c>
+      <c r="B88">
+        <v>205.57</v>
+      </c>
+      <c r="C88">
+        <v>252.5</v>
+      </c>
+      <c r="D88">
+        <v>255</v>
+      </c>
+      <c r="E88">
+        <v>4315.924343434344</v>
+      </c>
+      <c r="F88">
+        <v>65.69569501447066</v>
+      </c>
+      <c r="G88">
+        <v>164</v>
+      </c>
+      <c r="H88">
+        <v>91</v>
+      </c>
+      <c r="I88">
+        <v>255</v>
+      </c>
+      <c r="J88">
+        <v>122</v>
+      </c>
+      <c r="K88">
+        <v>252.5</v>
+      </c>
+      <c r="L88">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>20500</v>
+      </c>
+      <c r="B89">
+        <v>205</v>
+      </c>
+      <c r="C89">
+        <v>252</v>
+      </c>
+      <c r="D89">
+        <v>255</v>
+      </c>
+      <c r="E89">
+        <v>4497.212121212121</v>
+      </c>
+      <c r="F89">
+        <v>67.0612564839947</v>
+      </c>
+      <c r="G89">
+        <v>178</v>
+      </c>
+      <c r="H89">
         <v>77</v>
       </c>
-      <c r="I5">
-        <v>255</v>
-      </c>
-      <c r="J5">
-        <v>111.5</v>
-      </c>
-      <c r="K5">
-        <v>189</v>
-      </c>
-      <c r="L5">
+      <c r="I89">
+        <v>255</v>
+      </c>
+      <c r="J89">
+        <v>119.5</v>
+      </c>
+      <c r="K89">
+        <v>252</v>
+      </c>
+      <c r="L89">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>20339</v>
+      </c>
+      <c r="B90">
+        <v>203.39</v>
+      </c>
+      <c r="C90">
+        <v>252</v>
+      </c>
+      <c r="D90">
+        <v>255</v>
+      </c>
+      <c r="E90">
+        <v>4674.1998989899</v>
+      </c>
+      <c r="F90">
+        <v>68.36812048747501</v>
+      </c>
+      <c r="G90">
+        <v>179</v>
+      </c>
+      <c r="H90">
+        <v>76</v>
+      </c>
+      <c r="I90">
+        <v>255</v>
+      </c>
+      <c r="J90">
+        <v>110.75</v>
+      </c>
+      <c r="K90">
+        <v>252</v>
+      </c>
+      <c r="L90">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>20164</v>
+      </c>
+      <c r="B91">
+        <v>201.64</v>
+      </c>
+      <c r="C91">
+        <v>251.5</v>
+      </c>
+      <c r="D91">
+        <v>255</v>
+      </c>
+      <c r="E91">
+        <v>4907.303434343437</v>
+      </c>
+      <c r="F91">
+        <v>70.05214796380935</v>
+      </c>
+      <c r="G91">
+        <v>185</v>
+      </c>
+      <c r="H91">
+        <v>70</v>
+      </c>
+      <c r="I91">
+        <v>255</v>
+      </c>
+      <c r="J91">
+        <v>104</v>
+      </c>
+      <c r="K91">
+        <v>251.5</v>
+      </c>
+      <c r="L91">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>19891</v>
+      </c>
+      <c r="B92">
+        <v>198.91</v>
+      </c>
+      <c r="C92">
+        <v>251.5</v>
+      </c>
+      <c r="D92">
+        <v>255</v>
+      </c>
+      <c r="E92">
+        <v>5466.365555555559</v>
+      </c>
+      <c r="F92">
+        <v>73.93487374409696</v>
+      </c>
+      <c r="G92">
+        <v>185</v>
+      </c>
+      <c r="H92">
+        <v>70</v>
+      </c>
+      <c r="I92">
+        <v>255</v>
+      </c>
+      <c r="J92">
+        <v>117.25</v>
+      </c>
+      <c r="K92">
+        <v>251.5</v>
+      </c>
+      <c r="L92">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>19761</v>
+      </c>
+      <c r="B93">
+        <v>197.61</v>
+      </c>
+      <c r="C93">
+        <v>251</v>
+      </c>
+      <c r="D93">
+        <v>255</v>
+      </c>
+      <c r="E93">
+        <v>5976.563535353542</v>
+      </c>
+      <c r="F93">
+        <v>77.30823717660067</v>
+      </c>
+      <c r="G93">
+        <v>191</v>
+      </c>
+      <c r="H93">
+        <v>64</v>
+      </c>
+      <c r="I93">
+        <v>255</v>
+      </c>
+      <c r="J93">
+        <v>114.5</v>
+      </c>
+      <c r="K93">
+        <v>251</v>
+      </c>
+      <c r="L93">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>20900</v>
+      </c>
+      <c r="B94">
+        <v>209</v>
+      </c>
+      <c r="C94">
+        <v>254</v>
+      </c>
+      <c r="D94">
+        <v>255</v>
+      </c>
+      <c r="E94">
+        <v>4369.030303030303</v>
+      </c>
+      <c r="F94">
+        <v>66.09864070486097</v>
+      </c>
+      <c r="G94">
+        <v>175</v>
+      </c>
+      <c r="H94">
+        <v>80</v>
+      </c>
+      <c r="I94">
+        <v>255</v>
+      </c>
+      <c r="J94">
+        <v>154.25</v>
+      </c>
+      <c r="K94">
+        <v>254</v>
+      </c>
+      <c r="L94">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>23017</v>
+      </c>
+      <c r="B95">
+        <v>230.17</v>
+      </c>
+      <c r="C95">
+        <v>254</v>
+      </c>
+      <c r="D95">
+        <v>255</v>
+      </c>
+      <c r="E95">
+        <v>1484.122323232324</v>
+      </c>
+      <c r="F95">
+        <v>38.52430821224858</v>
+      </c>
+      <c r="G95">
+        <v>111</v>
+      </c>
+      <c r="H95">
+        <v>144</v>
+      </c>
+      <c r="I95">
+        <v>255</v>
+      </c>
+      <c r="J95">
+        <v>209</v>
+      </c>
+      <c r="K95">
+        <v>254</v>
+      </c>
+      <c r="L95">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>24805</v>
+      </c>
+      <c r="B96">
+        <v>248.05</v>
+      </c>
+      <c r="C96">
+        <v>254</v>
+      </c>
+      <c r="D96">
+        <v>255</v>
+      </c>
+      <c r="E96">
+        <v>120.5530303030303</v>
+      </c>
+      <c r="F96">
+        <v>10.97966439847003</v>
+      </c>
+      <c r="G96">
+        <v>34</v>
+      </c>
+      <c r="H96">
+        <v>221</v>
+      </c>
+      <c r="I96">
+        <v>255</v>
+      </c>
+      <c r="J96">
+        <v>246.25</v>
+      </c>
+      <c r="K96">
+        <v>254</v>
+      </c>
+      <c r="L96">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>25388</v>
+      </c>
+      <c r="B97">
+        <v>253.88</v>
+      </c>
+      <c r="C97">
+        <v>254</v>
+      </c>
+      <c r="D97">
+        <v>255</v>
+      </c>
+      <c r="E97">
+        <v>1.985454545454543</v>
+      </c>
+      <c r="F97">
+        <v>1.409061583272549</v>
+      </c>
+      <c r="G97">
+        <v>6</v>
+      </c>
+      <c r="H97">
+        <v>249</v>
+      </c>
+      <c r="I97">
+        <v>255</v>
+      </c>
+      <c r="J97">
+        <v>253</v>
+      </c>
+      <c r="K97">
+        <v>254</v>
+      </c>
+      <c r="L97">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>25392</v>
+      </c>
+      <c r="B98">
+        <v>253.92</v>
+      </c>
+      <c r="C98">
+        <v>254</v>
+      </c>
+      <c r="D98">
+        <v>255</v>
+      </c>
+      <c r="E98">
+        <v>1.347070707070706</v>
+      </c>
+      <c r="F98">
+        <v>1.160633752339947</v>
+      </c>
+      <c r="G98">
+        <v>4</v>
+      </c>
+      <c r="H98">
+        <v>251</v>
+      </c>
+      <c r="I98">
+        <v>255</v>
+      </c>
+      <c r="J98">
+        <v>253</v>
+      </c>
+      <c r="K98">
+        <v>254</v>
+      </c>
+      <c r="L98">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>25439</v>
+      </c>
+      <c r="B99">
+        <v>254.39</v>
+      </c>
+      <c r="C99">
+        <v>254</v>
+      </c>
+      <c r="D99">
+        <v>254</v>
+      </c>
+      <c r="E99">
+        <v>0.3413131313131319</v>
+      </c>
+      <c r="F99">
+        <v>0.5842201051942084</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>253</v>
+      </c>
+      <c r="I99">
+        <v>255</v>
+      </c>
+      <c r="J99">
+        <v>254</v>
+      </c>
+      <c r="K99">
+        <v>254</v>
+      </c>
+      <c r="L99">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>25464</v>
+      </c>
+      <c r="B100">
+        <v>254.64</v>
+      </c>
+      <c r="C100">
+        <v>255</v>
+      </c>
+      <c r="D100">
+        <v>255</v>
+      </c>
+      <c r="E100">
+        <v>0.2327272727272732</v>
+      </c>
+      <c r="F100">
+        <v>0.4824181513244223</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>254</v>
+      </c>
+      <c r="I100">
+        <v>255</v>
+      </c>
+      <c r="J100">
+        <v>254</v>
+      </c>
+      <c r="K100">
+        <v>255</v>
+      </c>
+      <c r="L100">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>25464</v>
+      </c>
+      <c r="B101">
+        <v>254.64</v>
+      </c>
+      <c r="C101">
+        <v>255</v>
+      </c>
+      <c r="D101">
+        <v>255</v>
+      </c>
+      <c r="E101">
+        <v>0.2327272727272732</v>
+      </c>
+      <c r="F101">
+        <v>0.4824181513244223</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>254</v>
+      </c>
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>254</v>
+      </c>
+      <c r="K101">
+        <v>255</v>
+      </c>
+      <c r="L101">
         <v>255</v>
       </c>
     </row>

--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga10_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga10_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>25481</v>
+        <v>50967</v>
       </c>
       <c r="B2">
-        <v>254.81</v>
+        <v>254.835</v>
       </c>
       <c r="C2">
         <v>255</v>
@@ -465,10 +465,10 @@
         <v>255</v>
       </c>
       <c r="E2">
-        <v>0.9433333333333364</v>
+        <v>0.7515326633165772</v>
       </c>
       <c r="F2">
-        <v>0.9712534856222326</v>
+        <v>0.8669098357479728</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>25481</v>
+        <v>50966</v>
       </c>
       <c r="B3">
-        <v>254.81</v>
+        <v>254.83</v>
       </c>
       <c r="C3">
         <v>255</v>
@@ -503,10 +503,10 @@
         <v>255</v>
       </c>
       <c r="E3">
-        <v>0.9433333333333364</v>
+        <v>0.754874371859295</v>
       </c>
       <c r="F3">
-        <v>0.9712534856222326</v>
+        <v>0.8688350659701155</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>25480</v>
+        <v>50963</v>
       </c>
       <c r="B4">
-        <v>254.8</v>
+        <v>254.815</v>
       </c>
       <c r="C4">
         <v>255</v>
@@ -541,10 +541,10 @@
         <v>255</v>
       </c>
       <c r="E4">
-        <v>0.9494949494949475</v>
+        <v>0.814849246231151</v>
       </c>
       <c r="F4">
-        <v>0.9744203145947582</v>
+        <v>0.9026900056116446</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>25481</v>
+        <v>50964</v>
       </c>
       <c r="B5">
-        <v>254.81</v>
+        <v>254.82</v>
       </c>
       <c r="C5">
         <v>255</v>
@@ -579,16 +579,16 @@
         <v>255</v>
       </c>
       <c r="E5">
-        <v>0.6807070707070737</v>
+        <v>0.7915577889447198</v>
       </c>
       <c r="F5">
-        <v>0.8250497383231351</v>
+        <v>0.8896953349010659</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I5">
         <v>255</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>25482</v>
+        <v>50961</v>
       </c>
       <c r="B6">
-        <v>254.82</v>
+        <v>254.805</v>
       </c>
       <c r="C6">
         <v>255</v>
@@ -617,16 +617,16 @@
         <v>255</v>
       </c>
       <c r="E6">
-        <v>0.633939393939394</v>
+        <v>0.8612814070351801</v>
       </c>
       <c r="F6">
-        <v>0.7962031109832428</v>
+        <v>0.9280524807548225</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I6">
         <v>255</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>25382</v>
+        <v>50963</v>
       </c>
       <c r="B7">
-        <v>253.82</v>
+        <v>254.815</v>
       </c>
       <c r="C7">
         <v>255</v>
@@ -655,16 +655,16 @@
         <v>255</v>
       </c>
       <c r="E7">
-        <v>39.9672727272728</v>
+        <v>0.7645979899497439</v>
       </c>
       <c r="F7">
-        <v>6.321967472810407</v>
+        <v>0.8744129401774335</v>
       </c>
       <c r="G7">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="I7">
         <v>255</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>25192</v>
+        <v>50963</v>
       </c>
       <c r="B8">
-        <v>251.92</v>
+        <v>254.815</v>
       </c>
       <c r="C8">
         <v>255</v>
@@ -693,16 +693,16 @@
         <v>255</v>
       </c>
       <c r="E8">
-        <v>292.1147474747482</v>
+        <v>0.6942462311557742</v>
       </c>
       <c r="F8">
-        <v>17.09136470486626</v>
+        <v>0.8332143968726022</v>
       </c>
       <c r="G8">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="I8">
         <v>255</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>25084</v>
+        <v>50965</v>
       </c>
       <c r="B9">
-        <v>250.84</v>
+        <v>254.825</v>
       </c>
       <c r="C9">
         <v>255</v>
@@ -731,16 +731,16 @@
         <v>255</v>
       </c>
       <c r="E9">
-        <v>552.5397979797979</v>
+        <v>0.5571608040200986</v>
       </c>
       <c r="F9">
-        <v>23.50616510577168</v>
+        <v>0.7464320491646232</v>
       </c>
       <c r="G9">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="I9">
         <v>255</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>24910</v>
+        <v>50965</v>
       </c>
       <c r="B10">
-        <v>249.1</v>
+        <v>254.825</v>
       </c>
       <c r="C10">
         <v>255</v>
@@ -769,16 +769,16 @@
         <v>255</v>
       </c>
       <c r="E10">
-        <v>717.0202020202006</v>
+        <v>0.5873115577889428</v>
       </c>
       <c r="F10">
-        <v>26.77723290446944</v>
+        <v>0.7663625498345694</v>
       </c>
       <c r="G10">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="I10">
         <v>255</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>25094</v>
+        <v>50968</v>
       </c>
       <c r="B11">
-        <v>250.94</v>
+        <v>254.84</v>
       </c>
       <c r="C11">
         <v>255</v>
@@ -807,16 +807,16 @@
         <v>255</v>
       </c>
       <c r="E11">
-        <v>333.3903030303029</v>
+        <v>0.5169849246231146</v>
       </c>
       <c r="F11">
-        <v>18.25897869625524</v>
+        <v>0.71901663723666</v>
       </c>
       <c r="G11">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="I11">
         <v>255</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>25128</v>
+        <v>50894</v>
       </c>
       <c r="B12">
-        <v>251.28</v>
+        <v>254.47</v>
       </c>
       <c r="C12">
         <v>255</v>
@@ -845,16 +845,16 @@
         <v>255</v>
       </c>
       <c r="E12">
-        <v>361.6985858585862</v>
+        <v>5.727738693467324</v>
       </c>
       <c r="F12">
-        <v>19.01837495314955</v>
+        <v>2.393269456928602</v>
       </c>
       <c r="G12">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="I12">
         <v>255</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>25181</v>
+        <v>50687</v>
       </c>
       <c r="B13">
-        <v>251.81</v>
+        <v>253.435</v>
       </c>
       <c r="C13">
         <v>255</v>
@@ -883,16 +883,16 @@
         <v>255</v>
       </c>
       <c r="E13">
-        <v>244.9029292929295</v>
+        <v>70.97062814070365</v>
       </c>
       <c r="F13">
-        <v>15.64937472530227</v>
+        <v>8.424406693690877</v>
       </c>
       <c r="G13">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H13">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="I13">
         <v>255</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>25222</v>
+        <v>50464</v>
       </c>
       <c r="B14">
-        <v>252.22</v>
+        <v>252.32</v>
       </c>
       <c r="C14">
         <v>255</v>
@@ -921,16 +921,16 @@
         <v>255</v>
       </c>
       <c r="E14">
-        <v>181.6278787878787</v>
+        <v>212.1483417085416</v>
       </c>
       <c r="F14">
-        <v>13.47693877658716</v>
+        <v>14.56531296294527</v>
       </c>
       <c r="G14">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="H14">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="I14">
         <v>255</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>25215</v>
+        <v>50357</v>
       </c>
       <c r="B15">
-        <v>252.15</v>
+        <v>251.785</v>
       </c>
       <c r="C15">
         <v>255</v>
@@ -959,16 +959,16 @@
         <v>255</v>
       </c>
       <c r="E15">
-        <v>217.704545454546</v>
+        <v>299.9384673366828</v>
       </c>
       <c r="F15">
-        <v>14.75481431447194</v>
+        <v>17.31873168960946</v>
       </c>
       <c r="G15">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="H15">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="I15">
         <v>255</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>25209</v>
+        <v>50294</v>
       </c>
       <c r="B16">
-        <v>252.09</v>
+        <v>251.47</v>
       </c>
       <c r="C16">
         <v>255</v>
@@ -997,22 +997,22 @@
         <v>255</v>
       </c>
       <c r="E16">
-        <v>185.8201010101002</v>
+        <v>360.1598994974897</v>
       </c>
       <c r="F16">
-        <v>13.63158468447818</v>
+        <v>18.97787921495681</v>
       </c>
       <c r="G16">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="H16">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="I16">
         <v>255</v>
       </c>
       <c r="J16">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K16">
         <v>255</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>25175</v>
+        <v>50207</v>
       </c>
       <c r="B17">
-        <v>251.75</v>
+        <v>251.035</v>
       </c>
       <c r="C17">
         <v>255</v>
@@ -1035,22 +1035,22 @@
         <v>255</v>
       </c>
       <c r="E17">
-        <v>210.1085858585859</v>
+        <v>472.3455025125629</v>
       </c>
       <c r="F17">
-        <v>14.49512283006204</v>
+        <v>21.7335110488978</v>
       </c>
       <c r="G17">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="H17">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="I17">
         <v>255</v>
       </c>
       <c r="J17">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K17">
         <v>255</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>25135</v>
+        <v>49970</v>
       </c>
       <c r="B18">
-        <v>251.35</v>
+        <v>249.85</v>
       </c>
       <c r="C18">
         <v>255</v>
@@ -1073,22 +1073,22 @@
         <v>255</v>
       </c>
       <c r="E18">
-        <v>157.3005050505051</v>
+        <v>571.9773869346767</v>
       </c>
       <c r="F18">
-        <v>12.54194981055598</v>
+        <v>23.9160487316504</v>
       </c>
       <c r="G18">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="H18">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="I18">
         <v>255</v>
       </c>
       <c r="J18">
-        <v>251.75</v>
+        <v>255</v>
       </c>
       <c r="K18">
         <v>255</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>24534</v>
+        <v>50002</v>
       </c>
       <c r="B19">
-        <v>245.34</v>
+        <v>250.01</v>
       </c>
       <c r="C19">
         <v>255</v>
@@ -1111,22 +1111,22 @@
         <v>255</v>
       </c>
       <c r="E19">
-        <v>325.7418181818186</v>
+        <v>461.9898492462307</v>
       </c>
       <c r="F19">
-        <v>18.04831898493094</v>
+        <v>21.493949131005</v>
       </c>
       <c r="G19">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="H19">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="I19">
         <v>255</v>
       </c>
       <c r="J19">
-        <v>241.5</v>
+        <v>255</v>
       </c>
       <c r="K19">
         <v>255</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>23893</v>
+        <v>50165</v>
       </c>
       <c r="B20">
-        <v>238.93</v>
+        <v>250.825</v>
       </c>
       <c r="C20">
         <v>255</v>
@@ -1149,22 +1149,22 @@
         <v>255</v>
       </c>
       <c r="E20">
-        <v>672.2273737373736</v>
+        <v>377.4918341708511</v>
       </c>
       <c r="F20">
-        <v>25.92734798889724</v>
+        <v>19.42914908509508</v>
       </c>
       <c r="G20">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="H20">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="I20">
         <v>255</v>
       </c>
       <c r="J20">
-        <v>222.5</v>
+        <v>255</v>
       </c>
       <c r="K20">
         <v>255</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>23519</v>
+        <v>50178</v>
       </c>
       <c r="B21">
-        <v>235.19</v>
+        <v>250.89</v>
       </c>
       <c r="C21">
         <v>255</v>
@@ -1187,22 +1187,22 @@
         <v>255</v>
       </c>
       <c r="E21">
-        <v>866.3170707070727</v>
+        <v>370.3797989949733</v>
       </c>
       <c r="F21">
-        <v>29.43326469671811</v>
+        <v>19.24525393428139</v>
       </c>
       <c r="G21">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="H21">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="I21">
         <v>255</v>
       </c>
       <c r="J21">
-        <v>211.75</v>
+        <v>255</v>
       </c>
       <c r="K21">
         <v>255</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>23318</v>
+        <v>50230</v>
       </c>
       <c r="B22">
-        <v>233.18</v>
+        <v>251.15</v>
       </c>
       <c r="C22">
         <v>255</v>
@@ -1225,22 +1225,22 @@
         <v>255</v>
       </c>
       <c r="E22">
-        <v>942.8763636363636</v>
+        <v>337.4346733668316</v>
       </c>
       <c r="F22">
-        <v>30.70629192260706</v>
+        <v>18.36939501907539</v>
       </c>
       <c r="G22">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="H22">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="I22">
         <v>255</v>
       </c>
       <c r="J22">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="K22">
         <v>255</v>
@@ -1251,37 +1251,37 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>23079</v>
+        <v>50288</v>
       </c>
       <c r="B23">
-        <v>230.79</v>
+        <v>251.44</v>
       </c>
       <c r="C23">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="D23">
         <v>255</v>
       </c>
       <c r="E23">
-        <v>1032.551414141414</v>
+        <v>305.2828140703525</v>
       </c>
       <c r="F23">
-        <v>32.1333380485348</v>
+        <v>17.47234426373154</v>
       </c>
       <c r="G23">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="H23">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="I23">
         <v>255</v>
       </c>
       <c r="J23">
-        <v>201.5</v>
+        <v>255</v>
       </c>
       <c r="K23">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="L23">
         <v>255</v>
@@ -1289,37 +1289,37 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>22859</v>
+        <v>50342</v>
       </c>
       <c r="B24">
-        <v>228.59</v>
+        <v>251.71</v>
       </c>
       <c r="C24">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D24">
         <v>255</v>
       </c>
       <c r="E24">
-        <v>1070.668585858587</v>
+        <v>258.9607035175873</v>
       </c>
       <c r="F24">
-        <v>32.72107250471149</v>
+        <v>16.09225601081425</v>
       </c>
       <c r="G24">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="H24">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I24">
         <v>255</v>
       </c>
       <c r="J24">
-        <v>193.75</v>
+        <v>255</v>
       </c>
       <c r="K24">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L24">
         <v>255</v>
@@ -1327,37 +1327,37 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>22457</v>
+        <v>50367</v>
       </c>
       <c r="B25">
-        <v>224.57</v>
+        <v>251.835</v>
       </c>
       <c r="C25">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="D25">
         <v>255</v>
       </c>
       <c r="E25">
-        <v>1332.631414141413</v>
+        <v>223.4047989949765</v>
       </c>
       <c r="F25">
-        <v>36.50522447734588</v>
+        <v>14.94673205068508</v>
       </c>
       <c r="G25">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H25">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="I25">
         <v>255</v>
       </c>
       <c r="J25">
-        <v>181.75</v>
+        <v>255</v>
       </c>
       <c r="K25">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="L25">
         <v>255</v>
@@ -1365,37 +1365,37 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>22289</v>
+        <v>50404</v>
       </c>
       <c r="B26">
-        <v>222.89</v>
+        <v>252.02</v>
       </c>
       <c r="C26">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D26">
         <v>255</v>
       </c>
       <c r="E26">
-        <v>1397.533232323232</v>
+        <v>203.6277386934683</v>
       </c>
       <c r="F26">
-        <v>37.38359576503084</v>
+        <v>14.26981915419633</v>
       </c>
       <c r="G26">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H26">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I26">
         <v>255</v>
       </c>
       <c r="J26">
-        <v>183.5</v>
+        <v>255</v>
       </c>
       <c r="K26">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L26">
         <v>255</v>
@@ -1403,37 +1403,37 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>22283</v>
+        <v>50438</v>
       </c>
       <c r="B27">
-        <v>222.83</v>
+        <v>252.19</v>
       </c>
       <c r="C27">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D27">
         <v>255</v>
       </c>
       <c r="E27">
-        <v>1339.051616161615</v>
+        <v>193.8431155778887</v>
       </c>
       <c r="F27">
-        <v>36.59305420652415</v>
+        <v>13.92275531559356</v>
       </c>
       <c r="G27">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H27">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I27">
         <v>255</v>
       </c>
       <c r="J27">
-        <v>188.75</v>
+        <v>255</v>
       </c>
       <c r="K27">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L27">
         <v>255</v>
@@ -1441,37 +1441,37 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>22575</v>
+        <v>50452</v>
       </c>
       <c r="B28">
-        <v>225.75</v>
+        <v>252.26</v>
       </c>
       <c r="C28">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D28">
         <v>255</v>
       </c>
       <c r="E28">
-        <v>1134.694444444444</v>
+        <v>183.6707537688431</v>
       </c>
       <c r="F28">
-        <v>33.68522590757622</v>
+        <v>13.55251835522989</v>
       </c>
       <c r="G28">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H28">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I28">
         <v>255</v>
       </c>
       <c r="J28">
-        <v>199.5</v>
+        <v>255</v>
       </c>
       <c r="K28">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L28">
         <v>255</v>
@@ -1479,37 +1479,37 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>22690</v>
+        <v>50466</v>
       </c>
       <c r="B29">
-        <v>226.9</v>
+        <v>252.33</v>
       </c>
       <c r="C29">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="D29">
         <v>255</v>
       </c>
       <c r="E29">
-        <v>1107.202020202021</v>
+        <v>167.3377889447247</v>
       </c>
       <c r="F29">
-        <v>33.27464530542768</v>
+        <v>12.93591082779735</v>
       </c>
       <c r="G29">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H29">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I29">
         <v>255</v>
       </c>
       <c r="J29">
-        <v>202.25</v>
+        <v>254.75</v>
       </c>
       <c r="K29">
-        <v>251.5</v>
+        <v>255</v>
       </c>
       <c r="L29">
         <v>255</v>
@@ -1517,37 +1517,37 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>22675</v>
+        <v>50443</v>
       </c>
       <c r="B30">
-        <v>226.75</v>
+        <v>252.215</v>
       </c>
       <c r="C30">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D30">
         <v>255</v>
       </c>
       <c r="E30">
-        <v>1152.977272727273</v>
+        <v>173.9284170854258</v>
       </c>
       <c r="F30">
-        <v>33.95551903192282</v>
+        <v>13.18819233577619</v>
       </c>
       <c r="G30">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H30">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="I30">
         <v>255</v>
       </c>
       <c r="J30">
-        <v>202.75</v>
+        <v>254</v>
       </c>
       <c r="K30">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L30">
         <v>255</v>
@@ -1555,37 +1555,37 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>22573</v>
+        <v>50401</v>
       </c>
       <c r="B31">
-        <v>225.73</v>
+        <v>252.005</v>
       </c>
       <c r="C31">
-        <v>240.5</v>
+        <v>255</v>
       </c>
       <c r="D31">
         <v>255</v>
       </c>
       <c r="E31">
-        <v>1228.724343434344</v>
+        <v>184.9698241206038</v>
       </c>
       <c r="F31">
-        <v>35.05316452810422</v>
+        <v>13.60036117610866</v>
       </c>
       <c r="G31">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H31">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I31">
         <v>255</v>
       </c>
       <c r="J31">
-        <v>202.75</v>
+        <v>253</v>
       </c>
       <c r="K31">
-        <v>240.5</v>
+        <v>255</v>
       </c>
       <c r="L31">
         <v>255</v>
@@ -1593,37 +1593,37 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>22479</v>
+        <v>50356</v>
       </c>
       <c r="B32">
-        <v>224.79</v>
+        <v>251.78</v>
       </c>
       <c r="C32">
-        <v>228.5</v>
+        <v>255</v>
       </c>
       <c r="D32">
         <v>255</v>
       </c>
       <c r="E32">
-        <v>1271.844343434344</v>
+        <v>189.6498492462309</v>
       </c>
       <c r="F32">
-        <v>35.66292673679972</v>
+        <v>13.77134159209737</v>
       </c>
       <c r="G32">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="H32">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="I32">
         <v>255</v>
       </c>
       <c r="J32">
-        <v>201.25</v>
+        <v>253</v>
       </c>
       <c r="K32">
-        <v>228.5</v>
+        <v>255</v>
       </c>
       <c r="L32">
         <v>255</v>
@@ -1631,37 +1631,37 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>22293</v>
+        <v>50378</v>
       </c>
       <c r="B33">
-        <v>222.93</v>
+        <v>251.89</v>
       </c>
       <c r="C33">
-        <v>227.5</v>
+        <v>255</v>
       </c>
       <c r="D33">
         <v>255</v>
       </c>
       <c r="E33">
-        <v>1407.318282828283</v>
+        <v>154.0983919597989</v>
       </c>
       <c r="F33">
-        <v>37.51424106693727</v>
+        <v>12.41363733801656</v>
       </c>
       <c r="G33">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="H33">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="I33">
         <v>255</v>
       </c>
       <c r="J33">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="K33">
-        <v>227.5</v>
+        <v>255</v>
       </c>
       <c r="L33">
         <v>255</v>
@@ -1669,37 +1669,37 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>22120</v>
+        <v>50299</v>
       </c>
       <c r="B34">
-        <v>221.2</v>
+        <v>251.495</v>
       </c>
       <c r="C34">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="D34">
         <v>255</v>
       </c>
       <c r="E34">
-        <v>1553.090909090909</v>
+        <v>166.2713316582914</v>
       </c>
       <c r="F34">
-        <v>39.40927440452195</v>
+        <v>12.89462413792242</v>
       </c>
       <c r="G34">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="H34">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="I34">
         <v>255</v>
       </c>
       <c r="J34">
-        <v>193</v>
+        <v>251.75</v>
       </c>
       <c r="K34">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="L34">
         <v>255</v>
@@ -1707,37 +1707,37 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>21998</v>
+        <v>50024</v>
       </c>
       <c r="B35">
-        <v>219.98</v>
+        <v>250.12</v>
       </c>
       <c r="C35">
-        <v>224.5</v>
+        <v>255</v>
       </c>
       <c r="D35">
         <v>255</v>
       </c>
       <c r="E35">
-        <v>1607.938989898992</v>
+        <v>201.814673366835</v>
       </c>
       <c r="F35">
-        <v>40.09911457749401</v>
+        <v>14.2061491392578</v>
       </c>
       <c r="G35">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="H35">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I35">
         <v>255</v>
       </c>
       <c r="J35">
-        <v>192.5</v>
+        <v>250</v>
       </c>
       <c r="K35">
-        <v>224.5</v>
+        <v>255</v>
       </c>
       <c r="L35">
         <v>255</v>
@@ -1745,37 +1745,37 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>21811</v>
+        <v>49502</v>
       </c>
       <c r="B36">
-        <v>218.11</v>
+        <v>247.51</v>
       </c>
       <c r="C36">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="D36">
         <v>255</v>
       </c>
       <c r="E36">
-        <v>1691.048383838386</v>
+        <v>262.1104522613076</v>
       </c>
       <c r="F36">
-        <v>41.12235868525036</v>
+        <v>16.18982557847081</v>
       </c>
       <c r="G36">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H36">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="I36">
         <v>255</v>
       </c>
       <c r="J36">
-        <v>186.75</v>
+        <v>247</v>
       </c>
       <c r="K36">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="L36">
         <v>255</v>
@@ -1783,37 +1783,37 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>21633</v>
+        <v>48619</v>
       </c>
       <c r="B37">
-        <v>216.33</v>
+        <v>243.095</v>
       </c>
       <c r="C37">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="D37">
         <v>255</v>
       </c>
       <c r="E37">
-        <v>1785.496060606062</v>
+        <v>441.3326381909528</v>
       </c>
       <c r="F37">
-        <v>42.25513058323287</v>
+        <v>21.00791846402096</v>
       </c>
       <c r="G37">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="H37">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="I37">
         <v>255</v>
       </c>
       <c r="J37">
-        <v>182</v>
+        <v>235.75</v>
       </c>
       <c r="K37">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="L37">
         <v>255</v>
@@ -1821,37 +1821,37 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>21450</v>
+        <v>48021</v>
       </c>
       <c r="B38">
-        <v>214.5</v>
+        <v>240.105</v>
       </c>
       <c r="C38">
-        <v>215.5</v>
+        <v>255</v>
       </c>
       <c r="D38">
         <v>255</v>
       </c>
       <c r="E38">
-        <v>1886.757575757576</v>
+        <v>593.4512311557805</v>
       </c>
       <c r="F38">
-        <v>43.43682280919699</v>
+        <v>24.36085448328487</v>
       </c>
       <c r="G38">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="H38">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="I38">
         <v>255</v>
       </c>
       <c r="J38">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="K38">
-        <v>215.5</v>
+        <v>255</v>
       </c>
       <c r="L38">
         <v>255</v>
@@ -1859,37 +1859,37 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>21252</v>
+        <v>47567</v>
       </c>
       <c r="B39">
-        <v>212.52</v>
+        <v>237.835</v>
       </c>
       <c r="C39">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="D39">
         <v>255</v>
       </c>
       <c r="E39">
-        <v>2030.494545454547</v>
+        <v>719.1233919598016</v>
       </c>
       <c r="F39">
-        <v>45.06100914820425</v>
+        <v>26.8164761286751</v>
       </c>
       <c r="G39">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="H39">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="I39">
         <v>255</v>
       </c>
       <c r="J39">
-        <v>178</v>
+        <v>219.5</v>
       </c>
       <c r="K39">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="L39">
         <v>255</v>
@@ -1897,37 +1897,37 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>21019</v>
+        <v>47123</v>
       </c>
       <c r="B40">
-        <v>210.19</v>
+        <v>235.615</v>
       </c>
       <c r="C40">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="D40">
         <v>255</v>
       </c>
       <c r="E40">
-        <v>2125.064545454544</v>
+        <v>865.6349497487398</v>
       </c>
       <c r="F40">
-        <v>46.09842237489851</v>
+        <v>29.42167482909054</v>
       </c>
       <c r="G40">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="H40">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="I40">
         <v>255</v>
       </c>
       <c r="J40">
-        <v>175.25</v>
+        <v>214.75</v>
       </c>
       <c r="K40">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="L40">
         <v>255</v>
@@ -1935,37 +1935,37 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>20805</v>
+        <v>46955</v>
       </c>
       <c r="B41">
-        <v>208.05</v>
+        <v>234.775</v>
       </c>
       <c r="C41">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="D41">
         <v>255</v>
       </c>
       <c r="E41">
-        <v>2239.058080808079</v>
+        <v>876.0445979899506</v>
       </c>
       <c r="F41">
-        <v>47.31868638083773</v>
+        <v>29.59805057752876</v>
       </c>
       <c r="G41">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="H41">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="I41">
         <v>255</v>
       </c>
       <c r="J41">
-        <v>173</v>
+        <v>209.75</v>
       </c>
       <c r="K41">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="L41">
         <v>255</v>
@@ -1973,37 +1973,37 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>20550</v>
+        <v>46744</v>
       </c>
       <c r="B42">
-        <v>205.5</v>
+        <v>233.72</v>
       </c>
       <c r="C42">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="D42">
         <v>255</v>
       </c>
       <c r="E42">
-        <v>2354.656565656566</v>
+        <v>919.9413065326661</v>
       </c>
       <c r="F42">
-        <v>48.52480361275629</v>
+        <v>30.33053422761732</v>
       </c>
       <c r="G42">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="H42">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="I42">
         <v>255</v>
       </c>
       <c r="J42">
-        <v>167.75</v>
+        <v>208</v>
       </c>
       <c r="K42">
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="L42">
         <v>255</v>
@@ -2011,37 +2011,37 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>20247</v>
+        <v>46507</v>
       </c>
       <c r="B43">
-        <v>202.47</v>
+        <v>232.535</v>
       </c>
       <c r="C43">
-        <v>189.5</v>
+        <v>255</v>
       </c>
       <c r="D43">
         <v>255</v>
       </c>
       <c r="E43">
-        <v>2493.059696969699</v>
+        <v>973.9083165829148</v>
       </c>
       <c r="F43">
-        <v>49.93054873491477</v>
+        <v>31.20750417099892</v>
       </c>
       <c r="G43">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="H43">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="I43">
         <v>255</v>
       </c>
       <c r="J43">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="K43">
-        <v>189.5</v>
+        <v>255</v>
       </c>
       <c r="L43">
         <v>255</v>
@@ -2049,37 +2049,37 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>19997</v>
+        <v>46249</v>
       </c>
       <c r="B44">
-        <v>199.97</v>
+        <v>231.245</v>
       </c>
       <c r="C44">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="D44">
         <v>255</v>
       </c>
       <c r="E44">
-        <v>2596.57484848485</v>
+        <v>1050.065301507539</v>
       </c>
       <c r="F44">
-        <v>50.95659769337872</v>
+        <v>32.40471110051035</v>
       </c>
       <c r="G44">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="H44">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="I44">
         <v>255</v>
       </c>
       <c r="J44">
-        <v>162.75</v>
+        <v>202.75</v>
       </c>
       <c r="K44">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="L44">
         <v>255</v>
@@ -2087,37 +2087,37 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>19825</v>
+        <v>46047</v>
       </c>
       <c r="B45">
-        <v>198.25</v>
+        <v>230.235</v>
       </c>
       <c r="C45">
-        <v>179</v>
+        <v>254.5</v>
       </c>
       <c r="D45">
         <v>255</v>
       </c>
       <c r="E45">
-        <v>2695.502525252525</v>
+        <v>1032.050025125625</v>
       </c>
       <c r="F45">
-        <v>51.91822921915313</v>
+        <v>32.12553540605393</v>
       </c>
       <c r="G45">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="H45">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="I45">
         <v>255</v>
       </c>
       <c r="J45">
-        <v>160.75</v>
+        <v>202</v>
       </c>
       <c r="K45">
-        <v>179</v>
+        <v>254.5</v>
       </c>
       <c r="L45">
         <v>255</v>
@@ -2125,37 +2125,37 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>19678</v>
+        <v>45844</v>
       </c>
       <c r="B46">
-        <v>196.78</v>
+        <v>229.22</v>
       </c>
       <c r="C46">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="D46">
         <v>255</v>
       </c>
       <c r="E46">
-        <v>2785.425858585857</v>
+        <v>1041.24783919598</v>
       </c>
       <c r="F46">
-        <v>52.77713386103736</v>
+        <v>32.26837211877879</v>
       </c>
       <c r="G46">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="H46">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="I46">
         <v>255</v>
       </c>
       <c r="J46">
-        <v>155</v>
+        <v>198.75</v>
       </c>
       <c r="K46">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="L46">
         <v>255</v>
@@ -2163,37 +2163,37 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>19488</v>
+        <v>45562</v>
       </c>
       <c r="B47">
-        <v>194.88</v>
+        <v>227.81</v>
       </c>
       <c r="C47">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="D47">
         <v>255</v>
       </c>
       <c r="E47">
-        <v>2902.833939393941</v>
+        <v>1108.767738693469</v>
       </c>
       <c r="F47">
-        <v>53.87795411292026</v>
+        <v>33.29816419404332</v>
       </c>
       <c r="G47">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H47">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="I47">
         <v>255</v>
       </c>
       <c r="J47">
-        <v>154.75</v>
+        <v>190.75</v>
       </c>
       <c r="K47">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="L47">
         <v>255</v>
@@ -2201,37 +2201,37 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>19356</v>
+        <v>45068</v>
       </c>
       <c r="B48">
-        <v>193.56</v>
+        <v>225.34</v>
       </c>
       <c r="C48">
-        <v>168</v>
+        <v>254.5</v>
       </c>
       <c r="D48">
         <v>255</v>
       </c>
       <c r="E48">
-        <v>2996.67313131313</v>
+        <v>1274.537085427135</v>
       </c>
       <c r="F48">
-        <v>54.74187730899563</v>
+        <v>35.70065945367305</v>
       </c>
       <c r="G48">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="H48">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="I48">
         <v>255</v>
       </c>
       <c r="J48">
-        <v>150.75</v>
+        <v>182</v>
       </c>
       <c r="K48">
-        <v>168</v>
+        <v>254.5</v>
       </c>
       <c r="L48">
         <v>255</v>
@@ -2239,37 +2239,37 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>19256</v>
+        <v>44782</v>
       </c>
       <c r="B49">
-        <v>192.56</v>
+        <v>223.91</v>
       </c>
       <c r="C49">
-        <v>166.5</v>
+        <v>254</v>
       </c>
       <c r="D49">
         <v>255</v>
       </c>
       <c r="E49">
-        <v>3080.875151515151</v>
+        <v>1356.373768844219</v>
       </c>
       <c r="F49">
-        <v>55.50563170990085</v>
+        <v>36.82898001362811</v>
       </c>
       <c r="G49">
+        <v>94</v>
+      </c>
+      <c r="H49">
         <v>161</v>
       </c>
-      <c r="H49">
-        <v>94</v>
-      </c>
       <c r="I49">
         <v>255</v>
       </c>
       <c r="J49">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="K49">
-        <v>166.5</v>
+        <v>254</v>
       </c>
       <c r="L49">
         <v>255</v>
@@ -2277,37 +2277,37 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>19154</v>
+        <v>44616</v>
       </c>
       <c r="B50">
-        <v>191.54</v>
+        <v>223.08</v>
       </c>
       <c r="C50">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="D50">
         <v>255</v>
       </c>
       <c r="E50">
-        <v>3144.432727272727</v>
+        <v>1389.631758793969</v>
       </c>
       <c r="F50">
-        <v>56.07524166040417</v>
+        <v>37.27776493828418</v>
       </c>
       <c r="G50">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="H50">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="I50">
         <v>255</v>
       </c>
       <c r="J50">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="K50">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="L50">
         <v>255</v>
@@ -2315,37 +2315,37 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>19084</v>
+        <v>44560</v>
       </c>
       <c r="B51">
-        <v>190.84</v>
+        <v>222.8</v>
       </c>
       <c r="C51">
-        <v>161.5</v>
+        <v>254</v>
       </c>
       <c r="D51">
         <v>255</v>
       </c>
       <c r="E51">
-        <v>3154.479191919188</v>
+        <v>1380.723618090454</v>
       </c>
       <c r="F51">
-        <v>56.16475043939204</v>
+        <v>37.15808953768283</v>
       </c>
       <c r="G51">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="H51">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="I51">
         <v>255</v>
       </c>
       <c r="J51">
-        <v>149</v>
+        <v>183.75</v>
       </c>
       <c r="K51">
-        <v>161.5</v>
+        <v>254</v>
       </c>
       <c r="L51">
         <v>255</v>
@@ -2353,37 +2353,37 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>19045</v>
+        <v>44504</v>
       </c>
       <c r="B52">
-        <v>190.45</v>
+        <v>222.52</v>
       </c>
       <c r="C52">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="D52">
         <v>255</v>
       </c>
       <c r="E52">
-        <v>3159.906565656567</v>
+        <v>1375.768442211054</v>
       </c>
       <c r="F52">
-        <v>56.21304622288821</v>
+        <v>37.09135266084339</v>
       </c>
       <c r="G52">
+        <v>103</v>
+      </c>
+      <c r="H52">
         <v>152</v>
       </c>
-      <c r="H52">
-        <v>103</v>
-      </c>
       <c r="I52">
         <v>255</v>
       </c>
       <c r="J52">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="K52">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="L52">
         <v>255</v>
@@ -2391,37 +2391,37 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>19000</v>
+        <v>44698</v>
       </c>
       <c r="B53">
-        <v>190</v>
+        <v>223.49</v>
       </c>
       <c r="C53">
-        <v>157</v>
+        <v>253.5</v>
       </c>
       <c r="D53">
         <v>255</v>
       </c>
       <c r="E53">
-        <v>3171.191919191919</v>
+        <v>1277.929547738696</v>
       </c>
       <c r="F53">
-        <v>56.3133369566386</v>
+        <v>35.74814047945286</v>
       </c>
       <c r="G53">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="H53">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="I53">
         <v>255</v>
       </c>
       <c r="J53">
-        <v>147.75</v>
+        <v>192</v>
       </c>
       <c r="K53">
-        <v>157</v>
+        <v>253.5</v>
       </c>
       <c r="L53">
         <v>255</v>
@@ -2429,37 +2429,37 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>18961</v>
+        <v>44988</v>
       </c>
       <c r="B54">
-        <v>189.61</v>
+        <v>224.94</v>
       </c>
       <c r="C54">
-        <v>156</v>
+        <v>253.5</v>
       </c>
       <c r="D54">
         <v>255</v>
       </c>
       <c r="E54">
-        <v>3205.371616161619</v>
+        <v>1177.915979899498</v>
       </c>
       <c r="F54">
-        <v>56.61600141445543</v>
+        <v>34.32078058406449</v>
       </c>
       <c r="G54">
+        <v>108</v>
+      </c>
+      <c r="H54">
         <v>147</v>
       </c>
-      <c r="H54">
-        <v>108</v>
-      </c>
       <c r="I54">
         <v>255</v>
       </c>
       <c r="J54">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="K54">
-        <v>156</v>
+        <v>253.5</v>
       </c>
       <c r="L54">
         <v>255</v>
@@ -2467,37 +2467,37 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>18930</v>
+        <v>45287</v>
       </c>
       <c r="B55">
-        <v>189.3</v>
+        <v>226.435</v>
       </c>
       <c r="C55">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="D55">
         <v>255</v>
       </c>
       <c r="E55">
-        <v>3227.323232323231</v>
+        <v>1095.332437185929</v>
       </c>
       <c r="F55">
-        <v>56.80953469553532</v>
+        <v>33.09580694266162</v>
       </c>
       <c r="G55">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="H55">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="I55">
         <v>255</v>
       </c>
       <c r="J55">
-        <v>145.75</v>
+        <v>198.75</v>
       </c>
       <c r="K55">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="L55">
         <v>255</v>
@@ -2505,37 +2505,37 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>18948</v>
+        <v>45336</v>
       </c>
       <c r="B56">
-        <v>189.48</v>
+        <v>226.68</v>
       </c>
       <c r="C56">
-        <v>152</v>
+        <v>251.5</v>
       </c>
       <c r="D56">
         <v>255</v>
       </c>
       <c r="E56">
-        <v>3224.858181818185</v>
+        <v>1103.806633165826</v>
       </c>
       <c r="F56">
-        <v>56.7878348048082</v>
+        <v>33.22358549533487</v>
       </c>
       <c r="G56">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="H56">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="I56">
         <v>255</v>
       </c>
       <c r="J56">
-        <v>144</v>
+        <v>203.5</v>
       </c>
       <c r="K56">
-        <v>152</v>
+        <v>251.5</v>
       </c>
       <c r="L56">
         <v>255</v>
@@ -2543,37 +2543,37 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>18987</v>
+        <v>45391</v>
       </c>
       <c r="B57">
-        <v>189.87</v>
+        <v>226.955</v>
       </c>
       <c r="C57">
-        <v>152.5</v>
+        <v>251.5</v>
       </c>
       <c r="D57">
         <v>255</v>
       </c>
       <c r="E57">
-        <v>3201.487979797982</v>
+        <v>1106.053241206033</v>
       </c>
       <c r="F57">
-        <v>56.58169297394681</v>
+        <v>33.25737874827228</v>
       </c>
       <c r="G57">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="H57">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="I57">
         <v>255</v>
       </c>
       <c r="J57">
-        <v>143.75</v>
+        <v>201.75</v>
       </c>
       <c r="K57">
-        <v>152.5</v>
+        <v>251.5</v>
       </c>
       <c r="L57">
         <v>255</v>
@@ -2581,37 +2581,37 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>19023</v>
+        <v>45390</v>
       </c>
       <c r="B58">
-        <v>190.23</v>
+        <v>226.95</v>
       </c>
       <c r="C58">
-        <v>152.5</v>
+        <v>251.5</v>
       </c>
       <c r="D58">
         <v>255</v>
       </c>
       <c r="E58">
-        <v>3187.835454545452</v>
+        <v>1125.103015075375</v>
       </c>
       <c r="F58">
-        <v>56.46091971041078</v>
+        <v>33.54255528541877</v>
       </c>
       <c r="G58">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="H58">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="I58">
         <v>255</v>
       </c>
       <c r="J58">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="K58">
-        <v>152.5</v>
+        <v>251.5</v>
       </c>
       <c r="L58">
         <v>255</v>
@@ -2619,37 +2619,37 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>19068</v>
+        <v>45310</v>
       </c>
       <c r="B59">
-        <v>190.68</v>
+        <v>226.55</v>
       </c>
       <c r="C59">
-        <v>152</v>
+        <v>250.5</v>
       </c>
       <c r="D59">
         <v>255</v>
       </c>
       <c r="E59">
-        <v>3167.290505050503</v>
+        <v>1172.118090452261</v>
       </c>
       <c r="F59">
-        <v>56.27868606364672</v>
+        <v>34.23621022327472</v>
       </c>
       <c r="G59">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="H59">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="I59">
         <v>255</v>
       </c>
       <c r="J59">
-        <v>144</v>
+        <v>203.75</v>
       </c>
       <c r="K59">
-        <v>152</v>
+        <v>250.5</v>
       </c>
       <c r="L59">
         <v>255</v>
@@ -2657,37 +2657,37 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>19157</v>
+        <v>45191</v>
       </c>
       <c r="B60">
-        <v>191.57</v>
+        <v>225.955</v>
       </c>
       <c r="C60">
-        <v>152</v>
+        <v>246.5</v>
       </c>
       <c r="D60">
         <v>255</v>
       </c>
       <c r="E60">
-        <v>3113.843535353535</v>
+        <v>1208.837160804022</v>
       </c>
       <c r="F60">
-        <v>55.80182376368656</v>
+        <v>34.76833560589322</v>
       </c>
       <c r="G60">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="H60">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="I60">
         <v>255</v>
       </c>
       <c r="J60">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="K60">
-        <v>152</v>
+        <v>246.5</v>
       </c>
       <c r="L60">
         <v>255</v>
@@ -2695,37 +2695,37 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>19217</v>
+        <v>45087</v>
       </c>
       <c r="B61">
-        <v>192.17</v>
+        <v>225.435</v>
       </c>
       <c r="C61">
-        <v>154</v>
+        <v>234.5</v>
       </c>
       <c r="D61">
         <v>255</v>
       </c>
       <c r="E61">
-        <v>3089.556666666664</v>
+        <v>1227.262085427136</v>
       </c>
       <c r="F61">
-        <v>55.58378060789554</v>
+        <v>35.03230060140407</v>
       </c>
       <c r="G61">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H61">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="I61">
         <v>255</v>
       </c>
       <c r="J61">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="K61">
-        <v>154</v>
+        <v>234.5</v>
       </c>
       <c r="L61">
         <v>255</v>
@@ -2733,37 +2733,37 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>19268</v>
+        <v>44997</v>
       </c>
       <c r="B62">
-        <v>192.68</v>
+        <v>224.985</v>
       </c>
       <c r="C62">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="D62">
         <v>255</v>
       </c>
       <c r="E62">
-        <v>3078.543030303032</v>
+        <v>1247.55253768844</v>
       </c>
       <c r="F62">
-        <v>55.48461976352574</v>
+        <v>35.3207097562951</v>
       </c>
       <c r="G62">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H62">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="I62">
         <v>255</v>
       </c>
       <c r="J62">
-        <v>146.75</v>
+        <v>201.5</v>
       </c>
       <c r="K62">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="L62">
         <v>255</v>
@@ -2771,37 +2771,37 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>19335</v>
+        <v>44870</v>
       </c>
       <c r="B63">
-        <v>193.35</v>
+        <v>224.35</v>
       </c>
       <c r="C63">
-        <v>153</v>
+        <v>229.5</v>
       </c>
       <c r="D63">
         <v>255</v>
       </c>
       <c r="E63">
-        <v>3057.482323232322</v>
+        <v>1292.781407035174</v>
       </c>
       <c r="F63">
-        <v>55.29450536203684</v>
+        <v>35.95526953083753</v>
       </c>
       <c r="G63">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H63">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I63">
         <v>255</v>
       </c>
       <c r="J63">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="K63">
-        <v>153</v>
+        <v>229.5</v>
       </c>
       <c r="L63">
         <v>255</v>
@@ -2809,37 +2809,37 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>19386</v>
+        <v>44667</v>
       </c>
       <c r="B64">
-        <v>193.86</v>
+        <v>223.335</v>
       </c>
       <c r="C64">
-        <v>154</v>
+        <v>226.5</v>
       </c>
       <c r="D64">
         <v>255</v>
       </c>
       <c r="E64">
-        <v>3046.929696969698</v>
+        <v>1365.992738693465</v>
       </c>
       <c r="F64">
-        <v>55.19900086930648</v>
+        <v>36.95933899156564</v>
       </c>
       <c r="G64">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H64">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I64">
         <v>255</v>
       </c>
       <c r="J64">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="K64">
-        <v>154</v>
+        <v>226.5</v>
       </c>
       <c r="L64">
         <v>255</v>
@@ -2847,37 +2847,37 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>19423</v>
+        <v>44490</v>
       </c>
       <c r="B65">
-        <v>194.23</v>
+        <v>222.45</v>
       </c>
       <c r="C65">
-        <v>153.5</v>
+        <v>226.5</v>
       </c>
       <c r="D65">
         <v>255</v>
       </c>
       <c r="E65">
-        <v>3043.87585858586</v>
+        <v>1438.550251256282</v>
       </c>
       <c r="F65">
-        <v>55.1713318543776</v>
+        <v>37.92822499480145</v>
       </c>
       <c r="G65">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H65">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I65">
         <v>255</v>
       </c>
       <c r="J65">
-        <v>147</v>
+        <v>196.75</v>
       </c>
       <c r="K65">
-        <v>153.5</v>
+        <v>226.5</v>
       </c>
       <c r="L65">
         <v>255</v>
@@ -2885,37 +2885,37 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>19471</v>
+        <v>44344</v>
       </c>
       <c r="B66">
-        <v>194.71</v>
+        <v>221.72</v>
       </c>
       <c r="C66">
-        <v>154.5</v>
+        <v>227</v>
       </c>
       <c r="D66">
         <v>255</v>
       </c>
       <c r="E66">
-        <v>3034.147373737376</v>
+        <v>1506.604623115575</v>
       </c>
       <c r="F66">
-        <v>55.08309517208865</v>
+        <v>38.81500512837238</v>
       </c>
       <c r="G66">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H66">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I66">
         <v>255</v>
       </c>
       <c r="J66">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="K66">
-        <v>154.5</v>
+        <v>227</v>
       </c>
       <c r="L66">
         <v>255</v>
@@ -2923,37 +2923,37 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>19496</v>
+        <v>44162</v>
       </c>
       <c r="B67">
-        <v>194.96</v>
+        <v>220.81</v>
       </c>
       <c r="C67">
-        <v>154.5</v>
+        <v>226</v>
       </c>
       <c r="D67">
         <v>255</v>
       </c>
       <c r="E67">
-        <v>3085.291313131313</v>
+        <v>1589.561708542715</v>
       </c>
       <c r="F67">
-        <v>55.54539866749823</v>
+        <v>39.86930785131234</v>
       </c>
       <c r="G67">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H67">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I67">
         <v>255</v>
       </c>
       <c r="J67">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="K67">
-        <v>154.5</v>
+        <v>226</v>
       </c>
       <c r="L67">
         <v>255</v>
@@ -2961,37 +2961,37 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>19527</v>
+        <v>44044</v>
       </c>
       <c r="B68">
-        <v>195.27</v>
+        <v>220.22</v>
       </c>
       <c r="C68">
-        <v>152.5</v>
+        <v>225</v>
       </c>
       <c r="D68">
         <v>255</v>
       </c>
       <c r="E68">
-        <v>3115.29</v>
+        <v>1600.283015075378</v>
       </c>
       <c r="F68">
-        <v>55.8147829880221</v>
+        <v>40.00353753201557</v>
       </c>
       <c r="G68">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H68">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I68">
         <v>255</v>
       </c>
       <c r="J68">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="K68">
-        <v>152.5</v>
+        <v>225</v>
       </c>
       <c r="L68">
         <v>255</v>
@@ -2999,37 +2999,37 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>19590</v>
+        <v>43897</v>
       </c>
       <c r="B69">
-        <v>195.9</v>
+        <v>219.485</v>
       </c>
       <c r="C69">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="D69">
         <v>255</v>
       </c>
       <c r="E69">
-        <v>3121.666666666667</v>
+        <v>1622.150527638197</v>
       </c>
       <c r="F69">
-        <v>55.87187724308775</v>
+        <v>40.27592987924918</v>
       </c>
       <c r="G69">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="H69">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I69">
         <v>255</v>
       </c>
       <c r="J69">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="K69">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="L69">
         <v>255</v>
@@ -3037,37 +3037,37 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>19666</v>
+        <v>43713</v>
       </c>
       <c r="B70">
-        <v>196.66</v>
+        <v>218.565</v>
       </c>
       <c r="C70">
-        <v>164.5</v>
+        <v>221</v>
       </c>
       <c r="D70">
         <v>255</v>
       </c>
       <c r="E70">
-        <v>3120.408484848487</v>
+        <v>1666.789723618088</v>
       </c>
       <c r="F70">
-        <v>55.86061658134904</v>
+        <v>40.82633615226926</v>
       </c>
       <c r="G70">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H70">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I70">
         <v>255</v>
       </c>
       <c r="J70">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="K70">
-        <v>164.5</v>
+        <v>221</v>
       </c>
       <c r="L70">
         <v>255</v>
@@ -3075,37 +3075,37 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>19726</v>
+        <v>43538</v>
       </c>
       <c r="B71">
-        <v>197.26</v>
+        <v>217.69</v>
       </c>
       <c r="C71">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="D71">
         <v>255</v>
       </c>
       <c r="E71">
-        <v>3122.780202020199</v>
+        <v>1710.184824120609</v>
       </c>
       <c r="F71">
-        <v>55.88184143369113</v>
+        <v>41.35438095438752</v>
       </c>
       <c r="G71">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H71">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I71">
         <v>255</v>
       </c>
       <c r="J71">
-        <v>145.75</v>
+        <v>186</v>
       </c>
       <c r="K71">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="L71">
         <v>255</v>
@@ -3113,37 +3113,37 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>19798</v>
+        <v>43348</v>
       </c>
       <c r="B72">
-        <v>197.98</v>
+        <v>216.74</v>
       </c>
       <c r="C72">
+        <v>218</v>
+      </c>
+      <c r="D72">
+        <v>255</v>
+      </c>
+      <c r="E72">
+        <v>1753.17829145729</v>
+      </c>
+      <c r="F72">
+        <v>41.87097194306923</v>
+      </c>
+      <c r="G72">
+        <v>142</v>
+      </c>
+      <c r="H72">
+        <v>113</v>
+      </c>
+      <c r="I72">
+        <v>255</v>
+      </c>
+      <c r="J72">
         <v>183.5</v>
       </c>
-      <c r="D72">
-        <v>255</v>
-      </c>
-      <c r="E72">
-        <v>3137.47434343434</v>
-      </c>
-      <c r="F72">
-        <v>56.01316223383876</v>
-      </c>
-      <c r="G72">
-        <v>130</v>
-      </c>
-      <c r="H72">
-        <v>125</v>
-      </c>
-      <c r="I72">
-        <v>255</v>
-      </c>
-      <c r="J72">
-        <v>146.75</v>
-      </c>
       <c r="K72">
-        <v>183.5</v>
+        <v>218</v>
       </c>
       <c r="L72">
         <v>255</v>
@@ -3151,37 +3151,37 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>19876</v>
+        <v>43172</v>
       </c>
       <c r="B73">
-        <v>198.76</v>
+        <v>215.86</v>
       </c>
       <c r="C73">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="D73">
         <v>255</v>
       </c>
       <c r="E73">
-        <v>3133.739797979798</v>
+        <v>1800.452663316579</v>
       </c>
       <c r="F73">
-        <v>55.97981598736993</v>
+        <v>42.43174122418946</v>
       </c>
       <c r="G73">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H73">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I73">
         <v>255</v>
       </c>
       <c r="J73">
-        <v>147</v>
+        <v>181.75</v>
       </c>
       <c r="K73">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L73">
         <v>255</v>
@@ -3189,37 +3189,37 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>19968</v>
+        <v>42999</v>
       </c>
       <c r="B74">
-        <v>199.68</v>
+        <v>214.995</v>
       </c>
       <c r="C74">
-        <v>219.5</v>
+        <v>217</v>
       </c>
       <c r="D74">
         <v>255</v>
       </c>
       <c r="E74">
-        <v>3132.462222222219</v>
+        <v>1852.899472361805</v>
       </c>
       <c r="F74">
-        <v>55.96840378483399</v>
+        <v>43.04531882053848</v>
       </c>
       <c r="G74">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="H74">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I74">
         <v>255</v>
       </c>
       <c r="J74">
-        <v>147</v>
+        <v>179.75</v>
       </c>
       <c r="K74">
-        <v>219.5</v>
+        <v>217</v>
       </c>
       <c r="L74">
         <v>255</v>
@@ -3227,37 +3227,37 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>20032</v>
+        <v>42785</v>
       </c>
       <c r="B75">
-        <v>200.32</v>
+        <v>213.925</v>
       </c>
       <c r="C75">
-        <v>235.5</v>
+        <v>214.5</v>
       </c>
       <c r="D75">
         <v>255</v>
       </c>
       <c r="E75">
-        <v>3136.623838383841</v>
+        <v>1919.808417085431</v>
       </c>
       <c r="F75">
-        <v>56.00556970859095</v>
+        <v>43.81561841496056</v>
       </c>
       <c r="G75">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="H75">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="I75">
         <v>255</v>
       </c>
       <c r="J75">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="K75">
-        <v>235.5</v>
+        <v>214.5</v>
       </c>
       <c r="L75">
         <v>255</v>
@@ -3265,37 +3265,37 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>20095</v>
+        <v>42585</v>
       </c>
       <c r="B76">
-        <v>200.95</v>
+        <v>212.925</v>
       </c>
       <c r="C76">
-        <v>247</v>
+        <v>213.5</v>
       </c>
       <c r="D76">
         <v>255</v>
       </c>
       <c r="E76">
-        <v>3161.058080808084</v>
+        <v>1987.205402010047</v>
       </c>
       <c r="F76">
-        <v>56.22328770899194</v>
+        <v>44.57808208088417</v>
       </c>
       <c r="G76">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="H76">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="I76">
         <v>255</v>
       </c>
       <c r="J76">
-        <v>144.75</v>
+        <v>178</v>
       </c>
       <c r="K76">
-        <v>247</v>
+        <v>213.5</v>
       </c>
       <c r="L76">
         <v>255</v>
@@ -3303,37 +3303,37 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>20168</v>
+        <v>42365</v>
       </c>
       <c r="B77">
-        <v>201.68</v>
+        <v>211.825</v>
       </c>
       <c r="C77">
-        <v>250.5</v>
+        <v>212</v>
       </c>
       <c r="D77">
         <v>255</v>
       </c>
       <c r="E77">
-        <v>3171.108686868689</v>
+        <v>2041.270728643216</v>
       </c>
       <c r="F77">
-        <v>56.31259794103526</v>
+        <v>45.18042417511389</v>
       </c>
       <c r="G77">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="H77">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="I77">
         <v>255</v>
       </c>
       <c r="J77">
-        <v>145</v>
+        <v>177.75</v>
       </c>
       <c r="K77">
-        <v>250.5</v>
+        <v>212</v>
       </c>
       <c r="L77">
         <v>255</v>
@@ -3341,37 +3341,37 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>20271</v>
+        <v>42127</v>
       </c>
       <c r="B78">
-        <v>202.71</v>
+        <v>210.635</v>
       </c>
       <c r="C78">
-        <v>254.5</v>
+        <v>209.5</v>
       </c>
       <c r="D78">
         <v>255</v>
       </c>
       <c r="E78">
-        <v>3207.3796969697</v>
+        <v>2092.594748743717</v>
       </c>
       <c r="F78">
-        <v>56.63373285392461</v>
+        <v>45.74488767877474</v>
       </c>
       <c r="G78">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="H78">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="I78">
         <v>255</v>
       </c>
       <c r="J78">
-        <v>143.75</v>
+        <v>176.75</v>
       </c>
       <c r="K78">
-        <v>254.5</v>
+        <v>209.5</v>
       </c>
       <c r="L78">
         <v>255</v>
@@ -3379,37 +3379,37 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>20334</v>
+        <v>41958</v>
       </c>
       <c r="B79">
-        <v>203.34</v>
+        <v>209.79</v>
       </c>
       <c r="C79">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="D79">
         <v>255</v>
       </c>
       <c r="E79">
-        <v>3239.196363636358</v>
+        <v>2139.825025125632</v>
       </c>
       <c r="F79">
-        <v>56.91393821935325</v>
+        <v>46.25824278034815</v>
       </c>
       <c r="G79">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="H79">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="I79">
         <v>255</v>
       </c>
       <c r="J79">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="K79">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="L79">
         <v>255</v>
@@ -3417,37 +3417,37 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>20357</v>
+        <v>41726</v>
       </c>
       <c r="B80">
-        <v>203.57</v>
+        <v>208.63</v>
       </c>
       <c r="C80">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="D80">
         <v>255</v>
       </c>
       <c r="E80">
-        <v>3317.601111111107</v>
+        <v>2200.505628140708</v>
       </c>
       <c r="F80">
-        <v>57.59862073965927</v>
+        <v>46.90954730266225</v>
       </c>
       <c r="G80">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="H80">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="I80">
         <v>255</v>
       </c>
       <c r="J80">
-        <v>141.75</v>
+        <v>173.75</v>
       </c>
       <c r="K80">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="L80">
         <v>255</v>
@@ -3455,37 +3455,37 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>20421</v>
+        <v>41476</v>
       </c>
       <c r="B81">
-        <v>204.21</v>
+        <v>207.38</v>
       </c>
       <c r="C81">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="D81">
         <v>255</v>
       </c>
       <c r="E81">
-        <v>3379.601919191923</v>
+        <v>2260.82974874372</v>
       </c>
       <c r="F81">
-        <v>58.13434371515622</v>
+        <v>47.54818344315291</v>
       </c>
       <c r="G81">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="H81">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="I81">
         <v>255</v>
       </c>
       <c r="J81">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="K81">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="L81">
         <v>255</v>
@@ -3493,37 +3493,37 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>20464</v>
+        <v>41225</v>
       </c>
       <c r="B82">
-        <v>204.64</v>
+        <v>206.125</v>
       </c>
       <c r="C82">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="D82">
         <v>255</v>
       </c>
       <c r="E82">
-        <v>3455.727676767674</v>
+        <v>2320.190326633166</v>
       </c>
       <c r="F82">
-        <v>58.78543762504174</v>
+        <v>48.16835399547265</v>
       </c>
       <c r="G82">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="H82">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="I82">
         <v>255</v>
       </c>
       <c r="J82">
-        <v>138.75</v>
+        <v>169</v>
       </c>
       <c r="K82">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="L82">
         <v>255</v>
@@ -3531,37 +3531,37 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>20496</v>
+        <v>40956</v>
       </c>
       <c r="B83">
-        <v>204.96</v>
+        <v>204.78</v>
       </c>
       <c r="C83">
-        <v>254.5</v>
+        <v>196</v>
       </c>
       <c r="D83">
         <v>255</v>
       </c>
       <c r="E83">
-        <v>3607.51353535354</v>
+        <v>2381.046834170849</v>
       </c>
       <c r="F83">
-        <v>60.06258015897702</v>
+        <v>48.79597149530737</v>
       </c>
       <c r="G83">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="H83">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I83">
         <v>255</v>
       </c>
       <c r="J83">
-        <v>136</v>
+        <v>167.75</v>
       </c>
       <c r="K83">
-        <v>254.5</v>
+        <v>196</v>
       </c>
       <c r="L83">
         <v>255</v>
@@ -3569,37 +3569,37 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>20547</v>
+        <v>40658</v>
       </c>
       <c r="B84">
-        <v>205.47</v>
+        <v>203.29</v>
       </c>
       <c r="C84">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="D84">
         <v>255</v>
       </c>
       <c r="E84">
-        <v>3694.413232323237</v>
+        <v>2453.47326633166</v>
       </c>
       <c r="F84">
-        <v>60.78168500727203</v>
+        <v>49.53254754534295</v>
       </c>
       <c r="G84">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="H84">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="I84">
         <v>255</v>
       </c>
       <c r="J84">
-        <v>135</v>
+        <v>165.75</v>
       </c>
       <c r="K84">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="L84">
         <v>255</v>
@@ -3607,37 +3607,37 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>20580</v>
+        <v>40343</v>
       </c>
       <c r="B85">
-        <v>205.8</v>
+        <v>201.715</v>
       </c>
       <c r="C85">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="D85">
         <v>255</v>
       </c>
       <c r="E85">
-        <v>3807.07070707071</v>
+        <v>2530.506306532662</v>
       </c>
       <c r="F85">
-        <v>61.70146438351937</v>
+        <v>50.30413806569656</v>
       </c>
       <c r="G85">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H85">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I85">
         <v>255</v>
       </c>
       <c r="J85">
-        <v>133.75</v>
+        <v>164</v>
       </c>
       <c r="K85">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="L85">
         <v>255</v>
@@ -3645,37 +3645,37 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>20584</v>
+        <v>40064</v>
       </c>
       <c r="B86">
-        <v>205.84</v>
+        <v>200.32</v>
       </c>
       <c r="C86">
-        <v>253.5</v>
+        <v>183.5</v>
       </c>
       <c r="D86">
         <v>255</v>
       </c>
       <c r="E86">
-        <v>3979.347878787874</v>
+        <v>2592.469949748749</v>
       </c>
       <c r="F86">
-        <v>63.08207256255832</v>
+        <v>50.91630337866987</v>
       </c>
       <c r="G86">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H86">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I86">
         <v>255</v>
       </c>
       <c r="J86">
-        <v>129</v>
+        <v>163.75</v>
       </c>
       <c r="K86">
-        <v>253.5</v>
+        <v>183.5</v>
       </c>
       <c r="L86">
         <v>255</v>
@@ -3683,37 +3683,37 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>20592</v>
+        <v>39912</v>
       </c>
       <c r="B87">
-        <v>205.92</v>
+        <v>199.56</v>
       </c>
       <c r="C87">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="D87">
         <v>255</v>
       </c>
       <c r="E87">
-        <v>4193.306666666662</v>
+        <v>2621.011457286437</v>
       </c>
       <c r="F87">
-        <v>64.75574620577437</v>
+        <v>51.19581484151255</v>
       </c>
       <c r="G87">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H87">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I87">
         <v>255</v>
       </c>
       <c r="J87">
-        <v>125.75</v>
+        <v>162.75</v>
       </c>
       <c r="K87">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="L87">
         <v>255</v>
@@ -3721,37 +3721,37 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>20557</v>
+        <v>39760</v>
       </c>
       <c r="B88">
-        <v>205.57</v>
+        <v>198.8</v>
       </c>
       <c r="C88">
-        <v>252.5</v>
+        <v>180</v>
       </c>
       <c r="D88">
         <v>255</v>
       </c>
       <c r="E88">
-        <v>4315.924343434344</v>
+        <v>2650.804020100504</v>
       </c>
       <c r="F88">
-        <v>65.69569501447066</v>
+        <v>51.48595944624616</v>
       </c>
       <c r="G88">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H88">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I88">
         <v>255</v>
       </c>
       <c r="J88">
-        <v>122</v>
+        <v>161.25</v>
       </c>
       <c r="K88">
-        <v>252.5</v>
+        <v>180</v>
       </c>
       <c r="L88">
         <v>255</v>
@@ -3759,37 +3759,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>20500</v>
+        <v>39608</v>
       </c>
       <c r="B89">
-        <v>205</v>
+        <v>198.04</v>
       </c>
       <c r="C89">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="D89">
         <v>255</v>
       </c>
       <c r="E89">
-        <v>4497.212121212121</v>
+        <v>2691.244623115582</v>
       </c>
       <c r="F89">
-        <v>67.0612564839947</v>
+        <v>51.87720716379769</v>
       </c>
       <c r="G89">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H89">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="I89">
         <v>255</v>
       </c>
       <c r="J89">
-        <v>119.5</v>
+        <v>160</v>
       </c>
       <c r="K89">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="L89">
         <v>255</v>
@@ -3797,37 +3797,37 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>20339</v>
+        <v>39462</v>
       </c>
       <c r="B90">
-        <v>203.39</v>
+        <v>197.31</v>
       </c>
       <c r="C90">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="D90">
         <v>255</v>
       </c>
       <c r="E90">
-        <v>4674.1998989899</v>
+        <v>2739.963718592965</v>
       </c>
       <c r="F90">
-        <v>68.36812048747501</v>
+        <v>52.34466275173587</v>
       </c>
       <c r="G90">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="H90">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I90">
         <v>255</v>
       </c>
       <c r="J90">
-        <v>110.75</v>
+        <v>156</v>
       </c>
       <c r="K90">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="L90">
         <v>255</v>
@@ -3835,37 +3835,37 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>20164</v>
+        <v>39265</v>
       </c>
       <c r="B91">
-        <v>201.64</v>
+        <v>196.325</v>
       </c>
       <c r="C91">
-        <v>251.5</v>
+        <v>174</v>
       </c>
       <c r="D91">
         <v>255</v>
       </c>
       <c r="E91">
-        <v>4907.303434343437</v>
+        <v>2798.351130653265</v>
       </c>
       <c r="F91">
-        <v>70.05214796380935</v>
+        <v>52.89944357602701</v>
       </c>
       <c r="G91">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="H91">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="I91">
         <v>255</v>
       </c>
       <c r="J91">
-        <v>104</v>
+        <v>154.75</v>
       </c>
       <c r="K91">
-        <v>251.5</v>
+        <v>174</v>
       </c>
       <c r="L91">
         <v>255</v>
@@ -3873,37 +3873,37 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>19891</v>
+        <v>39070</v>
       </c>
       <c r="B92">
-        <v>198.91</v>
+        <v>195.35</v>
       </c>
       <c r="C92">
-        <v>251.5</v>
+        <v>172.5</v>
       </c>
       <c r="D92">
         <v>255</v>
       </c>
       <c r="E92">
-        <v>5466.365555555559</v>
+        <v>2858.821608040203</v>
       </c>
       <c r="F92">
-        <v>73.93487374409696</v>
+        <v>53.46794935323593</v>
       </c>
       <c r="G92">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="H92">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="I92">
         <v>255</v>
       </c>
       <c r="J92">
-        <v>117.25</v>
+        <v>152.75</v>
       </c>
       <c r="K92">
-        <v>251.5</v>
+        <v>172.5</v>
       </c>
       <c r="L92">
         <v>255</v>
@@ -3911,37 +3911,37 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>19761</v>
+        <v>38893</v>
       </c>
       <c r="B93">
-        <v>197.61</v>
+        <v>194.465</v>
       </c>
       <c r="C93">
-        <v>251</v>
+        <v>169.5</v>
       </c>
       <c r="D93">
         <v>255</v>
       </c>
       <c r="E93">
-        <v>5976.563535353542</v>
+        <v>2915.717361809045</v>
       </c>
       <c r="F93">
-        <v>77.30823717660067</v>
+        <v>53.99738291629554</v>
       </c>
       <c r="G93">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="H93">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I93">
         <v>255</v>
       </c>
       <c r="J93">
-        <v>114.5</v>
+        <v>152</v>
       </c>
       <c r="K93">
-        <v>251</v>
+        <v>169.5</v>
       </c>
       <c r="L93">
         <v>255</v>
@@ -3949,37 +3949,37 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>20900</v>
+        <v>38731</v>
       </c>
       <c r="B94">
-        <v>209</v>
+        <v>193.655</v>
       </c>
       <c r="C94">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="D94">
         <v>255</v>
       </c>
       <c r="E94">
-        <v>4369.030303030303</v>
+        <v>2972.910527638188</v>
       </c>
       <c r="F94">
-        <v>66.09864070486097</v>
+        <v>54.52440304705947</v>
       </c>
       <c r="G94">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H94">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I94">
         <v>255</v>
       </c>
       <c r="J94">
-        <v>154.25</v>
+        <v>151</v>
       </c>
       <c r="K94">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="L94">
         <v>255</v>
@@ -3987,37 +3987,37 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>23017</v>
+        <v>38650</v>
       </c>
       <c r="B95">
-        <v>230.17</v>
+        <v>193.25</v>
       </c>
       <c r="C95">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="D95">
         <v>255</v>
       </c>
       <c r="E95">
-        <v>1484.122323232324</v>
+        <v>3003.324120603015</v>
       </c>
       <c r="F95">
-        <v>38.52430821224858</v>
+        <v>54.80259227995529</v>
       </c>
       <c r="G95">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="H95">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="I95">
         <v>255</v>
       </c>
       <c r="J95">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="K95">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="L95">
         <v>255</v>
@@ -4025,37 +4025,37 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>24805</v>
+        <v>38562</v>
       </c>
       <c r="B96">
-        <v>248.05</v>
+        <v>192.81</v>
       </c>
       <c r="C96">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="D96">
         <v>255</v>
       </c>
       <c r="E96">
-        <v>120.5530303030303</v>
+        <v>3038.908442211054</v>
       </c>
       <c r="F96">
-        <v>10.97966439847003</v>
+        <v>55.12629537898456</v>
       </c>
       <c r="G96">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="H96">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="I96">
         <v>255</v>
       </c>
       <c r="J96">
-        <v>246.25</v>
+        <v>150</v>
       </c>
       <c r="K96">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="L96">
         <v>255</v>
@@ -4063,37 +4063,37 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97">
-        <v>25388</v>
+        <v>38457</v>
       </c>
       <c r="B97">
-        <v>253.88</v>
+        <v>192.285</v>
       </c>
       <c r="C97">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="D97">
         <v>255</v>
       </c>
       <c r="E97">
-        <v>1.985454545454543</v>
+        <v>3080.938467336689</v>
       </c>
       <c r="F97">
-        <v>1.409061583272549</v>
+        <v>55.50620206190195</v>
       </c>
       <c r="G97">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="H97">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="I97">
         <v>255</v>
       </c>
       <c r="J97">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="K97">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="L97">
         <v>255</v>
@@ -4101,37 +4101,37 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98">
-        <v>25392</v>
+        <v>38357</v>
       </c>
       <c r="B98">
-        <v>253.92</v>
+        <v>191.785</v>
       </c>
       <c r="C98">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="D98">
         <v>255</v>
       </c>
       <c r="E98">
-        <v>1.347070707070706</v>
+        <v>3109.60680904523</v>
       </c>
       <c r="F98">
-        <v>1.160633752339947</v>
+        <v>55.76384858530865</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="H98">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="I98">
         <v>255</v>
       </c>
       <c r="J98">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="K98">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="L98">
         <v>255</v>
@@ -4139,37 +4139,37 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>25439</v>
+        <v>38236</v>
       </c>
       <c r="B99">
-        <v>254.39</v>
+        <v>191.18</v>
       </c>
       <c r="C99">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="D99">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E99">
-        <v>0.3413131313131319</v>
+        <v>3122.299095477386</v>
       </c>
       <c r="F99">
-        <v>0.5842201051942084</v>
+        <v>55.87753659098964</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="H99">
-        <v>253</v>
+        <v>97</v>
       </c>
       <c r="I99">
         <v>255</v>
       </c>
       <c r="J99">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="K99">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="L99">
         <v>255</v>
@@ -4177,37 +4177,37 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100">
-        <v>25464</v>
+        <v>38170</v>
       </c>
       <c r="B100">
-        <v>254.64</v>
+        <v>190.85</v>
       </c>
       <c r="C100">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="D100">
         <v>255</v>
       </c>
       <c r="E100">
-        <v>0.2327272727272732</v>
+        <v>3133.937185929651</v>
       </c>
       <c r="F100">
-        <v>0.4824181513244223</v>
+        <v>55.98157898746383</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="H100">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="I100">
         <v>255</v>
       </c>
       <c r="J100">
-        <v>254</v>
+        <v>148.75</v>
       </c>
       <c r="K100">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="L100">
         <v>255</v>
@@ -4215,39 +4215,3839 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>25464</v>
+        <v>38142</v>
       </c>
       <c r="B101">
-        <v>254.64</v>
+        <v>190.71</v>
       </c>
       <c r="C101">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D101">
         <v>255</v>
       </c>
       <c r="E101">
-        <v>0.2327272727272732</v>
+        <v>3133.935577889445</v>
       </c>
       <c r="F101">
-        <v>0.4824181513244223</v>
+        <v>55.98156462523573</v>
       </c>
       <c r="G101">
+        <v>154</v>
+      </c>
+      <c r="H101">
+        <v>101</v>
+      </c>
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>149</v>
+      </c>
+      <c r="K101">
+        <v>161</v>
+      </c>
+      <c r="L101">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>38105</v>
+      </c>
+      <c r="B102">
+        <v>190.525</v>
+      </c>
+      <c r="C102">
+        <v>160</v>
+      </c>
+      <c r="D102">
+        <v>255</v>
+      </c>
+      <c r="E102">
+        <v>3135.135050251257</v>
+      </c>
+      <c r="F102">
+        <v>55.99227670180288</v>
+      </c>
+      <c r="G102">
+        <v>152</v>
+      </c>
+      <c r="H102">
+        <v>103</v>
+      </c>
+      <c r="I102">
+        <v>255</v>
+      </c>
+      <c r="J102">
+        <v>149</v>
+      </c>
+      <c r="K102">
+        <v>160</v>
+      </c>
+      <c r="L102">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>38055</v>
+      </c>
+      <c r="B103">
+        <v>190.275</v>
+      </c>
+      <c r="C103">
+        <v>158</v>
+      </c>
+      <c r="D103">
+        <v>255</v>
+      </c>
+      <c r="E103">
+        <v>3142.873743718597</v>
+      </c>
+      <c r="F103">
+        <v>56.06133911813556</v>
+      </c>
+      <c r="G103">
+        <v>151</v>
+      </c>
+      <c r="H103">
+        <v>104</v>
+      </c>
+      <c r="I103">
+        <v>255</v>
+      </c>
+      <c r="J103">
+        <v>148</v>
+      </c>
+      <c r="K103">
+        <v>158</v>
+      </c>
+      <c r="L103">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>38022</v>
+      </c>
+      <c r="B104">
+        <v>190.11</v>
+      </c>
+      <c r="C104">
+        <v>157</v>
+      </c>
+      <c r="D104">
+        <v>255</v>
+      </c>
+      <c r="E104">
+        <v>3146.621005025127</v>
+      </c>
+      <c r="F104">
+        <v>56.09475024478785</v>
+      </c>
+      <c r="G104">
+        <v>150</v>
+      </c>
+      <c r="H104">
+        <v>105</v>
+      </c>
+      <c r="I104">
+        <v>255</v>
+      </c>
+      <c r="J104">
+        <v>148</v>
+      </c>
+      <c r="K104">
+        <v>157</v>
+      </c>
+      <c r="L104">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>37982</v>
+      </c>
+      <c r="B105">
+        <v>189.91</v>
+      </c>
+      <c r="C105">
+        <v>157</v>
+      </c>
+      <c r="D105">
+        <v>255</v>
+      </c>
+      <c r="E105">
+        <v>3155.941608040205</v>
+      </c>
+      <c r="F105">
+        <v>56.1777679161446</v>
+      </c>
+      <c r="G105">
+        <v>148</v>
+      </c>
+      <c r="H105">
+        <v>107</v>
+      </c>
+      <c r="I105">
+        <v>255</v>
+      </c>
+      <c r="J105">
+        <v>147</v>
+      </c>
+      <c r="K105">
+        <v>157</v>
+      </c>
+      <c r="L105">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>37943</v>
+      </c>
+      <c r="B106">
+        <v>189.715</v>
+      </c>
+      <c r="C106">
+        <v>156</v>
+      </c>
+      <c r="D106">
+        <v>255</v>
+      </c>
+      <c r="E106">
+        <v>3174.054045226136</v>
+      </c>
+      <c r="F106">
+        <v>56.33874373134474</v>
+      </c>
+      <c r="G106">
+        <v>148</v>
+      </c>
+      <c r="H106">
+        <v>107</v>
+      </c>
+      <c r="I106">
+        <v>255</v>
+      </c>
+      <c r="J106">
+        <v>146</v>
+      </c>
+      <c r="K106">
+        <v>156</v>
+      </c>
+      <c r="L106">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>37905</v>
+      </c>
+      <c r="B107">
+        <v>189.525</v>
+      </c>
+      <c r="C107">
+        <v>155</v>
+      </c>
+      <c r="D107">
+        <v>255</v>
+      </c>
+      <c r="E107">
+        <v>3187.366206030145</v>
+      </c>
+      <c r="F107">
+        <v>56.45676404143391</v>
+      </c>
+      <c r="G107">
+        <v>146</v>
+      </c>
+      <c r="H107">
+        <v>109</v>
+      </c>
+      <c r="I107">
+        <v>255</v>
+      </c>
+      <c r="J107">
+        <v>146</v>
+      </c>
+      <c r="K107">
+        <v>155</v>
+      </c>
+      <c r="L107">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>37880</v>
+      </c>
+      <c r="B108">
+        <v>189.4</v>
+      </c>
+      <c r="C108">
+        <v>154</v>
+      </c>
+      <c r="D108">
+        <v>255</v>
+      </c>
+      <c r="E108">
+        <v>3198.412060301503</v>
+      </c>
+      <c r="F108">
+        <v>56.55450521666248</v>
+      </c>
+      <c r="G108">
+        <v>145</v>
+      </c>
+      <c r="H108">
+        <v>110</v>
+      </c>
+      <c r="I108">
+        <v>255</v>
+      </c>
+      <c r="J108">
+        <v>146</v>
+      </c>
+      <c r="K108">
+        <v>154</v>
+      </c>
+      <c r="L108">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>37855</v>
+      </c>
+      <c r="B109">
+        <v>189.275</v>
+      </c>
+      <c r="C109">
+        <v>152</v>
+      </c>
+      <c r="D109">
+        <v>255</v>
+      </c>
+      <c r="E109">
+        <v>3207.20540201005</v>
+      </c>
+      <c r="F109">
+        <v>56.6321940419939</v>
+      </c>
+      <c r="G109">
+        <v>145</v>
+      </c>
+      <c r="H109">
+        <v>110</v>
+      </c>
+      <c r="I109">
+        <v>255</v>
+      </c>
+      <c r="J109">
+        <v>145</v>
+      </c>
+      <c r="K109">
+        <v>152</v>
+      </c>
+      <c r="L109">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>37877</v>
+      </c>
+      <c r="B110">
+        <v>189.385</v>
+      </c>
+      <c r="C110">
+        <v>152</v>
+      </c>
+      <c r="D110">
+        <v>255</v>
+      </c>
+      <c r="E110">
+        <v>3210.84097989949</v>
+      </c>
+      <c r="F110">
+        <v>56.66428310584623</v>
+      </c>
+      <c r="G110">
+        <v>145</v>
+      </c>
+      <c r="H110">
+        <v>110</v>
+      </c>
+      <c r="I110">
+        <v>255</v>
+      </c>
+      <c r="J110">
+        <v>144</v>
+      </c>
+      <c r="K110">
+        <v>152</v>
+      </c>
+      <c r="L110">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>37909</v>
+      </c>
+      <c r="B111">
+        <v>189.545</v>
+      </c>
+      <c r="C111">
+        <v>152</v>
+      </c>
+      <c r="D111">
+        <v>255</v>
+      </c>
+      <c r="E111">
+        <v>3201.354748743721</v>
+      </c>
+      <c r="F111">
+        <v>56.58051562811814</v>
+      </c>
+      <c r="G111">
+        <v>143</v>
+      </c>
+      <c r="H111">
+        <v>112</v>
+      </c>
+      <c r="I111">
+        <v>255</v>
+      </c>
+      <c r="J111">
+        <v>144</v>
+      </c>
+      <c r="K111">
+        <v>152</v>
+      </c>
+      <c r="L111">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>37955</v>
+      </c>
+      <c r="B112">
+        <v>189.775</v>
+      </c>
+      <c r="C112">
+        <v>152</v>
+      </c>
+      <c r="D112">
+        <v>255</v>
+      </c>
+      <c r="E112">
+        <v>3185.954145728645</v>
+      </c>
+      <c r="F112">
+        <v>56.44425697738119</v>
+      </c>
+      <c r="G112">
+        <v>141</v>
+      </c>
+      <c r="H112">
+        <v>114</v>
+      </c>
+      <c r="I112">
+        <v>255</v>
+      </c>
+      <c r="J112">
+        <v>144</v>
+      </c>
+      <c r="K112">
+        <v>152</v>
+      </c>
+      <c r="L112">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>37988</v>
+      </c>
+      <c r="B113">
+        <v>189.94</v>
+      </c>
+      <c r="C113">
+        <v>153</v>
+      </c>
+      <c r="D113">
+        <v>255</v>
+      </c>
+      <c r="E113">
+        <v>3180.780301507534</v>
+      </c>
+      <c r="F113">
+        <v>56.39840690575873</v>
+      </c>
+      <c r="G113">
+        <v>139</v>
+      </c>
+      <c r="H113">
+        <v>116</v>
+      </c>
+      <c r="I113">
+        <v>255</v>
+      </c>
+      <c r="J113">
+        <v>143.75</v>
+      </c>
+      <c r="K113">
+        <v>153</v>
+      </c>
+      <c r="L113">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>38035</v>
+      </c>
+      <c r="B114">
+        <v>190.175</v>
+      </c>
+      <c r="C114">
+        <v>153</v>
+      </c>
+      <c r="D114">
+        <v>255</v>
+      </c>
+      <c r="E114">
+        <v>3168.918969849249</v>
+      </c>
+      <c r="F114">
+        <v>56.2931520688729</v>
+      </c>
+      <c r="G114">
+        <v>137</v>
+      </c>
+      <c r="H114">
+        <v>118</v>
+      </c>
+      <c r="I114">
+        <v>255</v>
+      </c>
+      <c r="J114">
+        <v>144</v>
+      </c>
+      <c r="K114">
+        <v>153</v>
+      </c>
+      <c r="L114">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>38061</v>
+      </c>
+      <c r="B115">
+        <v>190.305</v>
+      </c>
+      <c r="C115">
+        <v>152</v>
+      </c>
+      <c r="D115">
+        <v>255</v>
+      </c>
+      <c r="E115">
+        <v>3168.323592964828</v>
+      </c>
+      <c r="F115">
+        <v>56.28786363830864</v>
+      </c>
+      <c r="G115">
+        <v>137</v>
+      </c>
+      <c r="H115">
+        <v>118</v>
+      </c>
+      <c r="I115">
+        <v>255</v>
+      </c>
+      <c r="J115">
+        <v>144</v>
+      </c>
+      <c r="K115">
+        <v>152</v>
+      </c>
+      <c r="L115">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>38112</v>
+      </c>
+      <c r="B116">
+        <v>190.56</v>
+      </c>
+      <c r="C116">
+        <v>151</v>
+      </c>
+      <c r="D116">
+        <v>255</v>
+      </c>
+      <c r="E116">
+        <v>3161.966231155772</v>
+      </c>
+      <c r="F116">
+        <v>56.23136341185204</v>
+      </c>
+      <c r="G116">
+        <v>138</v>
+      </c>
+      <c r="H116">
+        <v>117</v>
+      </c>
+      <c r="I116">
+        <v>255</v>
+      </c>
+      <c r="J116">
+        <v>144</v>
+      </c>
+      <c r="K116">
+        <v>151</v>
+      </c>
+      <c r="L116">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>38178</v>
+      </c>
+      <c r="B117">
+        <v>190.89</v>
+      </c>
+      <c r="C117">
+        <v>151</v>
+      </c>
+      <c r="D117">
+        <v>255</v>
+      </c>
+      <c r="E117">
+        <v>3147.123517587943</v>
+      </c>
+      <c r="F117">
+        <v>56.09922920671854</v>
+      </c>
+      <c r="G117">
+        <v>139</v>
+      </c>
+      <c r="H117">
+        <v>116</v>
+      </c>
+      <c r="I117">
+        <v>255</v>
+      </c>
+      <c r="J117">
+        <v>144</v>
+      </c>
+      <c r="K117">
+        <v>151</v>
+      </c>
+      <c r="L117">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>38270</v>
+      </c>
+      <c r="B118">
+        <v>191.35</v>
+      </c>
+      <c r="C118">
+        <v>152</v>
+      </c>
+      <c r="D118">
+        <v>255</v>
+      </c>
+      <c r="E118">
+        <v>3116.14824120603</v>
+      </c>
+      <c r="F118">
+        <v>55.82247075511823</v>
+      </c>
+      <c r="G118">
+        <v>138</v>
+      </c>
+      <c r="H118">
+        <v>117</v>
+      </c>
+      <c r="I118">
+        <v>255</v>
+      </c>
+      <c r="J118">
+        <v>145</v>
+      </c>
+      <c r="K118">
+        <v>152</v>
+      </c>
+      <c r="L118">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>38347</v>
+      </c>
+      <c r="B119">
+        <v>191.735</v>
+      </c>
+      <c r="C119">
+        <v>152</v>
+      </c>
+      <c r="D119">
+        <v>255</v>
+      </c>
+      <c r="E119">
+        <v>3092.266105527642</v>
+      </c>
+      <c r="F119">
+        <v>55.60814783399679</v>
+      </c>
+      <c r="G119">
+        <v>136</v>
+      </c>
+      <c r="H119">
+        <v>119</v>
+      </c>
+      <c r="I119">
+        <v>255</v>
+      </c>
+      <c r="J119">
+        <v>145</v>
+      </c>
+      <c r="K119">
+        <v>152</v>
+      </c>
+      <c r="L119">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>38408</v>
+      </c>
+      <c r="B120">
+        <v>192.04</v>
+      </c>
+      <c r="C120">
+        <v>153</v>
+      </c>
+      <c r="D120">
+        <v>255</v>
+      </c>
+      <c r="E120">
+        <v>3074.189346733671</v>
+      </c>
+      <c r="F120">
+        <v>55.44537263589876</v>
+      </c>
+      <c r="G120">
+        <v>135</v>
+      </c>
+      <c r="H120">
+        <v>120</v>
+      </c>
+      <c r="I120">
+        <v>255</v>
+      </c>
+      <c r="J120">
+        <v>146</v>
+      </c>
+      <c r="K120">
+        <v>153</v>
+      </c>
+      <c r="L120">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>38462</v>
+      </c>
+      <c r="B121">
+        <v>192.31</v>
+      </c>
+      <c r="C121">
+        <v>155</v>
+      </c>
+      <c r="D121">
+        <v>255</v>
+      </c>
+      <c r="E121">
+        <v>3077.772763819102</v>
+      </c>
+      <c r="F121">
+        <v>55.47767806802212</v>
+      </c>
+      <c r="G121">
+        <v>136</v>
+      </c>
+      <c r="H121">
+        <v>119</v>
+      </c>
+      <c r="I121">
+        <v>255</v>
+      </c>
+      <c r="J121">
+        <v>146</v>
+      </c>
+      <c r="K121">
+        <v>155</v>
+      </c>
+      <c r="L121">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>38508</v>
+      </c>
+      <c r="B122">
+        <v>192.54</v>
+      </c>
+      <c r="C122">
+        <v>155</v>
+      </c>
+      <c r="D122">
+        <v>255</v>
+      </c>
+      <c r="E122">
+        <v>3070.541105527634</v>
+      </c>
+      <c r="F122">
+        <v>55.4124634493688</v>
+      </c>
+      <c r="G122">
+        <v>134</v>
+      </c>
+      <c r="H122">
+        <v>121</v>
+      </c>
+      <c r="I122">
+        <v>255</v>
+      </c>
+      <c r="J122">
+        <v>146</v>
+      </c>
+      <c r="K122">
+        <v>155</v>
+      </c>
+      <c r="L122">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>38572</v>
+      </c>
+      <c r="B123">
+        <v>192.86</v>
+      </c>
+      <c r="C123">
+        <v>153.5</v>
+      </c>
+      <c r="D123">
+        <v>255</v>
+      </c>
+      <c r="E123">
+        <v>3060.030552763814</v>
+      </c>
+      <c r="F123">
+        <v>55.31754290244474</v>
+      </c>
+      <c r="G123">
+        <v>135</v>
+      </c>
+      <c r="H123">
+        <v>120</v>
+      </c>
+      <c r="I123">
+        <v>255</v>
+      </c>
+      <c r="J123">
+        <v>147</v>
+      </c>
+      <c r="K123">
+        <v>153.5</v>
+      </c>
+      <c r="L123">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>38641</v>
+      </c>
+      <c r="B124">
+        <v>193.205</v>
+      </c>
+      <c r="C124">
+        <v>154</v>
+      </c>
+      <c r="D124">
+        <v>255</v>
+      </c>
+      <c r="E124">
+        <v>3051.33967336684</v>
+      </c>
+      <c r="F124">
+        <v>55.23893258714219</v>
+      </c>
+      <c r="G124">
+        <v>135</v>
+      </c>
+      <c r="H124">
+        <v>120</v>
+      </c>
+      <c r="I124">
+        <v>255</v>
+      </c>
+      <c r="J124">
+        <v>147.75</v>
+      </c>
+      <c r="K124">
+        <v>154</v>
+      </c>
+      <c r="L124">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>38688</v>
+      </c>
+      <c r="B125">
+        <v>193.44</v>
+      </c>
+      <c r="C125">
+        <v>153.5</v>
+      </c>
+      <c r="D125">
+        <v>255</v>
+      </c>
+      <c r="E125">
+        <v>3045.091859296477</v>
+      </c>
+      <c r="F125">
+        <v>55.18235097652579</v>
+      </c>
+      <c r="G125">
+        <v>134</v>
+      </c>
+      <c r="H125">
+        <v>121</v>
+      </c>
+      <c r="I125">
+        <v>255</v>
+      </c>
+      <c r="J125">
+        <v>148</v>
+      </c>
+      <c r="K125">
+        <v>153.5</v>
+      </c>
+      <c r="L125">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>38733</v>
+      </c>
+      <c r="B126">
+        <v>193.665</v>
+      </c>
+      <c r="C126">
+        <v>153</v>
+      </c>
+      <c r="D126">
+        <v>255</v>
+      </c>
+      <c r="E126">
+        <v>3041.510326633169</v>
+      </c>
+      <c r="F126">
+        <v>55.14988963391649</v>
+      </c>
+      <c r="G126">
+        <v>133</v>
+      </c>
+      <c r="H126">
+        <v>122</v>
+      </c>
+      <c r="I126">
+        <v>255</v>
+      </c>
+      <c r="J126">
+        <v>148</v>
+      </c>
+      <c r="K126">
+        <v>153</v>
+      </c>
+      <c r="L126">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>38763</v>
+      </c>
+      <c r="B127">
+        <v>193.815</v>
+      </c>
+      <c r="C127">
+        <v>153</v>
+      </c>
+      <c r="D127">
+        <v>255</v>
+      </c>
+      <c r="E127">
+        <v>3043.719371859298</v>
+      </c>
+      <c r="F127">
+        <v>55.16991364737939</v>
+      </c>
+      <c r="G127">
+        <v>133</v>
+      </c>
+      <c r="H127">
+        <v>122</v>
+      </c>
+      <c r="I127">
+        <v>255</v>
+      </c>
+      <c r="J127">
+        <v>148</v>
+      </c>
+      <c r="K127">
+        <v>153</v>
+      </c>
+      <c r="L127">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>38815</v>
+      </c>
+      <c r="B128">
+        <v>194.075</v>
+      </c>
+      <c r="C128">
+        <v>153</v>
+      </c>
+      <c r="D128">
+        <v>255</v>
+      </c>
+      <c r="E128">
+        <v>3034.220477386933</v>
+      </c>
+      <c r="F128">
+        <v>55.08375874417916</v>
+      </c>
+      <c r="G128">
+        <v>133</v>
+      </c>
+      <c r="H128">
+        <v>122</v>
+      </c>
+      <c r="I128">
+        <v>255</v>
+      </c>
+      <c r="J128">
+        <v>147</v>
+      </c>
+      <c r="K128">
+        <v>153</v>
+      </c>
+      <c r="L128">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>38869</v>
+      </c>
+      <c r="B129">
+        <v>194.345</v>
+      </c>
+      <c r="C129">
+        <v>153</v>
+      </c>
+      <c r="D129">
+        <v>255</v>
+      </c>
+      <c r="E129">
+        <v>3029.2321356784</v>
+      </c>
+      <c r="F129">
+        <v>55.03846051333922</v>
+      </c>
+      <c r="G129">
+        <v>132</v>
+      </c>
+      <c r="H129">
+        <v>123</v>
+      </c>
+      <c r="I129">
+        <v>255</v>
+      </c>
+      <c r="J129">
+        <v>148</v>
+      </c>
+      <c r="K129">
+        <v>153</v>
+      </c>
+      <c r="L129">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>38919</v>
+      </c>
+      <c r="B130">
+        <v>194.595</v>
+      </c>
+      <c r="C130">
+        <v>154</v>
+      </c>
+      <c r="D130">
+        <v>255</v>
+      </c>
+      <c r="E130">
+        <v>3029.619070351759</v>
+      </c>
+      <c r="F130">
+        <v>55.04197553096871</v>
+      </c>
+      <c r="G130">
+        <v>133</v>
+      </c>
+      <c r="H130">
+        <v>122</v>
+      </c>
+      <c r="I130">
+        <v>255</v>
+      </c>
+      <c r="J130">
+        <v>148</v>
+      </c>
+      <c r="K130">
+        <v>154</v>
+      </c>
+      <c r="L130">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>38949</v>
+      </c>
+      <c r="B131">
+        <v>194.745</v>
+      </c>
+      <c r="C131">
+        <v>153</v>
+      </c>
+      <c r="D131">
+        <v>255</v>
+      </c>
+      <c r="E131">
+        <v>3038.472336683415</v>
+      </c>
+      <c r="F131">
+        <v>55.12233972432062</v>
+      </c>
+      <c r="G131">
+        <v>131</v>
+      </c>
+      <c r="H131">
+        <v>124</v>
+      </c>
+      <c r="I131">
+        <v>255</v>
+      </c>
+      <c r="J131">
+        <v>148</v>
+      </c>
+      <c r="K131">
+        <v>153</v>
+      </c>
+      <c r="L131">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>38976</v>
+      </c>
+      <c r="B132">
+        <v>194.88</v>
+      </c>
+      <c r="C132">
+        <v>155</v>
+      </c>
+      <c r="D132">
+        <v>255</v>
+      </c>
+      <c r="E132">
+        <v>3065.45286432161</v>
+      </c>
+      <c r="F132">
+        <v>55.36653198748871</v>
+      </c>
+      <c r="G132">
+        <v>131</v>
+      </c>
+      <c r="H132">
+        <v>124</v>
+      </c>
+      <c r="I132">
+        <v>255</v>
+      </c>
+      <c r="J132">
+        <v>147</v>
+      </c>
+      <c r="K132">
+        <v>155</v>
+      </c>
+      <c r="L132">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>39007</v>
+      </c>
+      <c r="B133">
+        <v>195.035</v>
+      </c>
+      <c r="C133">
+        <v>153</v>
+      </c>
+      <c r="D133">
+        <v>255</v>
+      </c>
+      <c r="E133">
+        <v>3085.923391959793</v>
+      </c>
+      <c r="F133">
+        <v>55.55108812579456</v>
+      </c>
+      <c r="G133">
+        <v>131</v>
+      </c>
+      <c r="H133">
+        <v>124</v>
+      </c>
+      <c r="I133">
+        <v>255</v>
+      </c>
+      <c r="J133">
+        <v>147</v>
+      </c>
+      <c r="K133">
+        <v>153</v>
+      </c>
+      <c r="L133">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>39035</v>
+      </c>
+      <c r="B134">
+        <v>195.175</v>
+      </c>
+      <c r="C134">
+        <v>154.5</v>
+      </c>
+      <c r="D134">
+        <v>255</v>
+      </c>
+      <c r="E134">
+        <v>3101.109924623118</v>
+      </c>
+      <c r="F134">
+        <v>55.68761015363398</v>
+      </c>
+      <c r="G134">
+        <v>131</v>
+      </c>
+      <c r="H134">
+        <v>124</v>
+      </c>
+      <c r="I134">
+        <v>255</v>
+      </c>
+      <c r="J134">
+        <v>146.75</v>
+      </c>
+      <c r="K134">
+        <v>154.5</v>
+      </c>
+      <c r="L134">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>39080</v>
+      </c>
+      <c r="B135">
+        <v>195.4</v>
+      </c>
+      <c r="C135">
+        <v>155.5</v>
+      </c>
+      <c r="D135">
+        <v>255</v>
+      </c>
+      <c r="E135">
+        <v>3107.849246231155</v>
+      </c>
+      <c r="F135">
+        <v>55.74808737733658</v>
+      </c>
+      <c r="G135">
+        <v>131</v>
+      </c>
+      <c r="H135">
+        <v>124</v>
+      </c>
+      <c r="I135">
+        <v>255</v>
+      </c>
+      <c r="J135">
+        <v>146</v>
+      </c>
+      <c r="K135">
+        <v>155.5</v>
+      </c>
+      <c r="L135">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>39139</v>
+      </c>
+      <c r="B136">
+        <v>195.695</v>
+      </c>
+      <c r="C136">
+        <v>158.5</v>
+      </c>
+      <c r="D136">
+        <v>255</v>
+      </c>
+      <c r="E136">
+        <v>3113.46932160805</v>
+      </c>
+      <c r="F136">
+        <v>55.79847060276876</v>
+      </c>
+      <c r="G136">
+        <v>130</v>
+      </c>
+      <c r="H136">
+        <v>125</v>
+      </c>
+      <c r="I136">
+        <v>255</v>
+      </c>
+      <c r="J136">
+        <v>146</v>
+      </c>
+      <c r="K136">
+        <v>158.5</v>
+      </c>
+      <c r="L136">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>39228</v>
+      </c>
+      <c r="B137">
+        <v>196.14</v>
+      </c>
+      <c r="C137">
+        <v>159.5</v>
+      </c>
+      <c r="D137">
+        <v>255</v>
+      </c>
+      <c r="E137">
+        <v>3114.442613065324</v>
+      </c>
+      <c r="F137">
+        <v>55.80719140993681</v>
+      </c>
+      <c r="G137">
+        <v>130</v>
+      </c>
+      <c r="H137">
+        <v>125</v>
+      </c>
+      <c r="I137">
+        <v>255</v>
+      </c>
+      <c r="J137">
+        <v>146</v>
+      </c>
+      <c r="K137">
+        <v>159.5</v>
+      </c>
+      <c r="L137">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>39287</v>
+      </c>
+      <c r="B138">
+        <v>196.435</v>
+      </c>
+      <c r="C138">
+        <v>160</v>
+      </c>
+      <c r="D138">
+        <v>255</v>
+      </c>
+      <c r="E138">
+        <v>3118.488216080406</v>
+      </c>
+      <c r="F138">
+        <v>55.84342589849235</v>
+      </c>
+      <c r="G138">
+        <v>130</v>
+      </c>
+      <c r="H138">
+        <v>125</v>
+      </c>
+      <c r="I138">
+        <v>255</v>
+      </c>
+      <c r="J138">
+        <v>146</v>
+      </c>
+      <c r="K138">
+        <v>160</v>
+      </c>
+      <c r="L138">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>39348</v>
+      </c>
+      <c r="B139">
+        <v>196.74</v>
+      </c>
+      <c r="C139">
+        <v>162.5</v>
+      </c>
+      <c r="D139">
+        <v>255</v>
+      </c>
+      <c r="E139">
+        <v>3113.791356783916</v>
+      </c>
+      <c r="F139">
+        <v>55.80135622710183</v>
+      </c>
+      <c r="G139">
+        <v>130</v>
+      </c>
+      <c r="H139">
+        <v>125</v>
+      </c>
+      <c r="I139">
+        <v>255</v>
+      </c>
+      <c r="J139">
+        <v>146</v>
+      </c>
+      <c r="K139">
+        <v>162.5</v>
+      </c>
+      <c r="L139">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>39394</v>
+      </c>
+      <c r="B140">
+        <v>196.97</v>
+      </c>
+      <c r="C140">
+        <v>169</v>
+      </c>
+      <c r="D140">
+        <v>255</v>
+      </c>
+      <c r="E140">
+        <v>3111.808140703515</v>
+      </c>
+      <c r="F140">
+        <v>55.78358307516213</v>
+      </c>
+      <c r="G140">
+        <v>130</v>
+      </c>
+      <c r="H140">
+        <v>125</v>
+      </c>
+      <c r="I140">
+        <v>255</v>
+      </c>
+      <c r="J140">
+        <v>146</v>
+      </c>
+      <c r="K140">
+        <v>169</v>
+      </c>
+      <c r="L140">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>39477</v>
+      </c>
+      <c r="B141">
+        <v>197.385</v>
+      </c>
+      <c r="C141">
+        <v>173.5</v>
+      </c>
+      <c r="D141">
+        <v>255</v>
+      </c>
+      <c r="E141">
+        <v>3114.03695979899</v>
+      </c>
+      <c r="F141">
+        <v>55.80355687408277</v>
+      </c>
+      <c r="G141">
+        <v>130</v>
+      </c>
+      <c r="H141">
+        <v>125</v>
+      </c>
+      <c r="I141">
+        <v>255</v>
+      </c>
+      <c r="J141">
+        <v>145</v>
+      </c>
+      <c r="K141">
+        <v>173.5</v>
+      </c>
+      <c r="L141">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>39546</v>
+      </c>
+      <c r="B142">
+        <v>197.73</v>
+      </c>
+      <c r="C142">
+        <v>177.5</v>
+      </c>
+      <c r="D142">
+        <v>255</v>
+      </c>
+      <c r="E142">
+        <v>3124.087537688451</v>
+      </c>
+      <c r="F142">
+        <v>55.89353753063453</v>
+      </c>
+      <c r="G142">
+        <v>131</v>
+      </c>
+      <c r="H142">
+        <v>124</v>
+      </c>
+      <c r="I142">
+        <v>255</v>
+      </c>
+      <c r="J142">
+        <v>146</v>
+      </c>
+      <c r="K142">
+        <v>177.5</v>
+      </c>
+      <c r="L142">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>39620</v>
+      </c>
+      <c r="B143">
+        <v>198.1</v>
+      </c>
+      <c r="C143">
+        <v>182</v>
+      </c>
+      <c r="D143">
+        <v>255</v>
+      </c>
+      <c r="E143">
+        <v>3130.562814070349</v>
+      </c>
+      <c r="F143">
+        <v>55.95143263644238</v>
+      </c>
+      <c r="G143">
+        <v>132</v>
+      </c>
+      <c r="H143">
+        <v>123</v>
+      </c>
+      <c r="I143">
+        <v>255</v>
+      </c>
+      <c r="J143">
+        <v>146</v>
+      </c>
+      <c r="K143">
+        <v>182</v>
+      </c>
+      <c r="L143">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>39692</v>
+      </c>
+      <c r="B144">
+        <v>198.46</v>
+      </c>
+      <c r="C144">
+        <v>190.5</v>
+      </c>
+      <c r="D144">
+        <v>255</v>
+      </c>
+      <c r="E144">
+        <v>3127.716984924618</v>
+      </c>
+      <c r="F144">
+        <v>55.9259956095966</v>
+      </c>
+      <c r="G144">
+        <v>132</v>
+      </c>
+      <c r="H144">
+        <v>123</v>
+      </c>
+      <c r="I144">
+        <v>255</v>
+      </c>
+      <c r="J144">
+        <v>147</v>
+      </c>
+      <c r="K144">
+        <v>190.5</v>
+      </c>
+      <c r="L144">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>39783</v>
+      </c>
+      <c r="B145">
+        <v>198.915</v>
+      </c>
+      <c r="C145">
+        <v>204</v>
+      </c>
+      <c r="D145">
+        <v>255</v>
+      </c>
+      <c r="E145">
+        <v>3129.183693467334</v>
+      </c>
+      <c r="F145">
+        <v>55.93910701349579</v>
+      </c>
+      <c r="G145">
+        <v>131</v>
+      </c>
+      <c r="H145">
+        <v>124</v>
+      </c>
+      <c r="I145">
+        <v>255</v>
+      </c>
+      <c r="J145">
+        <v>147</v>
+      </c>
+      <c r="K145">
+        <v>204</v>
+      </c>
+      <c r="L145">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>39883</v>
+      </c>
+      <c r="B146">
+        <v>199.415</v>
+      </c>
+      <c r="C146">
+        <v>217</v>
+      </c>
+      <c r="D146">
+        <v>255</v>
+      </c>
+      <c r="E146">
+        <v>3119.821884422111</v>
+      </c>
+      <c r="F146">
+        <v>55.85536576213704</v>
+      </c>
+      <c r="G146">
+        <v>131</v>
+      </c>
+      <c r="H146">
+        <v>124</v>
+      </c>
+      <c r="I146">
+        <v>255</v>
+      </c>
+      <c r="J146">
+        <v>147</v>
+      </c>
+      <c r="K146">
+        <v>217</v>
+      </c>
+      <c r="L146">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>39964</v>
+      </c>
+      <c r="B147">
+        <v>199.82</v>
+      </c>
+      <c r="C147">
+        <v>228.5</v>
+      </c>
+      <c r="D147">
+        <v>255</v>
+      </c>
+      <c r="E147">
+        <v>3118.781507537681</v>
+      </c>
+      <c r="F147">
+        <v>55.84605185272886</v>
+      </c>
+      <c r="G147">
+        <v>131</v>
+      </c>
+      <c r="H147">
+        <v>124</v>
+      </c>
+      <c r="I147">
+        <v>255</v>
+      </c>
+      <c r="J147">
+        <v>146</v>
+      </c>
+      <c r="K147">
+        <v>228.5</v>
+      </c>
+      <c r="L147">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>40012</v>
+      </c>
+      <c r="B148">
+        <v>200.06</v>
+      </c>
+      <c r="C148">
+        <v>238</v>
+      </c>
+      <c r="D148">
+        <v>255</v>
+      </c>
+      <c r="E148">
+        <v>3128.669748743715</v>
+      </c>
+      <c r="F148">
+        <v>55.93451303751303</v>
+      </c>
+      <c r="G148">
+        <v>131</v>
+      </c>
+      <c r="H148">
+        <v>124</v>
+      </c>
+      <c r="I148">
+        <v>255</v>
+      </c>
+      <c r="J148">
+        <v>146</v>
+      </c>
+      <c r="K148">
+        <v>238</v>
+      </c>
+      <c r="L148">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>40075</v>
+      </c>
+      <c r="B149">
+        <v>200.375</v>
+      </c>
+      <c r="C149">
+        <v>245</v>
+      </c>
+      <c r="D149">
+        <v>255</v>
+      </c>
+      <c r="E149">
+        <v>3139.039572864322</v>
+      </c>
+      <c r="F149">
+        <v>56.0271324704765</v>
+      </c>
+      <c r="G149">
+        <v>132</v>
+      </c>
+      <c r="H149">
+        <v>123</v>
+      </c>
+      <c r="I149">
+        <v>255</v>
+      </c>
+      <c r="J149">
+        <v>145</v>
+      </c>
+      <c r="K149">
+        <v>245</v>
+      </c>
+      <c r="L149">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>40139</v>
+      </c>
+      <c r="B150">
+        <v>200.695</v>
+      </c>
+      <c r="C150">
+        <v>249</v>
+      </c>
+      <c r="D150">
+        <v>255</v>
+      </c>
+      <c r="E150">
+        <v>3148.63515075377</v>
+      </c>
+      <c r="F150">
+        <v>56.11270044075378</v>
+      </c>
+      <c r="G150">
+        <v>132</v>
+      </c>
+      <c r="H150">
+        <v>123</v>
+      </c>
+      <c r="I150">
+        <v>255</v>
+      </c>
+      <c r="J150">
+        <v>144.75</v>
+      </c>
+      <c r="K150">
+        <v>249</v>
+      </c>
+      <c r="L150">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>40219</v>
+      </c>
+      <c r="B151">
+        <v>201.095</v>
+      </c>
+      <c r="C151">
+        <v>250</v>
+      </c>
+      <c r="D151">
+        <v>255</v>
+      </c>
+      <c r="E151">
+        <v>3153.433140703522</v>
+      </c>
+      <c r="F151">
+        <v>56.15543732091776</v>
+      </c>
+      <c r="G151">
+        <v>133</v>
+      </c>
+      <c r="H151">
+        <v>122</v>
+      </c>
+      <c r="I151">
+        <v>255</v>
+      </c>
+      <c r="J151">
+        <v>144.75</v>
+      </c>
+      <c r="K151">
+        <v>250</v>
+      </c>
+      <c r="L151">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>40288</v>
+      </c>
+      <c r="B152">
+        <v>201.44</v>
+      </c>
+      <c r="C152">
+        <v>249.5</v>
+      </c>
+      <c r="D152">
+        <v>255</v>
+      </c>
+      <c r="E152">
+        <v>3147.232562814065</v>
+      </c>
+      <c r="F152">
+        <v>56.1002010942391</v>
+      </c>
+      <c r="G152">
+        <v>133</v>
+      </c>
+      <c r="H152">
+        <v>122</v>
+      </c>
+      <c r="I152">
+        <v>255</v>
+      </c>
+      <c r="J152">
+        <v>144</v>
+      </c>
+      <c r="K152">
+        <v>249.5</v>
+      </c>
+      <c r="L152">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>40402</v>
+      </c>
+      <c r="B153">
+        <v>202.01</v>
+      </c>
+      <c r="C153">
+        <v>252</v>
+      </c>
+      <c r="D153">
+        <v>255</v>
+      </c>
+      <c r="E153">
+        <v>3171.969748743722</v>
+      </c>
+      <c r="F153">
+        <v>56.32024279727247</v>
+      </c>
+      <c r="G153">
+        <v>131</v>
+      </c>
+      <c r="H153">
+        <v>124</v>
+      </c>
+      <c r="I153">
+        <v>255</v>
+      </c>
+      <c r="J153">
+        <v>144</v>
+      </c>
+      <c r="K153">
+        <v>252</v>
+      </c>
+      <c r="L153">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>40500</v>
+      </c>
+      <c r="B154">
+        <v>202.5</v>
+      </c>
+      <c r="C154">
+        <v>254</v>
+      </c>
+      <c r="D154">
+        <v>255</v>
+      </c>
+      <c r="E154">
+        <v>3194.422110552764</v>
+      </c>
+      <c r="F154">
+        <v>56.51921894853788</v>
+      </c>
+      <c r="G154">
+        <v>131</v>
+      </c>
+      <c r="H154">
+        <v>124</v>
+      </c>
+      <c r="I154">
+        <v>255</v>
+      </c>
+      <c r="J154">
+        <v>144</v>
+      </c>
+      <c r="K154">
+        <v>254</v>
+      </c>
+      <c r="L154">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>40584</v>
+      </c>
+      <c r="B155">
+        <v>202.92</v>
+      </c>
+      <c r="C155">
+        <v>254.5</v>
+      </c>
+      <c r="D155">
+        <v>255</v>
+      </c>
+      <c r="E155">
+        <v>3194.606633165834</v>
+      </c>
+      <c r="F155">
+        <v>56.52085131317321</v>
+      </c>
+      <c r="G155">
+        <v>131</v>
+      </c>
+      <c r="H155">
+        <v>124</v>
+      </c>
+      <c r="I155">
+        <v>255</v>
+      </c>
+      <c r="J155">
+        <v>143.75</v>
+      </c>
+      <c r="K155">
+        <v>254.5</v>
+      </c>
+      <c r="L155">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>40635</v>
+      </c>
+      <c r="B156">
+        <v>203.175</v>
+      </c>
+      <c r="C156">
+        <v>253</v>
+      </c>
+      <c r="D156">
+        <v>255</v>
+      </c>
+      <c r="E156">
+        <v>3220.868718592954</v>
+      </c>
+      <c r="F156">
+        <v>56.75269789704235</v>
+      </c>
+      <c r="G156">
+        <v>132</v>
+      </c>
+      <c r="H156">
+        <v>123</v>
+      </c>
+      <c r="I156">
+        <v>255</v>
+      </c>
+      <c r="J156">
+        <v>143</v>
+      </c>
+      <c r="K156">
+        <v>253</v>
+      </c>
+      <c r="L156">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>40675</v>
+      </c>
+      <c r="B157">
+        <v>203.375</v>
+      </c>
+      <c r="C157">
+        <v>254</v>
+      </c>
+      <c r="D157">
+        <v>255</v>
+      </c>
+      <c r="E157">
+        <v>3249.511934673367</v>
+      </c>
+      <c r="F157">
+        <v>57.00449047814888</v>
+      </c>
+      <c r="G157">
+        <v>132</v>
+      </c>
+      <c r="H157">
+        <v>123</v>
+      </c>
+      <c r="I157">
+        <v>255</v>
+      </c>
+      <c r="J157">
+        <v>142</v>
+      </c>
+      <c r="K157">
+        <v>254</v>
+      </c>
+      <c r="L157">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>40706</v>
+      </c>
+      <c r="B158">
+        <v>203.53</v>
+      </c>
+      <c r="C158">
+        <v>254</v>
+      </c>
+      <c r="D158">
+        <v>255</v>
+      </c>
+      <c r="E158">
+        <v>3283.225226130658</v>
+      </c>
+      <c r="F158">
+        <v>57.29943478020231</v>
+      </c>
+      <c r="G158">
+        <v>133</v>
+      </c>
+      <c r="H158">
+        <v>122</v>
+      </c>
+      <c r="I158">
+        <v>255</v>
+      </c>
+      <c r="J158">
+        <v>142</v>
+      </c>
+      <c r="K158">
+        <v>254</v>
+      </c>
+      <c r="L158">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>40740</v>
+      </c>
+      <c r="B159">
+        <v>203.7</v>
+      </c>
+      <c r="C159">
+        <v>254</v>
+      </c>
+      <c r="D159">
+        <v>255</v>
+      </c>
+      <c r="E159">
+        <v>3320.703517587925</v>
+      </c>
+      <c r="F159">
+        <v>57.62554570316819</v>
+      </c>
+      <c r="G159">
+        <v>134</v>
+      </c>
+      <c r="H159">
+        <v>121</v>
+      </c>
+      <c r="I159">
+        <v>255</v>
+      </c>
+      <c r="J159">
+        <v>141</v>
+      </c>
+      <c r="K159">
+        <v>254</v>
+      </c>
+      <c r="L159">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>40800</v>
+      </c>
+      <c r="B160">
+        <v>204</v>
+      </c>
+      <c r="C160">
+        <v>254</v>
+      </c>
+      <c r="D160">
+        <v>255</v>
+      </c>
+      <c r="E160">
+        <v>3349.829145728643</v>
+      </c>
+      <c r="F160">
+        <v>57.87770853902773</v>
+      </c>
+      <c r="G160">
+        <v>135</v>
+      </c>
+      <c r="H160">
+        <v>120</v>
+      </c>
+      <c r="I160">
+        <v>255</v>
+      </c>
+      <c r="J160">
+        <v>140</v>
+      </c>
+      <c r="K160">
+        <v>254</v>
+      </c>
+      <c r="L160">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>40855</v>
+      </c>
+      <c r="B161">
+        <v>204.275</v>
+      </c>
+      <c r="C161">
+        <v>254</v>
+      </c>
+      <c r="D161">
+        <v>255</v>
+      </c>
+      <c r="E161">
+        <v>3390.491834170856</v>
+      </c>
+      <c r="F161">
+        <v>58.22793001791199</v>
+      </c>
+      <c r="G161">
+        <v>136</v>
+      </c>
+      <c r="H161">
+        <v>119</v>
+      </c>
+      <c r="I161">
+        <v>255</v>
+      </c>
+      <c r="J161">
+        <v>139</v>
+      </c>
+      <c r="K161">
+        <v>254</v>
+      </c>
+      <c r="L161">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>40911</v>
+      </c>
+      <c r="B162">
+        <v>204.555</v>
+      </c>
+      <c r="C162">
+        <v>254</v>
+      </c>
+      <c r="D162">
+        <v>255</v>
+      </c>
+      <c r="E162">
+        <v>3425.554748743733</v>
+      </c>
+      <c r="F162">
+        <v>58.52823890007057</v>
+      </c>
+      <c r="G162">
+        <v>137</v>
+      </c>
+      <c r="H162">
+        <v>118</v>
+      </c>
+      <c r="I162">
+        <v>255</v>
+      </c>
+      <c r="J162">
+        <v>138.75</v>
+      </c>
+      <c r="K162">
+        <v>254</v>
+      </c>
+      <c r="L162">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>40925</v>
+      </c>
+      <c r="B163">
+        <v>204.625</v>
+      </c>
+      <c r="C163">
+        <v>254</v>
+      </c>
+      <c r="D163">
+        <v>255</v>
+      </c>
+      <c r="E163">
+        <v>3453.542085427136</v>
+      </c>
+      <c r="F163">
+        <v>58.76684512058764</v>
+      </c>
+      <c r="G163">
+        <v>138</v>
+      </c>
+      <c r="H163">
+        <v>117</v>
+      </c>
+      <c r="I163">
+        <v>255</v>
+      </c>
+      <c r="J163">
+        <v>138.75</v>
+      </c>
+      <c r="K163">
+        <v>254</v>
+      </c>
+      <c r="L163">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164">
+        <v>40973</v>
+      </c>
+      <c r="B164">
+        <v>204.865</v>
+      </c>
+      <c r="C164">
+        <v>254</v>
+      </c>
+      <c r="D164">
+        <v>255</v>
+      </c>
+      <c r="E164">
+        <v>3535.132437185928</v>
+      </c>
+      <c r="F164">
+        <v>59.45697971799382</v>
+      </c>
+      <c r="G164">
+        <v>142</v>
+      </c>
+      <c r="H164">
+        <v>113</v>
+      </c>
+      <c r="I164">
+        <v>255</v>
+      </c>
+      <c r="J164">
+        <v>136.75</v>
+      </c>
+      <c r="K164">
+        <v>254</v>
+      </c>
+      <c r="L164">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165">
+        <v>41013</v>
+      </c>
+      <c r="B165">
+        <v>205.065</v>
+      </c>
+      <c r="C165">
+        <v>254</v>
+      </c>
+      <c r="D165">
+        <v>255</v>
+      </c>
+      <c r="E165">
+        <v>3599.136457286446</v>
+      </c>
+      <c r="F165">
+        <v>59.99280337912578</v>
+      </c>
+      <c r="G165">
+        <v>141</v>
+      </c>
+      <c r="H165">
+        <v>114</v>
+      </c>
+      <c r="I165">
+        <v>255</v>
+      </c>
+      <c r="J165">
+        <v>136</v>
+      </c>
+      <c r="K165">
+        <v>254</v>
+      </c>
+      <c r="L165">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166">
+        <v>41067</v>
+      </c>
+      <c r="B166">
+        <v>205.335</v>
+      </c>
+      <c r="C166">
+        <v>254</v>
+      </c>
+      <c r="D166">
+        <v>255</v>
+      </c>
+      <c r="E166">
+        <v>3645.671130653279</v>
+      </c>
+      <c r="F166">
+        <v>60.37939326171868</v>
+      </c>
+      <c r="G166">
+        <v>145</v>
+      </c>
+      <c r="H166">
+        <v>110</v>
+      </c>
+      <c r="I166">
+        <v>255</v>
+      </c>
+      <c r="J166">
+        <v>136</v>
+      </c>
+      <c r="K166">
+        <v>254</v>
+      </c>
+      <c r="L166">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167">
+        <v>41124</v>
+      </c>
+      <c r="B167">
+        <v>205.62</v>
+      </c>
+      <c r="C167">
+        <v>255</v>
+      </c>
+      <c r="D167">
+        <v>255</v>
+      </c>
+      <c r="E167">
+        <v>3702.950351758787</v>
+      </c>
+      <c r="F167">
+        <v>60.85187221243721</v>
+      </c>
+      <c r="G167">
+        <v>146</v>
+      </c>
+      <c r="H167">
+        <v>109</v>
+      </c>
+      <c r="I167">
+        <v>255</v>
+      </c>
+      <c r="J167">
+        <v>135</v>
+      </c>
+      <c r="K167">
+        <v>255</v>
+      </c>
+      <c r="L167">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168">
+        <v>41147</v>
+      </c>
+      <c r="B168">
+        <v>205.735</v>
+      </c>
+      <c r="C168">
+        <v>254</v>
+      </c>
+      <c r="D168">
+        <v>255</v>
+      </c>
+      <c r="E168">
+        <v>3756.658065326632</v>
+      </c>
+      <c r="F168">
+        <v>61.2915823366197</v>
+      </c>
+      <c r="G168">
+        <v>151</v>
+      </c>
+      <c r="H168">
+        <v>104</v>
+      </c>
+      <c r="I168">
+        <v>255</v>
+      </c>
+      <c r="J168">
+        <v>134</v>
+      </c>
+      <c r="K168">
+        <v>254</v>
+      </c>
+      <c r="L168">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169">
+        <v>41166</v>
+      </c>
+      <c r="B169">
+        <v>205.83</v>
+      </c>
+      <c r="C169">
+        <v>254</v>
+      </c>
+      <c r="D169">
+        <v>255</v>
+      </c>
+      <c r="E169">
+        <v>3825.538793969837</v>
+      </c>
+      <c r="F169">
+        <v>61.85094012195641</v>
+      </c>
+      <c r="G169">
+        <v>154</v>
+      </c>
+      <c r="H169">
+        <v>101</v>
+      </c>
+      <c r="I169">
+        <v>255</v>
+      </c>
+      <c r="J169">
+        <v>132</v>
+      </c>
+      <c r="K169">
+        <v>254</v>
+      </c>
+      <c r="L169">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170">
+        <v>41181</v>
+      </c>
+      <c r="B170">
+        <v>205.905</v>
+      </c>
+      <c r="C170">
+        <v>254</v>
+      </c>
+      <c r="D170">
+        <v>255</v>
+      </c>
+      <c r="E170">
+        <v>3921.443190954772</v>
+      </c>
+      <c r="F170">
+        <v>62.62142757039936</v>
+      </c>
+      <c r="G170">
+        <v>156</v>
+      </c>
+      <c r="H170">
+        <v>99</v>
+      </c>
+      <c r="I170">
+        <v>255</v>
+      </c>
+      <c r="J170">
+        <v>130</v>
+      </c>
+      <c r="K170">
+        <v>254</v>
+      </c>
+      <c r="L170">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171">
+        <v>41188</v>
+      </c>
+      <c r="B171">
+        <v>205.94</v>
+      </c>
+      <c r="C171">
+        <v>253</v>
+      </c>
+      <c r="D171">
+        <v>255</v>
+      </c>
+      <c r="E171">
+        <v>4030.709949748727</v>
+      </c>
+      <c r="F171">
+        <v>63.4878724619807</v>
+      </c>
+      <c r="G171">
+        <v>158</v>
+      </c>
+      <c r="H171">
+        <v>97</v>
+      </c>
+      <c r="I171">
+        <v>255</v>
+      </c>
+      <c r="J171">
+        <v>128</v>
+      </c>
+      <c r="K171">
+        <v>253</v>
+      </c>
+      <c r="L171">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172">
+        <v>41170</v>
+      </c>
+      <c r="B172">
+        <v>205.85</v>
+      </c>
+      <c r="C172">
+        <v>253</v>
+      </c>
+      <c r="D172">
+        <v>255</v>
+      </c>
+      <c r="E172">
+        <v>4126.208542713578</v>
+      </c>
+      <c r="F172">
+        <v>64.23557069656638</v>
+      </c>
+      <c r="G172">
+        <v>156</v>
+      </c>
+      <c r="H172">
+        <v>99</v>
+      </c>
+      <c r="I172">
+        <v>255</v>
+      </c>
+      <c r="J172">
+        <v>126</v>
+      </c>
+      <c r="K172">
+        <v>253</v>
+      </c>
+      <c r="L172">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173">
+        <v>41153</v>
+      </c>
+      <c r="B173">
+        <v>205.765</v>
+      </c>
+      <c r="C173">
+        <v>253</v>
+      </c>
+      <c r="D173">
+        <v>255</v>
+      </c>
+      <c r="E173">
+        <v>4189.215854271365</v>
+      </c>
+      <c r="F173">
+        <v>64.72415201662642</v>
+      </c>
+      <c r="G173">
+        <v>159</v>
+      </c>
+      <c r="H173">
+        <v>96</v>
+      </c>
+      <c r="I173">
+        <v>255</v>
+      </c>
+      <c r="J173">
+        <v>124.75</v>
+      </c>
+      <c r="K173">
+        <v>253</v>
+      </c>
+      <c r="L173">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174">
+        <v>41144</v>
+      </c>
+      <c r="B174">
+        <v>205.72</v>
+      </c>
+      <c r="C174">
+        <v>253</v>
+      </c>
+      <c r="D174">
+        <v>255</v>
+      </c>
+      <c r="E174">
+        <v>4248.212663316569</v>
+      </c>
+      <c r="F174">
+        <v>65.17831436387848</v>
+      </c>
+      <c r="G174">
+        <v>163</v>
+      </c>
+      <c r="H174">
+        <v>92</v>
+      </c>
+      <c r="I174">
+        <v>255</v>
+      </c>
+      <c r="J174">
+        <v>123</v>
+      </c>
+      <c r="K174">
+        <v>253</v>
+      </c>
+      <c r="L174">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175">
+        <v>41113</v>
+      </c>
+      <c r="B175">
+        <v>205.565</v>
+      </c>
+      <c r="C175">
+        <v>252.5</v>
+      </c>
+      <c r="D175">
+        <v>255</v>
+      </c>
+      <c r="E175">
+        <v>4357.030929648239</v>
+      </c>
+      <c r="F175">
+        <v>66.00780961104708</v>
+      </c>
+      <c r="G175">
+        <v>171</v>
+      </c>
+      <c r="H175">
+        <v>84</v>
+      </c>
+      <c r="I175">
+        <v>255</v>
+      </c>
+      <c r="J175">
+        <v>121</v>
+      </c>
+      <c r="K175">
+        <v>252.5</v>
+      </c>
+      <c r="L175">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176">
+        <v>41045</v>
+      </c>
+      <c r="B176">
+        <v>205.225</v>
+      </c>
+      <c r="C176">
+        <v>252</v>
+      </c>
+      <c r="D176">
+        <v>255</v>
+      </c>
+      <c r="E176">
+        <v>4423.019472361813</v>
+      </c>
+      <c r="F176">
+        <v>66.50578525483188</v>
+      </c>
+      <c r="G176">
+        <v>174</v>
+      </c>
+      <c r="H176">
+        <v>81</v>
+      </c>
+      <c r="I176">
+        <v>255</v>
+      </c>
+      <c r="J176">
+        <v>119.75</v>
+      </c>
+      <c r="K176">
+        <v>252</v>
+      </c>
+      <c r="L176">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177">
+        <v>40930</v>
+      </c>
+      <c r="B177">
+        <v>204.65</v>
+      </c>
+      <c r="C177">
+        <v>252</v>
+      </c>
+      <c r="D177">
+        <v>255</v>
+      </c>
+      <c r="E177">
+        <v>4500.670854271368</v>
+      </c>
+      <c r="F177">
+        <v>67.08703939116234</v>
+      </c>
+      <c r="G177">
+        <v>178</v>
+      </c>
+      <c r="H177">
+        <v>77</v>
+      </c>
+      <c r="I177">
+        <v>255</v>
+      </c>
+      <c r="J177">
+        <v>116.75</v>
+      </c>
+      <c r="K177">
+        <v>252</v>
+      </c>
+      <c r="L177">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178">
+        <v>40788</v>
+      </c>
+      <c r="B178">
+        <v>203.94</v>
+      </c>
+      <c r="C178">
+        <v>252</v>
+      </c>
+      <c r="D178">
+        <v>255</v>
+      </c>
+      <c r="E178">
+        <v>4591.33306532664</v>
+      </c>
+      <c r="F178">
+        <v>67.75937621707153</v>
+      </c>
+      <c r="G178">
+        <v>180</v>
+      </c>
+      <c r="H178">
+        <v>75</v>
+      </c>
+      <c r="I178">
+        <v>255</v>
+      </c>
+      <c r="J178">
+        <v>113</v>
+      </c>
+      <c r="K178">
+        <v>252</v>
+      </c>
+      <c r="L178">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179">
+        <v>40640</v>
+      </c>
+      <c r="B179">
+        <v>203.2</v>
+      </c>
+      <c r="C179">
+        <v>252</v>
+      </c>
+      <c r="D179">
+        <v>255</v>
+      </c>
+      <c r="E179">
+        <v>4651.919597989948</v>
+      </c>
+      <c r="F179">
+        <v>68.20498220797325</v>
+      </c>
+      <c r="G179">
+        <v>181</v>
+      </c>
+      <c r="H179">
+        <v>74</v>
+      </c>
+      <c r="I179">
+        <v>255</v>
+      </c>
+      <c r="J179">
+        <v>108</v>
+      </c>
+      <c r="K179">
+        <v>252</v>
+      </c>
+      <c r="L179">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180">
+        <v>40448</v>
+      </c>
+      <c r="B180">
+        <v>202.24</v>
+      </c>
+      <c r="C180">
+        <v>251.5</v>
+      </c>
+      <c r="D180">
+        <v>255</v>
+      </c>
+      <c r="E180">
+        <v>4786.494874371856</v>
+      </c>
+      <c r="F180">
+        <v>69.18449880118996</v>
+      </c>
+      <c r="G180">
+        <v>183</v>
+      </c>
+      <c r="H180">
+        <v>72</v>
+      </c>
+      <c r="I180">
+        <v>255</v>
+      </c>
+      <c r="J180">
+        <v>104.5</v>
+      </c>
+      <c r="K180">
+        <v>251.5</v>
+      </c>
+      <c r="L180">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181">
+        <v>40210</v>
+      </c>
+      <c r="B181">
+        <v>201.05</v>
+      </c>
+      <c r="C181">
+        <v>251.5</v>
+      </c>
+      <c r="D181">
+        <v>255</v>
+      </c>
+      <c r="E181">
+        <v>4987.505025125631</v>
+      </c>
+      <c r="F181">
+        <v>70.62227003662252</v>
+      </c>
+      <c r="G181">
+        <v>183</v>
+      </c>
+      <c r="H181">
+        <v>72</v>
+      </c>
+      <c r="I181">
+        <v>255</v>
+      </c>
+      <c r="J181">
+        <v>101.25</v>
+      </c>
+      <c r="K181">
+        <v>251.5</v>
+      </c>
+      <c r="L181">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182">
+        <v>39919</v>
+      </c>
+      <c r="B182">
+        <v>199.595</v>
+      </c>
+      <c r="C182">
+        <v>251.5</v>
+      </c>
+      <c r="D182">
+        <v>255</v>
+      </c>
+      <c r="E182">
+        <v>5261.598969849246</v>
+      </c>
+      <c r="F182">
+        <v>72.53688006696487</v>
+      </c>
+      <c r="G182">
+        <v>186</v>
+      </c>
+      <c r="H182">
+        <v>69</v>
+      </c>
+      <c r="I182">
+        <v>255</v>
+      </c>
+      <c r="J182">
+        <v>109.25</v>
+      </c>
+      <c r="K182">
+        <v>251.5</v>
+      </c>
+      <c r="L182">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183">
+        <v>39685</v>
+      </c>
+      <c r="B183">
+        <v>198.425</v>
+      </c>
+      <c r="C183">
+        <v>251.5</v>
+      </c>
+      <c r="D183">
+        <v>255</v>
+      </c>
+      <c r="E183">
+        <v>5570.85866834171</v>
+      </c>
+      <c r="F183">
+        <v>74.63818505524976</v>
+      </c>
+      <c r="G183">
+        <v>185</v>
+      </c>
+      <c r="H183">
+        <v>70</v>
+      </c>
+      <c r="I183">
+        <v>255</v>
+      </c>
+      <c r="J183">
+        <v>117.25</v>
+      </c>
+      <c r="K183">
+        <v>251.5</v>
+      </c>
+      <c r="L183">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184">
+        <v>39553</v>
+      </c>
+      <c r="B184">
+        <v>197.765</v>
+      </c>
+      <c r="C184">
+        <v>251.5</v>
+      </c>
+      <c r="D184">
+        <v>255</v>
+      </c>
+      <c r="E184">
+        <v>5835.909321608049</v>
+      </c>
+      <c r="F184">
+        <v>76.39312352305048</v>
+      </c>
+      <c r="G184">
+        <v>189</v>
+      </c>
+      <c r="H184">
+        <v>66</v>
+      </c>
+      <c r="I184">
+        <v>255</v>
+      </c>
+      <c r="J184">
+        <v>114.75</v>
+      </c>
+      <c r="K184">
+        <v>251.5</v>
+      </c>
+      <c r="L184">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185">
+        <v>39899</v>
+      </c>
+      <c r="B185">
+        <v>199.495</v>
+      </c>
+      <c r="C185">
+        <v>252</v>
+      </c>
+      <c r="D185">
+        <v>255</v>
+      </c>
+      <c r="E185">
+        <v>5716.653241206017</v>
+      </c>
+      <c r="F185">
+        <v>75.60855269879207</v>
+      </c>
+      <c r="G185">
+        <v>190</v>
+      </c>
+      <c r="H185">
+        <v>65</v>
+      </c>
+      <c r="I185">
+        <v>255</v>
+      </c>
+      <c r="J185">
+        <v>121</v>
+      </c>
+      <c r="K185">
+        <v>252</v>
+      </c>
+      <c r="L185">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186">
+        <v>40954</v>
+      </c>
+      <c r="B186">
+        <v>204.77</v>
+      </c>
+      <c r="C186">
+        <v>254</v>
+      </c>
+      <c r="D186">
+        <v>255</v>
+      </c>
+      <c r="E186">
+        <v>5067.655376884428</v>
+      </c>
+      <c r="F186">
+        <v>71.1874664311382</v>
+      </c>
+      <c r="G186">
+        <v>186</v>
+      </c>
+      <c r="H186">
+        <v>69</v>
+      </c>
+      <c r="I186">
+        <v>255</v>
+      </c>
+      <c r="J186">
+        <v>140.75</v>
+      </c>
+      <c r="K186">
+        <v>254</v>
+      </c>
+      <c r="L186">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187">
+        <v>42697</v>
+      </c>
+      <c r="B187">
+        <v>213.485</v>
+      </c>
+      <c r="C187">
+        <v>254</v>
+      </c>
+      <c r="D187">
+        <v>255</v>
+      </c>
+      <c r="E187">
+        <v>3662.180678391959</v>
+      </c>
+      <c r="F187">
+        <v>60.51595391623567</v>
+      </c>
+      <c r="G187">
+        <v>163</v>
+      </c>
+      <c r="H187">
+        <v>92</v>
+      </c>
+      <c r="I187">
+        <v>255</v>
+      </c>
+      <c r="J187">
+        <v>166.75</v>
+      </c>
+      <c r="K187">
+        <v>254</v>
+      </c>
+      <c r="L187">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188">
+        <v>44879</v>
+      </c>
+      <c r="B188">
+        <v>224.395</v>
+      </c>
+      <c r="C188">
+        <v>254</v>
+      </c>
+      <c r="D188">
+        <v>255</v>
+      </c>
+      <c r="E188">
+        <v>2132.501482412059</v>
+      </c>
+      <c r="F188">
+        <v>46.17901560678897</v>
+      </c>
+      <c r="G188">
+        <v>130</v>
+      </c>
+      <c r="H188">
+        <v>125</v>
+      </c>
+      <c r="I188">
+        <v>255</v>
+      </c>
+      <c r="J188">
+        <v>195</v>
+      </c>
+      <c r="K188">
+        <v>254</v>
+      </c>
+      <c r="L188">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189">
+        <v>47120</v>
+      </c>
+      <c r="B189">
+        <v>235.6</v>
+      </c>
+      <c r="C189">
+        <v>254</v>
+      </c>
+      <c r="D189">
+        <v>255</v>
+      </c>
+      <c r="E189">
+        <v>932.6532663316551</v>
+      </c>
+      <c r="F189">
+        <v>30.53937239583772</v>
+      </c>
+      <c r="G189">
+        <v>89</v>
+      </c>
+      <c r="H189">
+        <v>166</v>
+      </c>
+      <c r="I189">
+        <v>255</v>
+      </c>
+      <c r="J189">
+        <v>221.25</v>
+      </c>
+      <c r="K189">
+        <v>254</v>
+      </c>
+      <c r="L189">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190">
+        <v>49077</v>
+      </c>
+      <c r="B190">
+        <v>245.385</v>
+      </c>
+      <c r="C190">
+        <v>254</v>
+      </c>
+      <c r="D190">
+        <v>255</v>
+      </c>
+      <c r="E190">
+        <v>240.6902261306529</v>
+      </c>
+      <c r="F190">
+        <v>15.51419434358913</v>
+      </c>
+      <c r="G190">
+        <v>47</v>
+      </c>
+      <c r="H190">
+        <v>208</v>
+      </c>
+      <c r="I190">
+        <v>255</v>
+      </c>
+      <c r="J190">
+        <v>241</v>
+      </c>
+      <c r="K190">
+        <v>254</v>
+      </c>
+      <c r="L190">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191">
+        <v>50150</v>
+      </c>
+      <c r="B191">
+        <v>250.75</v>
+      </c>
+      <c r="C191">
+        <v>254</v>
+      </c>
+      <c r="D191">
+        <v>255</v>
+      </c>
+      <c r="E191">
+        <v>43.56532663316583</v>
+      </c>
+      <c r="F191">
+        <v>6.60040352048008</v>
+      </c>
+      <c r="G191">
+        <v>22</v>
+      </c>
+      <c r="H191">
+        <v>233</v>
+      </c>
+      <c r="I191">
+        <v>255</v>
+      </c>
+      <c r="J191">
+        <v>250</v>
+      </c>
+      <c r="K191">
+        <v>254</v>
+      </c>
+      <c r="L191">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192">
+        <v>50677</v>
+      </c>
+      <c r="B192">
+        <v>253.385</v>
+      </c>
+      <c r="C192">
+        <v>254</v>
+      </c>
+      <c r="D192">
+        <v>255</v>
+      </c>
+      <c r="E192">
+        <v>4.720376884422127</v>
+      </c>
+      <c r="F192">
+        <v>2.172642834066871</v>
+      </c>
+      <c r="G192">
+        <v>8</v>
+      </c>
+      <c r="H192">
+        <v>247</v>
+      </c>
+      <c r="I192">
+        <v>255</v>
+      </c>
+      <c r="J192">
+        <v>253</v>
+      </c>
+      <c r="K192">
+        <v>254</v>
+      </c>
+      <c r="L192">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193">
+        <v>50825</v>
+      </c>
+      <c r="B193">
+        <v>254.125</v>
+      </c>
+      <c r="C193">
+        <v>254</v>
+      </c>
+      <c r="D193">
+        <v>255</v>
+      </c>
+      <c r="E193">
+        <v>1.215452261306533</v>
+      </c>
+      <c r="F193">
+        <v>1.102475515059873</v>
+      </c>
+      <c r="G193">
+        <v>6</v>
+      </c>
+      <c r="H193">
+        <v>249</v>
+      </c>
+      <c r="I193">
+        <v>255</v>
+      </c>
+      <c r="J193">
+        <v>254</v>
+      </c>
+      <c r="K193">
+        <v>254</v>
+      </c>
+      <c r="L193">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194">
+        <v>50783</v>
+      </c>
+      <c r="B194">
+        <v>253.915</v>
+      </c>
+      <c r="C194">
+        <v>254</v>
+      </c>
+      <c r="D194">
+        <v>255</v>
+      </c>
+      <c r="E194">
+        <v>1.696256281407037</v>
+      </c>
+      <c r="F194">
+        <v>1.302404039231696</v>
+      </c>
+      <c r="G194">
+        <v>5</v>
+      </c>
+      <c r="H194">
+        <v>250</v>
+      </c>
+      <c r="I194">
+        <v>255</v>
+      </c>
+      <c r="J194">
+        <v>253</v>
+      </c>
+      <c r="K194">
+        <v>254</v>
+      </c>
+      <c r="L194">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195">
+        <v>50823</v>
+      </c>
+      <c r="B195">
+        <v>254.115</v>
+      </c>
+      <c r="C195">
+        <v>254</v>
+      </c>
+      <c r="D195">
+        <v>255</v>
+      </c>
+      <c r="E195">
+        <v>1.097261306532666</v>
+      </c>
+      <c r="F195">
+        <v>1.04750241361663</v>
+      </c>
+      <c r="G195">
+        <v>5</v>
+      </c>
+      <c r="H195">
+        <v>250</v>
+      </c>
+      <c r="I195">
+        <v>255</v>
+      </c>
+      <c r="J195">
+        <v>253.75</v>
+      </c>
+      <c r="K195">
+        <v>254</v>
+      </c>
+      <c r="L195">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196">
+        <v>50863</v>
+      </c>
+      <c r="B196">
+        <v>254.315</v>
+      </c>
+      <c r="C196">
+        <v>254</v>
+      </c>
+      <c r="D196">
+        <v>255</v>
+      </c>
+      <c r="E196">
+        <v>0.6389698492462326</v>
+      </c>
+      <c r="F196">
+        <v>0.7993558964855595</v>
+      </c>
+      <c r="G196">
+        <v>4</v>
+      </c>
+      <c r="H196">
+        <v>251</v>
+      </c>
+      <c r="I196">
+        <v>255</v>
+      </c>
+      <c r="J196">
+        <v>254</v>
+      </c>
+      <c r="K196">
+        <v>254</v>
+      </c>
+      <c r="L196">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197">
+        <v>50903</v>
+      </c>
+      <c r="B197">
+        <v>254.515</v>
+      </c>
+      <c r="C197">
+        <v>255</v>
+      </c>
+      <c r="D197">
+        <v>255</v>
+      </c>
+      <c r="E197">
+        <v>0.2610804020100508</v>
+      </c>
+      <c r="F197">
+        <v>0.5109602743952321</v>
+      </c>
+      <c r="G197">
+        <v>2</v>
+      </c>
+      <c r="H197">
+        <v>253</v>
+      </c>
+      <c r="I197">
+        <v>255</v>
+      </c>
+      <c r="J197">
+        <v>254</v>
+      </c>
+      <c r="K197">
+        <v>255</v>
+      </c>
+      <c r="L197">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198">
+        <v>50927</v>
+      </c>
+      <c r="B198">
+        <v>254.635</v>
+      </c>
+      <c r="C198">
+        <v>255</v>
+      </c>
+      <c r="D198">
+        <v>255</v>
+      </c>
+      <c r="E198">
+        <v>0.2329396984924634</v>
+      </c>
+      <c r="F198">
+        <v>0.4826382687815621</v>
+      </c>
+      <c r="G198">
         <v>1</v>
       </c>
-      <c r="H101">
+      <c r="H198">
         <v>254</v>
       </c>
-      <c r="I101">
-        <v>255</v>
-      </c>
-      <c r="J101">
+      <c r="I198">
+        <v>255</v>
+      </c>
+      <c r="J198">
         <v>254</v>
       </c>
-      <c r="K101">
-        <v>255</v>
-      </c>
-      <c r="L101">
+      <c r="K198">
+        <v>255</v>
+      </c>
+      <c r="L198">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199">
+        <v>50927</v>
+      </c>
+      <c r="B199">
+        <v>254.635</v>
+      </c>
+      <c r="C199">
+        <v>255</v>
+      </c>
+      <c r="D199">
+        <v>255</v>
+      </c>
+      <c r="E199">
+        <v>0.2329396984924634</v>
+      </c>
+      <c r="F199">
+        <v>0.4826382687815621</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>254</v>
+      </c>
+      <c r="I199">
+        <v>255</v>
+      </c>
+      <c r="J199">
+        <v>254</v>
+      </c>
+      <c r="K199">
+        <v>255</v>
+      </c>
+      <c r="L199">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200">
+        <v>50927</v>
+      </c>
+      <c r="B200">
+        <v>254.635</v>
+      </c>
+      <c r="C200">
+        <v>255</v>
+      </c>
+      <c r="D200">
+        <v>255</v>
+      </c>
+      <c r="E200">
+        <v>0.2329396984924634</v>
+      </c>
+      <c r="F200">
+        <v>0.4826382687815621</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>254</v>
+      </c>
+      <c r="I200">
+        <v>255</v>
+      </c>
+      <c r="J200">
+        <v>254</v>
+      </c>
+      <c r="K200">
+        <v>255</v>
+      </c>
+      <c r="L200">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201">
+        <v>50927</v>
+      </c>
+      <c r="B201">
+        <v>254.635</v>
+      </c>
+      <c r="C201">
+        <v>255</v>
+      </c>
+      <c r="D201">
+        <v>255</v>
+      </c>
+      <c r="E201">
+        <v>0.2329396984924634</v>
+      </c>
+      <c r="F201">
+        <v>0.4826382687815621</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>254</v>
+      </c>
+      <c r="I201">
+        <v>255</v>
+      </c>
+      <c r="J201">
+        <v>254</v>
+      </c>
+      <c r="K201">
+        <v>255</v>
+      </c>
+      <c r="L201">
         <v>255</v>
       </c>
     </row>
